--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -196,9 +196,6 @@
     <t xml:space="preserve"> Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001</t>
   </si>
   <si>
-    <t xml:space="preserve"> Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble click para editar un registro, en el campo en el cual hago click cuando me trae el formulario, pone codigo HTML que no deberia ir</t>
-  </si>
-  <si>
     <t>Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me pone el ID de la unidad y no el nombre</t>
   </si>
   <si>
@@ -266,12 +263,6 @@
   </si>
   <si>
     <t>Si todo sale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al reves  o mostrar siempre los mensajes)</t>
-  </si>
-  <si>
-    <t>el relampagueo de las grillas auxiliares de la derecha al cambiarles el ancho al 100%</t>
-  </si>
-  <si>
-    <t>usar el arbol con localstorage… -Hecho! Pero sigue lento? Es por la conexión? -va lento tambien cuando uso la consola de chrome para revissar el localstorage</t>
   </si>
   <si>
     <t>el panel de grillas auxiliares cuando está vacio muestra el filtrador y algo raro</t>
@@ -305,6 +296,16 @@
   </si>
   <si>
     <t>Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido -Hecho, pero falta q se de cuenta q los renglones vacios no los debe rebotar como errores</t>
+  </si>
+  <si>
+    <t>usar el arbol con localstorage… -Hecho! Pero sigue lento? Es por la conexión? -va lento tambien cuando uso la consola de chrome para revissar el localstorage  -Tambien va lenta si en saco el modo tree y la pongo como una grilla normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble click para editar un registro, en el campo en el cual hago click cuando me trae el formulario, pone codigo HTML que no deberia ir  
+-En el de pedidos no pasa. Qué hay de diferente?</t>
+  </si>
+  <si>
+    <t>relampagueo de las grillas auxiliares de la derecha al cambiarles el ancho al 100% -¿son las grillas, o el tab que las contiene (lo q cambia de ancho)?</t>
   </si>
 </sst>
 </file>
@@ -434,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -464,9 +465,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -564,6 +562,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,16 +879,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="0.140625" style="39" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="39" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="0.140625" style="38" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="38" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0.42578125" style="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="73.85546875" style="5" customWidth="1"/>
@@ -891,7 +901,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -904,10 +914,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>39</v>
@@ -918,155 +928,154 @@
     </row>
     <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="40"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="40"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="4"/>
       <c r="G3" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="40"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="40"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
         <v>24946</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="49">
         <v>42647</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="49">
         <v>42647</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="50">
         <v>2</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>24848</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="49">
+        <v>42635</v>
+      </c>
+      <c r="D8" s="49">
+        <v>42635</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>24848</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="11">
-        <v>42635</v>
-      </c>
-      <c r="D8" s="11">
-        <v>42635</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="I8" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
         <v>24938</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11">
-        <v>42646</v>
-      </c>
-      <c r="D9" s="11">
-        <v>42646</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="C9" s="49">
+        <v>42646</v>
+      </c>
+      <c r="D9" s="49">
+        <v>42646</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="50">
         <v>2</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>23846</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="11">
@@ -1075,61 +1084,61 @@
       <c r="D10" s="11">
         <v>42633</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>74</v>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>23847</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D11" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D11" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>73</v>
+      <c r="G11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>24939</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="18">
-        <v>42646</v>
-      </c>
-      <c r="D12" s="18">
-        <v>42646</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="17">
+        <v>42646</v>
+      </c>
+      <c r="D12" s="17">
+        <v>42646</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="4">
@@ -1139,84 +1148,84 @@
         <v>44</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>24932</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18">
-        <v>42646</v>
-      </c>
-      <c r="D13" s="18">
-        <v>42646</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="17">
+        <v>42646</v>
+      </c>
+      <c r="D13" s="17">
+        <v>42646</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>73</v>
+      <c r="H13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>24933</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18">
-        <v>42646</v>
-      </c>
-      <c r="D14" s="18">
-        <v>42646</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="17">
+        <v>42646</v>
+      </c>
+      <c r="D14" s="17">
+        <v>42646</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>73</v>
+      <c r="H14" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>24929</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18">
-        <v>42646</v>
-      </c>
-      <c r="D15" s="18">
-        <v>42646</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="17">
+        <v>42646</v>
+      </c>
+      <c r="D15" s="17">
+        <v>42646</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="4">
@@ -1226,26 +1235,26 @@
         <v>41</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>24930</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="18">
-        <v>42646</v>
-      </c>
-      <c r="D16" s="18">
-        <v>42646</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="17">
+        <v>42646</v>
+      </c>
+      <c r="D16" s="17">
+        <v>42646</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="4">
@@ -1255,104 +1264,104 @@
         <v>51</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>24931</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18">
-        <v>42646</v>
-      </c>
-      <c r="D17" s="18">
-        <v>42646</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="C17" s="17">
+        <v>42646</v>
+      </c>
+      <c r="D17" s="17">
+        <v>42646</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>74</v>
+      <c r="H17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>24934</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="18">
-        <v>42646</v>
-      </c>
-      <c r="D18" s="18">
-        <v>42646</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="C18" s="17">
+        <v>42646</v>
+      </c>
+      <c r="D18" s="17">
+        <v>42646</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>24935</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="18">
-        <v>42646</v>
-      </c>
-      <c r="D19" s="18">
-        <v>42646</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="C19" s="17">
+        <v>42646</v>
+      </c>
+      <c r="D19" s="17">
+        <v>42646</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="16" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>24936</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="11">
@@ -1361,146 +1370,146 @@
       <c r="D20" s="11">
         <v>42646</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>2</v>
       </c>
-      <c r="G20" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>73</v>
+      <c r="G20" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>24937</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="18">
-        <v>42646</v>
-      </c>
-      <c r="D21" s="18">
-        <v>42646</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="C21" s="17">
+        <v>42646</v>
+      </c>
+      <c r="D21" s="17">
+        <v>42646</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>23839</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D22" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E22" s="19" t="s">
+      <c r="C22" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D22" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="26" t="s">
+      <c r="H22" s="23" t="s">
         <v>73</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23840</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D23" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="C23" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D23" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23841</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D24" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E24" s="19" t="s">
+      <c r="C24" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D24" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>73</v>
+      <c r="H24" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23842</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D25" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E25" s="19" t="s">
+      <c r="C25" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D25" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="4"/>
@@ -1508,315 +1517,315 @@
         <v>59</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23848</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D26" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E26" s="19" t="s">
+      <c r="C26" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D26" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="26" t="s">
+      <c r="G26" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="23" t="s">
         <v>74</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23849</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D27" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E27" s="19" t="s">
+      <c r="C27" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D27" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>73</v>
+      <c r="G27" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>23850</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D28" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E28" s="19" t="s">
+      <c r="C28" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D28" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="29" t="s">
+      <c r="G28" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>73</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>23851</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D29" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E29" s="19" t="s">
+      <c r="C29" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D29" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="26" t="s">
+      <c r="G29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="23" t="s">
         <v>74</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>23852</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D30" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E30" s="19" t="s">
+      <c r="C30" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D30" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30" s="26" t="s">
+      <c r="G30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="23" t="s">
         <v>73</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>23853</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D31" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E31" s="19" t="s">
+      <c r="C31" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D31" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>73</v>
+      <c r="G31" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>23855</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D32" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E32" s="19" t="s">
+      <c r="C32" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D32" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>23856</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D33" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="C33" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D33" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>23857</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D34" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="C34" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D34" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>23858</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="18">
-        <v>42633</v>
-      </c>
-      <c r="D35" s="18">
-        <v>42633</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="C35" s="17">
+        <v>42633</v>
+      </c>
+      <c r="D35" s="17">
+        <v>42633</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
         <v>23844</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="31">
-        <v>42633</v>
-      </c>
-      <c r="D36" s="31">
-        <v>42633</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
+      <c r="C36" s="30">
+        <v>42633</v>
+      </c>
+      <c r="D36" s="30">
+        <v>42633</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="35"/>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>24849</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <v>42635</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="17">
         <v>42635</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="4"/>
@@ -1824,10 +1833,10 @@
         <v>38</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J37" s="9">
         <v>8</v>
@@ -1837,16 +1846,16 @@
       <c r="A38" s="1">
         <v>24850</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="17">
         <v>42635</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="17">
         <v>42635</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F38" s="4"/>
@@ -1854,10 +1863,10 @@
         <v>38</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J38" s="9">
         <v>8</v>
@@ -1867,27 +1876,27 @@
       <c r="A39" s="1">
         <v>24851</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="17">
         <v>42635</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="17">
         <v>42635</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="38"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J39" s="9">
         <v>8</v>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -301,11 +301,13 @@
     <t>usar el arbol con localstorage… -Hecho! Pero sigue lento? Es por la conexión? -va lento tambien cuando uso la consola de chrome para revissar el localstorage  -Tambien va lenta si en saco el modo tree y la pongo como una grilla normal</t>
   </si>
   <si>
+    <t>relampagueo de las grillas auxiliares de la derecha al cambiarles el ancho al 100% -¿son las grillas, o el tab que las contiene (lo q cambia de ancho)?</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble click para editar un registro, en el campo en el cual hago click cuando me trae el formulario, pone codigo HTML que no deberia ir  
--En el de pedidos no pasa. Qué hay de diferente?</t>
-  </si>
-  <si>
-    <t>relampagueo de las grillas auxiliares de la derecha al cambiarles el ancho al 100% -¿son las grillas, o el tab que las contiene (lo q cambia de ancho)?</t>
+-En el de pedidos no pasa. Qué hay de diferente? Ademas, si le das aceptar a ese formulario de detalle, se queda tildado, creo q porque estas mandando justamente ese sospechoso valor html
+-Ya sé: pasa si estás en modo editable sobre la grilla (celledit) y aparece llamas al formdetalle   -Bastará con llamar a sacarDeEditMode()? -Funciona si le sumas tambien el beforeEditCell() 
+-Listo. Resta ver otros formularios</t>
   </si>
 </sst>
 </file>
@@ -879,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -960,7 +962,7 @@
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1071,7 +1073,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="15" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>23846</v>
       </c>
@@ -1089,13 +1091,13 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.25">

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -181,9 +181,6 @@
     <t>05 No tengo donde poner el codigo del cliente como para poder buscarlo</t>
   </si>
   <si>
-    <t>06 Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado</t>
-  </si>
-  <si>
     <t>01- NO tengo donde poner el Equipo destino en la cabecera del RM</t>
   </si>
   <si>
@@ -308,6 +305,10 @@
 -En el de pedidos no pasa. Qué hay de diferente? Ademas, si le das aceptar a ese formulario de detalle, se queda tildado, creo q porque estas mandando justamente ese sospechoso valor html
 -Ya sé: pasa si estás en modo editable sobre la grilla (celledit) y aparece llamas al formdetalle   -Bastará con llamar a sacarDeEditMode()? -Funciona si le sumas tambien el beforeEditCell() 
 -Listo. Resta ver otros formularios</t>
+  </si>
+  <si>
+    <t>06 Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado  
+-no logro reproducirlo</t>
   </si>
 </sst>
 </file>
@@ -383,7 +384,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -577,6 +584,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -881,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -916,10 +948,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>39</v>
@@ -935,7 +967,7 @@
       <c r="D2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -947,10 +979,10 @@
       <c r="D3" s="2"/>
       <c r="F3" s="4"/>
       <c r="G3" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -962,7 +994,7 @@
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -974,7 +1006,7 @@
       <c r="D5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -986,7 +1018,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1011,13 +1043,13 @@
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1035,13 +1067,13 @@
       </c>
       <c r="F8" s="50"/>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1064,13 +1096,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -1091,13 +1123,13 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.25">
@@ -1118,13 +1150,13 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1150,10 +1182,10 @@
         <v>44</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1179,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1208,10 +1240,10 @@
         <v>54</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1237,10 +1269,10 @@
         <v>41</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1266,10 +1298,10 @@
         <v>51</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.25">
@@ -1295,39 +1327,39 @@
         <v>52</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="59" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
         <v>24934</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="17">
-        <v>42646</v>
-      </c>
-      <c r="D18" s="17">
-        <v>42646</v>
-      </c>
-      <c r="E18" s="18" t="s">
+      <c r="C18" s="53">
+        <v>42646</v>
+      </c>
+      <c r="D18" s="53">
+        <v>42646</v>
+      </c>
+      <c r="E18" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="55">
         <v>2</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="23" t="s">
+      <c r="G18" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="58" t="s">
         <v>72</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1350,13 +1382,13 @@
         <v>2</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -1379,13 +1411,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1408,13 +1440,13 @@
         <v>2</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -1435,13 +1467,13 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1462,13 +1494,13 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1489,13 +1521,13 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1516,13 +1548,13 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1543,13 +1575,13 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1570,13 +1602,13 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1597,13 +1629,13 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1624,13 +1656,13 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.25">
@@ -1651,13 +1683,13 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1678,13 +1710,13 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -1705,13 +1737,13 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1732,13 +1764,13 @@
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1759,13 +1791,13 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1786,13 +1818,13 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1835,10 +1867,10 @@
         <v>38</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J37" s="9">
         <v>8</v>
@@ -1865,10 +1897,10 @@
         <v>38</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J38" s="9">
         <v>8</v>
@@ -1895,10 +1927,10 @@
         <v>38</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J39" s="9">
         <v>8</v>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -249,14 +249,6 @@
   </si>
   <si>
     <t>****</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*q no aparezca cerada la grilla aux de facturas a imputar    
-*en la pantalla de detalle de conceptos no me deberias preguntar por cajas y bancos
-* por otro lado no me permite modificar las alicuotas de IVA </t>
-  </si>
-  <si>
-    <t>terminar de hacerlo</t>
   </si>
   <si>
     <t>Si todo sale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al reves  o mostrar siempre los mensajes)</t>
@@ -301,14 +293,52 @@
     <t>relampagueo de las grillas auxiliares de la derecha al cambiarles el ancho al 100% -¿son las grillas, o el tab que las contiene (lo q cambia de ancho)?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble click para editar un registro, en el campo en el cual hago click cuando me trae el formulario, pone codigo HTML que no deberia ir  
+    <t>06 Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado  
+-no logro reproducirlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*q no aparezca cerrada la grilla aux de facturas a imputar    
+*en la pantalla de detalle de conceptos no me deberias preguntar por cajas y bancos
+* por otro lado no me permite modificar las alicuotas de IVA </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble click para editar un registro, en el campo en el cual hago click cuando me trae el formulario, pone codigo HTML que no deberia ir  
 -En el de pedidos no pasa. Qué hay de diferente? Ademas, si le das aceptar a ese formulario de detalle, se queda tildado, creo q porque estas mandando justamente ese sospechoso valor html
 -Ya sé: pasa si estás en modo editable sobre la grilla (celledit) y aparece llamas al formdetalle   -Bastará con llamar a sacarDeEditMode()? -Funciona si le sumas tambien el beforeEditCell() 
--Listo. Resta ver otros formularios</t>
-  </si>
-  <si>
-    <t>06 Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado  
--no logro reproducirlo</t>
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Listo. Resta ver otros formularios</t>
+    </r>
+  </si>
+  <si>
+    <t>revisar el resto de los formularios</t>
+  </si>
+  <si>
+    <t>ordenar la pagina de Configuracion / Parametros</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">terminar de hacerlo 
+-Me explota porque busca la base Mantenimiento -agegarlo a Parametros para poder blanquearlo -LISTO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Ok. Faltaria q el Generar Vale te mostrase el formulario</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -355,22 +385,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -383,8 +397,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -459,9 +496,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,12 +512,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -497,18 +525,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -516,9 +538,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,9 +556,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,13 +567,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,16 +582,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,10 +597,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,16 +615,56 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -911,31 +967,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="0.140625" style="38" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="38" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="0.140625" style="31" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="31" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="0.42578125" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.42578125" style="8" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="73.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="9"/>
+    <col min="8" max="8" width="10.140625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -947,1030 +1004,1055 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="G2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="39"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="39"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="G4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="39"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="G5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
+      <c r="G6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" s="49" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
         <v>24946</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C9" s="46">
         <v>42647</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D9" s="46">
         <v>42647</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E9" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F9" s="48">
         <v>2</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G9" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
+      <c r="I9" s="58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
         <v>24848</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B10" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C10" s="46">
         <v>42635</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D10" s="46">
         <v>42635</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I10" s="58" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
+    <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>23847</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10">
+        <v>42633</v>
+      </c>
+      <c r="D11" s="10">
+        <v>42633</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
         <v>24938</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B12" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="49">
-        <v>42646</v>
-      </c>
-      <c r="D9" s="49">
-        <v>42646</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="C12" s="41">
+        <v>42646</v>
+      </c>
+      <c r="D12" s="41">
+        <v>42646</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F12" s="42">
         <v>2</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>23846</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="11">
-        <v>42633</v>
-      </c>
-      <c r="D10" s="11">
-        <v>42633</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>23847</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D11" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="17">
-        <v>42646</v>
-      </c>
-      <c r="D12" s="17">
-        <v>42646</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>72</v>
+      <c r="I12" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>24932</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="17">
-        <v>42646</v>
-      </c>
-      <c r="D13" s="17">
-        <v>42646</v>
-      </c>
-      <c r="E13" s="18" t="s">
+        <v>24933</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D13" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>24933</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="17">
-        <v>42646</v>
-      </c>
-      <c r="D14" s="17">
-        <v>42646</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I13" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="29" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>23846</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="24">
+        <v>42633</v>
+      </c>
+      <c r="D14" s="24">
+        <v>42633</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>24929</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="17">
-        <v>42646</v>
-      </c>
-      <c r="D15" s="17">
-        <v>42646</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>42</v>
+        <v>24939</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D15" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>24930</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="17">
-        <v>42646</v>
-      </c>
-      <c r="D16" s="17">
-        <v>42646</v>
-      </c>
-      <c r="E16" s="18" t="s">
+        <v>24932</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D16" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="G16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>24931</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="17">
-        <v>42646</v>
-      </c>
-      <c r="D17" s="17">
-        <v>42646</v>
-      </c>
-      <c r="E17" s="18" t="s">
+        <v>24929</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D17" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="59" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
-        <v>24934</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="53">
-        <v>42646</v>
-      </c>
-      <c r="D18" s="53">
-        <v>42646</v>
-      </c>
-      <c r="E18" s="54" t="s">
+      <c r="G17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>24930</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D18" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>24935</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="17">
-        <v>42646</v>
-      </c>
-      <c r="D19" s="17">
-        <v>42646</v>
-      </c>
-      <c r="E19" s="18" t="s">
+        <v>24931</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D19" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>24936</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="11">
-        <v>42646</v>
-      </c>
-      <c r="D20" s="11">
-        <v>42646</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="I19" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
+        <v>24934</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="52">
+        <v>42646</v>
+      </c>
+      <c r="D20" s="52">
+        <v>42646</v>
+      </c>
+      <c r="E20" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="54">
         <v>2</v>
       </c>
-      <c r="G20" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="G20" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>24937</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="17">
-        <v>42646</v>
-      </c>
-      <c r="D21" s="17">
-        <v>42646</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>43</v>
+        <v>24935</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D21" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>24936</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10">
+        <v>42646</v>
+      </c>
+      <c r="D22" s="10">
+        <v>42646</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>24937</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D23" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23839</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B24" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D22" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="C24" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D24" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="22" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H24" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="I24" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23840</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B25" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D23" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="C25" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D25" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="22" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="25" t="s">
+      <c r="H25" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="20" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23841</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D24" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23842</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D25" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>23848</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D26" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>47</v>
+        <v>23841</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D26" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="23" t="s">
+      <c r="G26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="25" t="s">
-        <v>72</v>
+      <c r="I26" s="20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>23849</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D27" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>47</v>
+        <v>23842</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D27" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="23" t="s">
+      <c r="G27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D28" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E28" s="18" t="s">
+        <v>23848</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D28" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="27" t="s">
+      <c r="G28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>23849</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D29" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>23850</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D30" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>23851</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B31" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D29" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E29" s="18" t="s">
+      <c r="C31" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D31" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="22" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H31" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I31" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>23852</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B32" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D30" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E30" s="18" t="s">
+      <c r="C32" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D32" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="22" t="s">
+      <c r="F32" s="4"/>
+      <c r="G32" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H32" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="I32" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>23853</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B33" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D31" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E31" s="18" t="s">
+      <c r="C33" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D33" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="22" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H33" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="I33" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>23855</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B34" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D32" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E32" s="18" t="s">
+      <c r="C34" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D34" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="7" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H34" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D33" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>23857</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D34" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <v>23856</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D35" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>23857</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D36" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>23858</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B37" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="17">
-        <v>42633</v>
-      </c>
-      <c r="D35" s="17">
-        <v>42633</v>
-      </c>
-      <c r="E35" s="18" t="s">
+      <c r="C37" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D37" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="7" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H37" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+      <c r="I37" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
         <v>23844</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B38" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="30">
-        <v>42633</v>
-      </c>
-      <c r="D36" s="30">
-        <v>42633</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>24849</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="17">
-        <v>42635</v>
-      </c>
-      <c r="D37" s="17">
-        <v>42635</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>24850</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="17">
-        <v>42635</v>
-      </c>
-      <c r="D38" s="17">
-        <v>42635</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J38" s="9">
-        <v>8</v>
-      </c>
+      <c r="C38" s="24">
+        <v>42633</v>
+      </c>
+      <c r="D38" s="24">
+        <v>42633</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
+        <v>24849</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="14">
+        <v>42635</v>
+      </c>
+      <c r="D39" s="14">
+        <v>42635</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>24850</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="14">
+        <v>42635</v>
+      </c>
+      <c r="D40" s="14">
+        <v>42635</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>24851</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B41" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C41" s="14">
         <v>42635</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D41" s="14">
         <v>42635</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E41" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="7" t="s">
+      <c r="F41" s="30"/>
+      <c r="G41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H41" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J41" s="8">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B16" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B17" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B13" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B14" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B18" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B19" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B20" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B21" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B9" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B12" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B7" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B22" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B23" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B24" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B25" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B36" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B10" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B17" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B18" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B19" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B16" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B13" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B20" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B21" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B22" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B23" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B12" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B15" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B9" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B24" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B25" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B26" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B27" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B38" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B14" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
     <hyperlink ref="B11" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B26" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B27" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B28" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B29" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B30" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B31" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B32" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B33" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B34" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B35" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B8" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B37" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B38" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B39" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B28" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B29" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B30" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B31" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B32" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B33" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B34" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B35" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B36" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B37" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B10" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B39" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B40" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B41" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -339,6 +339,12 @@
       </rPr>
       <t>-Ok. Faltaria q el Generar Vale te mostrase el formulario</t>
     </r>
+  </si>
+  <si>
+    <t>atacar primer mes el circuito de compras. El otro mes para ventas.</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
   </si>
 </sst>
 </file>
@@ -967,11 +973,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -982,7 +988,7 @@
     <col min="4" max="4" width="17.42578125" style="31" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="84.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="60" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="6" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="8"/>
@@ -1104,439 +1110,321 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" s="49" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
-        <v>24946</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="46">
-        <v>42647</v>
-      </c>
-      <c r="D9" s="46">
-        <v>42647</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="48">
-        <v>2</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="61" t="s">
+    <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="13" spans="1:11" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
+        <v>24848</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="46">
+        <v>42635</v>
+      </c>
+      <c r="D13" s="46">
+        <v>42635</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>23847</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10">
+        <v>42633</v>
+      </c>
+      <c r="D14" s="10">
+        <v>42633</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="29" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>23846</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="24">
+        <v>42633</v>
+      </c>
+      <c r="D15" s="24">
+        <v>42633</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>23839</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D16" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
-        <v>24848</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="46">
-        <v>42635</v>
-      </c>
-      <c r="D10" s="46">
-        <v>42635</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="61" t="s">
+      <c r="I16" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>23840</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D17" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>23841</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D18" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I18" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>23842</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D19" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="60" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>23847</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10">
-        <v>42633</v>
-      </c>
-      <c r="D11" s="10">
-        <v>42633</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="I19" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>23848</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D20" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>24938</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="41">
-        <v>42646</v>
-      </c>
-      <c r="D12" s="41">
-        <v>42646</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="42">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="60" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>24933</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14">
-        <v>42646</v>
-      </c>
-      <c r="D13" s="14">
-        <v>42646</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="62" t="s">
+      <c r="I20" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>23849</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="29" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>23846</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="24">
-        <v>42633</v>
-      </c>
-      <c r="D14" s="24">
-        <v>42633</v>
-      </c>
-      <c r="E14" s="43" t="s">
+      <c r="I21" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>23850</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D22" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="14">
-        <v>42646</v>
-      </c>
-      <c r="D15" s="14">
-        <v>42646</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="60" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23851</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D23" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I23" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>24932</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="14">
-        <v>42646</v>
-      </c>
-      <c r="D16" s="14">
-        <v>42646</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>24929</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="14">
-        <v>42646</v>
-      </c>
-      <c r="D17" s="14">
-        <v>42646</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>24930</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="14">
-        <v>42646</v>
-      </c>
-      <c r="D18" s="14">
-        <v>42646</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>24931</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14">
-        <v>42646</v>
-      </c>
-      <c r="D19" s="14">
-        <v>42646</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
-        <v>24934</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="52">
-        <v>42646</v>
-      </c>
-      <c r="D20" s="52">
-        <v>42646</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="54">
-        <v>2</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>24935</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="14">
-        <v>42646</v>
-      </c>
-      <c r="D21" s="14">
-        <v>42646</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>24936</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="10">
-        <v>42646</v>
-      </c>
-      <c r="D22" s="10">
-        <v>42646</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="11">
-        <v>2</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>24937</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="14">
-        <v>42646</v>
-      </c>
-      <c r="D23" s="14">
-        <v>42646</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23839</v>
+        <v>23852</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C24" s="14">
         <v>42633</v>
@@ -1545,11 +1433,11 @@
         <v>42633</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="18" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H24" s="62" t="s">
         <v>72</v>
@@ -1558,12 +1446,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23840</v>
+        <v>23853</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C25" s="14">
         <v>42633</v>
@@ -1572,25 +1460,25 @@
         <v>42633</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="18" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H25" s="62" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>23841</v>
+        <v>23855</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C26" s="14">
         <v>42633</v>
@@ -1599,25 +1487,25 @@
         <v>42633</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="62" t="s">
+      <c r="G26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I26" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>23842</v>
+        <v>23856</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C27" s="14">
         <v>42633</v>
@@ -1626,433 +1514,573 @@
         <v>42633</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H27" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>23857</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D28" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>23848</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D28" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="62" t="s">
+      <c r="I28" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>23858</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="14">
+        <v>42633</v>
+      </c>
+      <c r="D29" s="14">
+        <v>42633</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>23844</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="24">
+        <v>42633</v>
+      </c>
+      <c r="D30" s="24">
+        <v>42633</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>24849</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="14">
+        <v>42635</v>
+      </c>
+      <c r="D31" s="14">
+        <v>42635</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I31" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>23849</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D29" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="62" t="s">
+      <c r="J31" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>24850</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="14">
+        <v>42635</v>
+      </c>
+      <c r="D32" s="14">
+        <v>42635</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D30" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="66" t="s">
+      <c r="I32" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>23851</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D31" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>23852</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D32" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>71</v>
+      <c r="J32" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>23853</v>
+        <v>24851</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33" s="14">
-        <v>42633</v>
+        <v>42635</v>
       </c>
       <c r="D33" s="14">
-        <v>42633</v>
+        <v>42635</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>23855</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D34" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D35" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>23857</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D36" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>23858</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D37" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="60" t="s">
+      <c r="I33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
-        <v>23844</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="24">
-        <v>42633</v>
-      </c>
-      <c r="D38" s="24">
-        <v>42633</v>
-      </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="28"/>
-    </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>24849</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="14">
-        <v>42635</v>
-      </c>
-      <c r="D39" s="14">
-        <v>42635</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" s="6" t="s">
+      <c r="J33" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="49" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="44">
+        <v>24946</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="46">
+        <v>42647</v>
+      </c>
+      <c r="D39" s="46">
+        <v>42647</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="48">
+        <v>2</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="J39" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>24850</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="14">
-        <v>42635</v>
-      </c>
-      <c r="D40" s="14">
-        <v>42635</v>
+      <c r="I39" s="58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="39">
+        <v>24938</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="41">
+        <v>42646</v>
+      </c>
+      <c r="D40" s="41">
+        <v>42646</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="F40" s="42">
+        <v>2</v>
+      </c>
       <c r="G40" s="6" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H40" s="60" t="s">
         <v>73</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J40" s="8">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>24851</v>
+        <v>24933</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C41" s="14">
-        <v>42635</v>
+        <v>42646</v>
       </c>
       <c r="D41" s="14">
-        <v>42635</v>
+        <v>42646</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>24939</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D42" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J41" s="8">
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>24932</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>8</v>
+      </c>
+      <c r="C43" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D43" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>24929</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D44" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>24930</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D45" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>24931</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D46" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A47" s="50">
+        <v>24934</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="52">
+        <v>42646</v>
+      </c>
+      <c r="D47" s="52">
+        <v>42646</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="54">
+        <v>2</v>
+      </c>
+      <c r="G47" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>24935</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D48" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>24936</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="10">
+        <v>42646</v>
+      </c>
+      <c r="D49" s="10">
+        <v>42646</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="11">
+        <v>2</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>24937</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="14">
+        <v>42646</v>
+      </c>
+      <c r="D50" s="14">
+        <v>42646</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B18" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B19" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B16" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B13" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B20" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B21" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B22" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B23" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B12" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B15" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B9" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B24" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B25" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B26" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B27" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B38" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B14" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B11" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B28" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B29" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B30" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B31" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B32" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B33" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B34" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B35" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B36" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B37" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B10" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B39" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B40" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B41" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B44" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B45" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B46" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B43" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B41" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B47" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B48" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B49" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B50" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B40" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B42" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B39" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B16" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B17" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B18" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B19" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B30" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B15" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B14" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B20" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B21" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B22" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B23" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B24" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B25" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B26" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B27" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B28" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B29" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B13" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B31" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B32" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B33" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001</t>
-  </si>
-  <si>
-    <t>Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me pone el ID de la unidad y no el nombre</t>
   </si>
   <si>
     <t>Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y el paginado pone paginas en Blanco</t>
@@ -345,6 +342,26 @@
   </si>
   <si>
     <t>VENTAS</t>
+  </si>
+  <si>
+    <t>marcarle a fer la fecha de entrega</t>
+  </si>
+  <si>
+    <t>el movimiento del superbuscador al refrescar la pagina</t>
+  </si>
+  <si>
+    <t>tener test de circuito</t>
+  </si>
+  <si>
+    <t>mapas de los circuitos</t>
+  </si>
+  <si>
+    <t>PRESUP
+PED</t>
+  </si>
+  <si>
+    <t>Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me pone el ID de la unidad y no el nombre (Hace falta ACEPTAR. Si no, no se modifican las unidades)
+-En Pedidos tambien pasa. Las RM zafan</t>
   </si>
 </sst>
 </file>
@@ -371,12 +388,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -416,6 +427,12 @@
     </font>
     <font>
       <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -487,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -500,9 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -528,25 +542,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,9 +565,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -573,28 +575,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,7 +608,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -625,7 +624,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,10 +636,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -650,25 +646,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -973,32 +987,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="0.140625" style="31" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="31" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="0.140625" style="26" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="26" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="0.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="84.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="60" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="8"/>
+    <col min="6" max="6" width="0.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="91.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1010,1077 +1024,1124 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="32"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="32"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="32"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="32"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="32"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="32"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="32"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="13" spans="1:11" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="G9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
         <v>24848</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C14" s="40">
         <v>42635</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D14" s="40">
         <v>42635</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E14" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="F14" s="42"/>
+      <c r="G14" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>23847</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10">
-        <v>42633</v>
-      </c>
-      <c r="D14" s="10">
-        <v>42633</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="C15" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D15" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>23846</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D16" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="38" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>23839</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D17" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="55" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="29" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>23846</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="24">
-        <v>42633</v>
-      </c>
-      <c r="D15" s="24">
-        <v>42633</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>23839</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D16" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>23840</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D17" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>72</v>
+      <c r="I17" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>23840</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D18" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>23841</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D18" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="C19" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D19" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="18" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="20" t="s">
+      <c r="H19" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>23842</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D20" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>23848</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>23842</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D19" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="6" t="s">
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>23849</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D22" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23850</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D23" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="59" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>23848</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D20" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="I23" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23851</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D24" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="18" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="20" t="s">
+      <c r="H24" s="55" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>23849</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D21" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D22" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>23851</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D23" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23852</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D24" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>23852</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D25" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>23853</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B26" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D25" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="C26" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D26" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="18" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>23855</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D27" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>23855</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D26" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D27" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>71</v>
+      <c r="H27" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>23857</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D28" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E28" s="15" t="s">
+        <v>23856</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D28" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>71</v>
+      <c r="G28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>23857</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D29" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>23858</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B30" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="14">
-        <v>42633</v>
-      </c>
-      <c r="D29" s="14">
-        <v>42633</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="C30" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D30" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="53" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="I30" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
         <v>23844</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="24">
-        <v>42633</v>
-      </c>
-      <c r="D30" s="24">
-        <v>42633</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>24849</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="14">
-        <v>42635</v>
-      </c>
-      <c r="D31" s="14">
-        <v>42635</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J31" s="8">
-        <v>8</v>
-      </c>
+      <c r="C31" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D31" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>24850</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="14">
+        <v>24849</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="13">
         <v>42635</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>42635</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>49</v>
+      <c r="E32" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="8">
+      <c r="I32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <v>24850</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="13">
+        <v>42635</v>
+      </c>
+      <c r="D33" s="13">
+        <v>42635</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>24851</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B34" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C34" s="13">
         <v>42635</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="13">
         <v>42635</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="6" t="s">
+      <c r="F34" s="25"/>
+      <c r="G34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="H34" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="8">
+      <c r="I34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G35" s="8"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="49" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A39" s="44">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="38">
         <v>24946</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B40" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C40" s="40">
         <v>42647</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D40" s="40">
         <v>42647</v>
       </c>
-      <c r="E39" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="48">
-        <v>2</v>
-      </c>
-      <c r="G39" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="I39" s="58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="39">
-        <v>24938</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="41">
-        <v>42646</v>
-      </c>
-      <c r="D40" s="41">
-        <v>42646</v>
-      </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="41" t="s">
         <v>42</v>
       </c>
       <c r="F40" s="42">
         <v>2</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="6" t="s">
+      <c r="G40" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="54" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="I40" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
+        <v>24938</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="35">
+        <v>42646</v>
+      </c>
+      <c r="D41" s="35">
+        <v>42646</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="36">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>24933</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B42" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C42" s="13">
         <v>42646</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="13">
         <v>42646</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="F41" s="4">
-        <v>2</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="14">
-        <v>42646</v>
-      </c>
-      <c r="D42" s="14">
-        <v>42646</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="F42" s="4">
         <v>2</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I42" s="6" t="s">
+      <c r="G42" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="55" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="I42" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>24932</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="14">
+        <v>24939</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="13">
         <v>42646</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <v>42646</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>42</v>
+      <c r="E43" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="F43" s="4">
         <v>2</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" s="19" t="s">
+      <c r="G43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>24929</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="14">
+        <v>24932</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="13">
         <v>42646</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>42646</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="4">
         <v>2</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>24930</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="14">
+        <v>24929</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="13">
         <v>42646</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <v>42646</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F45" s="4">
         <v>2</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>71</v>
+      <c r="G45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>24931</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="14">
+        <v>24930</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="13">
         <v>42646</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="13">
         <v>42646</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F46" s="4">
         <v>2</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>24931</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D47" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="60" t="s">
+      <c r="H47" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="44">
+        <v>24934</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="46">
+        <v>42646</v>
+      </c>
+      <c r="D48" s="46">
+        <v>42646</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>24935</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D49" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>24936</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="9">
+        <v>42646</v>
+      </c>
+      <c r="D50" s="9">
+        <v>42646</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="10">
+        <v>2</v>
+      </c>
+      <c r="G50" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>24937</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D51" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="I46" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="57" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A47" s="50">
-        <v>24934</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="52">
-        <v>42646</v>
-      </c>
-      <c r="D47" s="52">
-        <v>42646</v>
-      </c>
-      <c r="E47" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="54">
-        <v>2</v>
-      </c>
-      <c r="G47" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="64" t="s">
+      <c r="I51" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="I47" s="56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>24935</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="14">
-        <v>42646</v>
-      </c>
-      <c r="D48" s="14">
-        <v>42646</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="4">
-        <v>2</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>24936</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="10">
-        <v>42646</v>
-      </c>
-      <c r="D49" s="10">
-        <v>42646</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="11">
-        <v>2</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="I49" s="38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>24937</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="14">
-        <v>42646</v>
-      </c>
-      <c r="D50" s="14">
-        <v>42646</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="4">
-        <v>2</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B44" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B45" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B46" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B43" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B41" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B47" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B48" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B49" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B50" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B40" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B42" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B39" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B16" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B17" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B18" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B19" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B30" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B15" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B14" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B20" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B21" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B22" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B23" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B24" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B25" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B26" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B27" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B28" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B29" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B13" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B31" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B32" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B33" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B45" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B46" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B47" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B44" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B42" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B48" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B49" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B50" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B51" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B41" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B43" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B40" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B17" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B18" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B19" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B20" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B31" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B16" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B15" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B21" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B22" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B23" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B24" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B25" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B26" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B27" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B28" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B29" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B30" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B14" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B32" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B33" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B34" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -361,7 +361,10 @@
   </si>
   <si>
     <t>Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me pone el ID de la unidad y no el nombre (Hace falta ACEPTAR. Si no, no se modifican las unidades)
--En Pedidos tambien pasa. Las RM zafan</t>
+-En Pedidos tambien pasa. Las RM zafan, creo q porq tienen un truco feo</t>
+  </si>
+  <si>
+    <t>sobrecarga la pantalla el doble recuadro del los autofilter</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +478,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -504,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -643,48 +652,67 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -991,7 +1019,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1031,7 @@
     <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0.42578125" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="91.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="52" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="5" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="7"/>
   </cols>
@@ -1024,7 +1052,7 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>73</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1058,7 +1086,7 @@
       <c r="G3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="52" t="s">
         <v>72</v>
       </c>
       <c r="J3" s="6"/>
@@ -1073,7 +1101,7 @@
       <c r="G4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>72</v>
       </c>
       <c r="J4" s="6"/>
@@ -1124,7 +1152,7 @@
       <c r="G8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="52" t="s">
         <v>72</v>
       </c>
       <c r="J8" s="6"/>
@@ -1173,95 +1201,80 @@
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G13" s="60" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+    <row r="15" spans="1:11" s="72" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="65">
         <v>24848</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B15" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C15" s="67">
         <v>42635</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D15" s="67">
         <v>42635</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E15" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="51" t="s">
+      <c r="F15" s="69"/>
+      <c r="G15" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H15" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I15" s="70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>23847</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D15" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E15" s="65" t="s">
+      <c r="C16" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D16" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E16" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="61" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H16" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>23846</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D16" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>74</v>
+      <c r="I16" s="32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1281,10 +1294,10 @@
         <v>46</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="54" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="17" t="s">
@@ -1308,40 +1321,40 @@
         <v>46</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="54" t="s">
         <v>70</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>23841</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D19" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D19" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="62" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="55" t="s">
+      <c r="H19" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="32" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1365,7 +1378,7 @@
       <c r="G20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="52" t="s">
         <v>72</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -1389,10 +1402,10 @@
         <v>47</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="54" t="s">
         <v>72</v>
       </c>
       <c r="I21" s="17" t="s">
@@ -1416,10 +1429,10 @@
         <v>47</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="55" t="s">
+      <c r="H22" s="54" t="s">
         <v>72</v>
       </c>
       <c r="I22" s="17" t="s">
@@ -1443,10 +1456,10 @@
         <v>47</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="58" t="s">
         <v>71</v>
       </c>
       <c r="I23" s="18" t="s">
@@ -1470,10 +1483,10 @@
         <v>47</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="55" t="s">
+      <c r="H24" s="54" t="s">
         <v>72</v>
       </c>
       <c r="I24" s="17" t="s">
@@ -1497,10 +1510,10 @@
         <v>48</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="55" t="s">
+      <c r="H25" s="54" t="s">
         <v>71</v>
       </c>
       <c r="I25" s="17" t="s">
@@ -1524,10 +1537,10 @@
         <v>48</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="55" t="s">
+      <c r="H26" s="54" t="s">
         <v>72</v>
       </c>
       <c r="I26" s="17" t="s">
@@ -1554,7 +1567,7 @@
       <c r="G27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="52" t="s">
         <v>72</v>
       </c>
       <c r="I27" s="5" t="s">
@@ -1581,7 +1594,7 @@
       <c r="G28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="53" t="s">
+      <c r="H28" s="52" t="s">
         <v>70</v>
       </c>
       <c r="I28" s="5" t="s">
@@ -1608,7 +1621,7 @@
       <c r="G29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="52" t="s">
         <v>72</v>
       </c>
       <c r="I29" s="5" t="s">
@@ -1635,38 +1648,49 @@
       <c r="G30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="52" t="s">
         <v>71</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>23844</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D31" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="23"/>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>24849</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="13">
+        <v>42635</v>
+      </c>
+      <c r="D31" s="13">
+        <v>42635</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>24849</v>
+        <v>24850</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="13">
         <v>42635</v>
@@ -1675,13 +1699,13 @@
         <v>42635</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="52" t="s">
         <v>72</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -1693,10 +1717,10 @@
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>24850</v>
+        <v>24851</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="13">
         <v>42635</v>
@@ -1705,13 +1729,13 @@
         <v>42635</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F33" s="25"/>
       <c r="G33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="52" t="s">
         <v>72</v>
       </c>
       <c r="I33" s="5" t="s">
@@ -1721,35 +1745,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>24851</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="13">
-        <v>42635</v>
-      </c>
-      <c r="D34" s="13">
-        <v>42635</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J34" s="7">
-        <v>8</v>
-      </c>
+    <row r="34" spans="1:10" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>23846</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D34" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>23844</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D35" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G36" s="6"/>
@@ -1781,7 +1821,7 @@
       <c r="G40" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="H40" s="53" t="s">
         <v>71</v>
       </c>
       <c r="I40" s="51" t="s">
@@ -1810,7 +1850,7 @@
       <c r="G41" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H41" s="53" t="s">
+      <c r="H41" s="52" t="s">
         <v>72</v>
       </c>
       <c r="I41" s="5" t="s">
@@ -1836,10 +1876,10 @@
       <c r="F42" s="4">
         <v>2</v>
       </c>
-      <c r="G42" s="62" t="s">
+      <c r="G42" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="55" t="s">
+      <c r="H42" s="54" t="s">
         <v>72</v>
       </c>
       <c r="I42" s="17" t="s">
@@ -1868,7 +1908,7 @@
       <c r="G43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="52" t="s">
         <v>72</v>
       </c>
       <c r="I43" s="5" t="s">
@@ -1894,10 +1934,10 @@
       <c r="F44" s="4">
         <v>2</v>
       </c>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="55" t="s">
+      <c r="H44" s="54" t="s">
         <v>72</v>
       </c>
       <c r="I44" s="16" t="s">
@@ -1926,7 +1966,7 @@
       <c r="G45" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H45" s="53" t="s">
+      <c r="H45" s="52" t="s">
         <v>70</v>
       </c>
       <c r="I45" s="5" t="s">
@@ -1955,7 +1995,7 @@
       <c r="G46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="52" t="s">
         <v>70</v>
       </c>
       <c r="I46" s="5" t="s">
@@ -1984,7 +2024,7 @@
       <c r="G47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="53" t="s">
+      <c r="H47" s="52" t="s">
         <v>71</v>
       </c>
       <c r="I47" s="15" t="s">
@@ -2010,10 +2050,10 @@
       <c r="F48" s="48">
         <v>2</v>
       </c>
-      <c r="G48" s="64" t="s">
+      <c r="G48" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="57" t="s">
+      <c r="H48" s="56" t="s">
         <v>70</v>
       </c>
       <c r="I48" s="49" t="s">
@@ -2042,7 +2082,7 @@
       <c r="G49" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="52" t="s">
         <v>71</v>
       </c>
       <c r="I49" s="5" t="s">
@@ -2068,10 +2108,10 @@
       <c r="F50" s="10">
         <v>2</v>
       </c>
-      <c r="G50" s="61" t="s">
+      <c r="G50" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="58" t="s">
+      <c r="H50" s="57" t="s">
         <v>70</v>
       </c>
       <c r="I50" s="32" t="s">
@@ -2100,7 +2140,7 @@
       <c r="G51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H51" s="53" t="s">
+      <c r="H51" s="52" t="s">
         <v>72</v>
       </c>
       <c r="I51" s="5" t="s">
@@ -2125,9 +2165,9 @@
     <hyperlink ref="B18" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
     <hyperlink ref="B19" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
     <hyperlink ref="B20" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B31" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B16" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B15" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B35" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B34" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B16" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
     <hyperlink ref="B21" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
     <hyperlink ref="B22" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
     <hyperlink ref="B23" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
@@ -2138,10 +2178,10 @@
     <hyperlink ref="B28" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
     <hyperlink ref="B29" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
     <hyperlink ref="B30" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B14" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B32" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B33" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B34" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B15" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B31" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B32" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B33" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -364,7 +364,13 @@
 -En Pedidos tambien pasa. Las RM zafan, creo q porq tienen un truco feo</t>
   </si>
   <si>
-    <t>sobrecarga la pantalla el doble recuadro del los autofilter</t>
+    <t>ES LENTO. -Es el menu? -creo q sí, creo q jode más q el arbol… -la verdad q no se. Y cuando uso el arbol con el localstorage, tarda banda porque el armado de la grilla es ernorme (o sea, no por ir a buscar los datos)</t>
+  </si>
+  <si>
+    <t>el doble recuadro de los autofilter. -por incompatiblidad entre twtbootstrap y jqgrid</t>
+  </si>
+  <si>
+    <t>orden asc/desc en las jqgrid</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -688,9 +694,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -713,6 +716,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1015,11 +1027,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1048,7 @@
     <col min="10" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,14 +1077,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="27"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>78</v>
+        <v>100</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1084,10 +1099,7 @@
       <c r="D3" s="2"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1099,22 +1111,22 @@
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="27"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1126,7 +1138,10 @@
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1138,7 +1153,7 @@
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1150,22 +1165,19 @@
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="27"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1177,7 +1189,10 @@
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1189,7 +1204,7 @@
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1201,7 +1216,7 @@
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1213,157 +1228,127 @@
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="59" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="72" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
+    <row r="17" spans="1:9" s="71" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="64">
         <v>24848</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C17" s="66">
         <v>42635</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D17" s="66">
         <v>42635</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E17" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70" t="s">
+      <c r="F17" s="68"/>
+      <c r="G17" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H17" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I17" s="69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="18" spans="1:9" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="64">
         <v>23847</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B18" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D16" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E16" s="64" t="s">
+      <c r="C18" s="66">
+        <v>42633</v>
+      </c>
+      <c r="D18" s="66">
+        <v>42633</v>
+      </c>
+      <c r="E18" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="60" t="s">
+      <c r="F18" s="68"/>
+      <c r="G18" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H18" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I18" s="74" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>23839</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D17" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="C19" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D19" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="61" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H19" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="I19" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>23840</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B20" s="29" t="s">
         <v>18</v>
-      </c>
-      <c r="C18" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D18" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>23841</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D19" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>23842</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>20</v>
       </c>
       <c r="C20" s="13">
         <v>42633</v>
@@ -1375,76 +1360,76 @@
         <v>46</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>23841</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>23842</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D22" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H22" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="I22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>23848</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B23" s="29" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D21" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>23849</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D22" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>26</v>
       </c>
       <c r="C23" s="13">
         <v>42633</v>
@@ -1456,22 +1441,22 @@
         <v>47</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="58" t="s">
+      <c r="G23" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23851</v>
+        <v>23849</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="13">
         <v>42633</v>
@@ -1484,48 +1469,48 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H24" s="54" t="s">
         <v>72</v>
       </c>
       <c r="I24" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23850</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D25" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="58" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23852</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D25" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="I25" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>23853</v>
+        <v>23851</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="13">
         <v>42633</v>
@@ -1534,25 +1519,25 @@
         <v>42633</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="61" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H26" s="54" t="s">
         <v>72</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>23855</v>
+        <v>23852</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" s="13">
         <v>42633</v>
@@ -1564,49 +1549,49 @@
         <v>48</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="52" t="s">
+      <c r="G27" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>23853</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D28" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D28" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I28" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>23857</v>
+        <v>23855</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="13">
         <v>42633</v>
@@ -1615,11 +1600,11 @@
         <v>42633</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H29" s="52" t="s">
         <v>72</v>
@@ -1628,12 +1613,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>23858</v>
+        <v>23856</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="13">
         <v>42633</v>
@@ -1646,81 +1631,75 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>24849</v>
+        <v>23857</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C31" s="13">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="D31" s="13">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="5" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H31" s="52" t="s">
         <v>72</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>24850</v>
+        <v>23858</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" s="13">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="D32" s="13">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="7">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>24851</v>
+        <v>24849</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="13">
         <v>42635</v>
@@ -1729,9 +1708,9 @@
         <v>42635</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="25"/>
+        <v>46</v>
+      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="5" t="s">
         <v>38</v>
       </c>
@@ -1745,182 +1724,184 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>24850</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="13">
+        <v>42635</v>
+      </c>
+      <c r="D34" s="13">
+        <v>42635</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>24851</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="13">
+        <v>42635</v>
+      </c>
+      <c r="D35" s="13">
+        <v>42635</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
         <v>23846</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B36" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D34" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E34" s="37" t="s">
+      <c r="C36" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D36" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E36" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23" t="s">
+      <c r="F36" s="22"/>
+      <c r="G36" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="55" t="s">
+      <c r="H36" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I36" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+    <row r="37" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
         <v>23844</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B37" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D35" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="6"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="5" t="s">
+      <c r="C37" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D37" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
+    <row r="42" spans="1:10" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="38">
         <v>24946</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B42" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C42" s="40">
         <v>42647</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D42" s="40">
         <v>42647</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E42" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F42" s="42">
         <v>2</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G42" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H40" s="53" t="s">
+      <c r="H42" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
+      <c r="I42" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
         <v>24938</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B43" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C43" s="35">
         <v>42646</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D43" s="35">
         <v>42646</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F43" s="36">
         <v>2</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="H41" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>24933</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D42" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2</v>
-      </c>
-      <c r="G42" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D43" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="4">
-        <v>2</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="H43" s="52" t="s">
         <v>72</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>24932</v>
+        <v>24933</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" s="13">
         <v>42646</v>
@@ -1935,21 +1916,21 @@
         <v>2</v>
       </c>
       <c r="G44" s="61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H44" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I44" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="I44" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>24929</v>
+        <v>24939</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C45" s="13">
         <v>42646</v>
@@ -1958,27 +1939,27 @@
         <v>42646</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F45" s="4">
         <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H45" s="52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>24930</v>
+        <v>24932</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" s="13">
         <v>42646</v>
@@ -1992,22 +1973,22 @@
       <c r="F46" s="4">
         <v>2</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46" s="5" t="s">
+      <c r="G46" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>24931</v>
+        <v>24929</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" s="13">
         <v>42646</v>
@@ -2022,50 +2003,50 @@
         <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="44">
-        <v>24934</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="46">
+        <v>70</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>24930</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="13">
         <v>42646</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="13">
         <v>42646</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="48">
+      <c r="F48" s="4">
         <v>2</v>
       </c>
-      <c r="G48" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="I48" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>24935</v>
+        <v>24931</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C49" s="13">
         <v>42646</v>
@@ -2080,50 +2061,50 @@
         <v>2</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="H49" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>24936</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="9">
+      <c r="I49" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="44">
+        <v>24934</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="46">
         <v>42646</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="46">
         <v>42646</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="48">
         <v>2</v>
       </c>
-      <c r="G50" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H50" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="I50" s="32" t="s">
-        <v>70</v>
+      <c r="G50" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" s="49" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>24937</v>
+        <v>24935</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C51" s="13">
         <v>42646</v>
@@ -2132,56 +2113,114 @@
         <v>42646</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F51" s="4">
         <v>2</v>
       </c>
       <c r="G51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>24936</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="9">
+        <v>42646</v>
+      </c>
+      <c r="D52" s="9">
+        <v>42646</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="10">
+        <v>2</v>
+      </c>
+      <c r="G52" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>24937</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D53" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H51" s="52" t="s">
+      <c r="H53" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B45" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B46" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B47" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B44" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B42" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B48" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B49" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B50" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B51" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B41" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B43" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B40" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B17" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B18" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B19" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B20" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B35" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B34" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B16" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B21" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B22" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B23" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B24" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B25" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B26" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B27" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B28" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B29" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B30" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B15" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B31" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B32" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B33" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B47" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B48" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B49" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B46" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B44" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B50" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B51" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B52" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B53" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B43" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B45" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B42" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B19" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B20" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B21" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B22" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B37" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B36" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B18" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B23" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B24" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B25" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B26" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B27" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B28" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B29" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B30" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B31" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B32" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B17" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B33" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B34" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B35" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>2- No tengo donde poner el Equipo destino del detalle</t>
-  </si>
-  <si>
-    <t>- Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me deja aceptar y no me dice4 porque</t>
   </si>
   <si>
     <t xml:space="preserve"> Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001</t>
@@ -344,9 +341,6 @@
     <t>VENTAS</t>
   </si>
   <si>
-    <t>marcarle a fer la fecha de entrega</t>
-  </si>
-  <si>
     <t>el movimiento del superbuscador al refrescar la pagina</t>
   </si>
   <si>
@@ -371,6 +365,18 @@
   </si>
   <si>
     <t>orden asc/desc en las jqgrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me deja aceptar y no me dice porque. 
+-En efecto, no dice nada, ni siquiera en la consola. Si vuelvo a elegir la opcion original, tampoco me da bola y ya no puedo cerrar el popup ni siquiera cancelando
+En PEDIDO anda bien
+-Si puenteo RefrescarOrigenDescripcion() funciona!!!</t>
+  </si>
+  <si>
+    <t>por qué tarda cambiar de pestañas en las grillas auxiliares, si ya está todo cargado?</t>
+  </si>
+  <si>
+    <t>marcarle a fer la fecha de entrega.   Bugs del circuito de compra: fin de junio.  Circuito de venta para fin de julio</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +496,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -519,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -694,6 +706,9 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -723,6 +738,34 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1027,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1065,10 +1108,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -1084,115 +1127,115 @@
       <c r="D2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="27"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>71</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="27"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="27"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="27"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>71</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="27"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="27"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="27"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1204,7 +1247,10 @@
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>71</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1216,7 +1262,7 @@
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1240,7 +1286,7 @@
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1252,103 +1298,88 @@
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G16" s="59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="71" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="64">
+      <c r="A16" s="1"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G17" s="59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="72" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="65">
         <v>24848</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B18" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C18" s="67">
         <v>42635</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D18" s="67">
         <v>42635</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E18" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="64">
+      <c r="F18" s="69"/>
+      <c r="G18" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="72" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="65">
         <v>23847</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B19" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="66">
-        <v>42633</v>
-      </c>
-      <c r="D18" s="66">
-        <v>42633</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="C19" s="67">
+        <v>42633</v>
+      </c>
+      <c r="D19" s="67">
+        <v>42633</v>
+      </c>
+      <c r="E19" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="69"/>
+      <c r="G19" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>23839</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B20" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="C19" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D19" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>23840</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>18</v>
       </c>
       <c r="C20" s="13">
         <v>42633</v>
@@ -1361,67 +1392,67 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="54" t="s">
         <v>70</v>
       </c>
       <c r="I20" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>23840</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>23842</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D22" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="85" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>23841</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D21" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>23842</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D22" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>70</v>
+      <c r="I22" s="64" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1442,13 +1473,13 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1469,13 +1500,13 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1496,13 +1527,13 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1523,13 +1554,13 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1550,13 +1581,13 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1577,13 +1608,13 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -1604,13 +1635,13 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1631,13 +1662,13 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1658,13 +1689,13 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1685,13 +1716,13 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1715,10 +1746,10 @@
         <v>38</v>
       </c>
       <c r="H33" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J33" s="7">
         <v>8</v>
@@ -1745,10 +1776,10 @@
         <v>38</v>
       </c>
       <c r="H34" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J34" s="7">
         <v>8</v>
@@ -1775,10 +1806,10 @@
         <v>38</v>
       </c>
       <c r="H35" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J35" s="7">
         <v>8</v>
@@ -1802,13 +1833,13 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1830,107 +1861,105 @@
       <c r="H37" s="55"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+    <row r="38" spans="1:10" s="84" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="76">
+        <v>23841</v>
+      </c>
+      <c r="B38" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="78">
+        <v>42633</v>
+      </c>
+      <c r="D38" s="78">
+        <v>42633</v>
+      </c>
+      <c r="E38" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="80"/>
+      <c r="G38" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="38">
         <v>24946</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B43" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C43" s="40">
         <v>42647</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D43" s="40">
         <v>42647</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E43" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F43" s="42">
         <v>2</v>
       </c>
-      <c r="G42" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="I42" s="51" t="s">
+      <c r="G43" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="53" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
+      <c r="I43" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="33">
         <v>24938</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B44" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C44" s="35">
         <v>42646</v>
       </c>
-      <c r="D43" s="35">
-        <v>42646</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="36">
-        <v>2</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>24933</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D44" s="13">
+      <c r="D44" s="35">
         <v>42646</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="36">
         <v>2</v>
       </c>
-      <c r="G44" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>24939</v>
+        <v>24933</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C45" s="13">
         <v>42646</v>
@@ -1939,27 +1968,27 @@
         <v>42646</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F45" s="4">
         <v>2</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="I45" s="5" t="s">
+      <c r="G45" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="54" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="I45" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>24932</v>
+        <v>24939</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C46" s="13">
         <v>42646</v>
@@ -1968,27 +1997,27 @@
         <v>42646</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F46" s="4">
         <v>2</v>
       </c>
-      <c r="G46" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="I46" s="16" t="s">
+      <c r="G46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>24929</v>
+        <v>24932</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" s="13">
         <v>42646</v>
@@ -2002,22 +2031,22 @@
       <c r="F47" s="4">
         <v>2</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>24930</v>
+        <v>24929</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="13">
         <v>42646</v>
@@ -2032,21 +2061,21 @@
         <v>2</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>24931</v>
+        <v>24930</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="13">
         <v>42646</v>
@@ -2061,152 +2090,181 @@
         <v>2</v>
       </c>
       <c r="G49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>24931</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D50" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H49" s="52" t="s">
+      <c r="H50" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="44">
+        <v>24934</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="46">
+        <v>42646</v>
+      </c>
+      <c r="D51" s="46">
+        <v>42646</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="48">
+        <v>2</v>
+      </c>
+      <c r="G51" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>24935</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D52" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>24936</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="9">
+        <v>42646</v>
+      </c>
+      <c r="D53" s="9">
+        <v>42646</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="10">
+        <v>2</v>
+      </c>
+      <c r="G53" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>24937</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D54" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="44">
-        <v>24934</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="46">
-        <v>42646</v>
-      </c>
-      <c r="D50" s="46">
-        <v>42646</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="48">
-        <v>2</v>
-      </c>
-      <c r="G50" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" s="56" t="s">
+      <c r="I54" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="I50" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>24935</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D51" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="4">
-        <v>2</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>24936</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="9">
-        <v>42646</v>
-      </c>
-      <c r="D52" s="9">
-        <v>42646</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="10">
-        <v>2</v>
-      </c>
-      <c r="G52" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>24937</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D53" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="4">
-        <v>2</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B47" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B48" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B49" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B46" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B44" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B50" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B51" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B52" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B53" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B43" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B45" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B42" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B19" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B20" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B21" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B48" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B49" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B50" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B47" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B45" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B51" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B52" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B53" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B54" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B44" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B46" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B43" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B20" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B21" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B38" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
     <hyperlink ref="B22" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
     <hyperlink ref="B37" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
     <hyperlink ref="B36" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B18" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B19" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
     <hyperlink ref="B23" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
     <hyperlink ref="B24" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
     <hyperlink ref="B25" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
@@ -2217,7 +2275,7 @@
     <hyperlink ref="B30" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
     <hyperlink ref="B31" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
     <hyperlink ref="B32" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B17" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B18" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
     <hyperlink ref="B33" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
     <hyperlink ref="B34" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
     <hyperlink ref="B35" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -287,10 +287,6 @@
     <t>relampagueo de las grillas auxiliares de la derecha al cambiarles el ancho al 100% -¿son las grillas, o el tab que las contiene (lo q cambia de ancho)?</t>
   </si>
   <si>
-    <t>06 Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado  
--no logro reproducirlo</t>
-  </si>
-  <si>
     <t xml:space="preserve">*q no aparezca cerrada la grilla aux de facturas a imputar    
 *en la pantalla de detalle de conceptos no me deberias preguntar por cajas y bancos
 * por otro lado no me permite modificar las alicuotas de IVA </t>
@@ -378,12 +374,28 @@
   <si>
     <t>marcarle a fer la fecha de entrega.   Bugs del circuito de compra: fin de junio.  Circuito de venta para fin de julio</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">06 Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-no logro reproducirlo</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -447,6 +459,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1073,8 +1092,8 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1146,7 @@
       <c r="D2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="52" t="s">
         <v>71</v>
@@ -1142,7 +1161,7 @@
       <c r="D3" s="2"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3" s="52" t="s">
         <v>71</v>
@@ -1157,7 +1176,7 @@
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1196,7 +1215,7 @@
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="52" t="s">
         <v>71</v>
@@ -1247,7 +1266,7 @@
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="52" t="s">
         <v>71</v>
@@ -1262,7 +1281,7 @@
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1274,7 +1293,7 @@
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1286,7 +1305,7 @@
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1298,7 +1317,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1310,14 +1329,14 @@
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="G17" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="72" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1338,7 +1357,7 @@
       </c>
       <c r="F18" s="69"/>
       <c r="G18" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="71" t="s">
         <v>71</v>
@@ -1361,11 +1380,11 @@
         <v>42633</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="69"/>
       <c r="G19" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" s="74" t="s">
         <v>73</v>
@@ -1833,7 +1852,7 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" s="55" t="s">
         <v>73</v>
@@ -1879,7 +1898,7 @@
       </c>
       <c r="F38" s="80"/>
       <c r="G38" s="81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H38" s="82" t="s">
         <v>71</v>
@@ -1893,7 +1912,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G42" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -2148,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="63" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="H51" s="56" t="s">
         <v>69</v>
@@ -2235,7 +2254,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H54" s="52" t="s">
         <v>71</v>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -187,22 +187,10 @@
     <t>2- No tengo donde poner el Equipo destino del detalle</t>
   </si>
   <si>
-    <t xml:space="preserve"> Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001</t>
-  </si>
-  <si>
     <t>Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y el paginado pone paginas en Blanco</t>
   </si>
   <si>
-    <t>13- No me permite tirar un Presupuesto dentro de otro para poder luego hacer la compartativa</t>
-  </si>
-  <si>
-    <t>12- Por la web me permite aprobar presupuestos por usuarios que no son del sector compras</t>
-  </si>
-  <si>
     <t>No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar</t>
-  </si>
-  <si>
-    <t>- Dentro de las comparativas en la grella de la derecha no me debe preguntar por la edision de los presupuestos</t>
   </si>
   <si>
     <t>En las comparativas cuando las apruebo no me pide password</t>
@@ -389,6 +377,44 @@
       </rPr>
       <t>-no logro reproducirlo</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Corregido usando FormatterFecha. Hay que modificarlo en el resto de los formularios</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13- No me permite tirar un Presupuesto dentro de otro para poder luego hacer la compartativa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Probablemente Fer solo intentó haciendo drag. Con doble clic funciona. Debería agregarle un boton de copia a todas las grillas?</t>
+    </r>
+  </si>
+  <si>
+    <t>12- Por la web me permite aprobar presupuestos por usuarios que no son del sector compras 
+-En el dropdown parece tirar la lista correcta, pero al elegir el usuario y dispararse el popup, el listado es diferente, y a veces no está el usuario elegido antes del popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dentro de las comparativas en la grella de la derecha no me debe preguntar por la edicion de los presupuestos</t>
   </si>
 </sst>
 </file>
@@ -472,7 +498,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +547,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -550,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -725,9 +757,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -784,8 +813,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1089,11 +1140,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1127,10 +1178,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -1146,10 +1197,10 @@
       <c r="D2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1161,10 +1212,10 @@
       <c r="D3" s="2"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1176,7 +1227,7 @@
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1188,7 +1239,7 @@
       <c r="D5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1200,10 +1251,10 @@
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1215,10 +1266,10 @@
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1230,7 +1281,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1242,7 +1293,7 @@
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1254,7 +1305,7 @@
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1266,10 +1317,10 @@
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1281,7 +1332,7 @@
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1293,7 +1344,7 @@
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1305,7 +1356,7 @@
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1317,7 +1368,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1329,176 +1380,128 @@
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="G17" s="59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="72" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="65">
-        <v>24848</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="67">
-        <v>42635</v>
-      </c>
-      <c r="D18" s="67">
-        <v>42635</v>
-      </c>
-      <c r="E18" s="68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="59"/>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>23848</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D20" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="64">
+        <v>23847</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="66">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="66">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="68"/>
+      <c r="G21" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64">
+        <v>23839</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="66">
+        <v>42633</v>
+      </c>
+      <c r="D22" s="66">
+        <v>42633</v>
+      </c>
+      <c r="E22" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="72" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="65">
-        <v>23847</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="67">
-        <v>42633</v>
-      </c>
-      <c r="D19" s="67">
-        <v>42633</v>
-      </c>
-      <c r="E19" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>23839</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D20" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="F22" s="68"/>
+      <c r="G22" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="64">
+        <v>23840</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="66">
+        <v>42633</v>
+      </c>
+      <c r="D23" s="66">
+        <v>42633</v>
+      </c>
+      <c r="E23" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>23840</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D21" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="61" t="s">
+      <c r="F23" s="68"/>
+      <c r="G23" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>23842</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D22" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>23848</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D23" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>70</v>
+      <c r="H23" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1519,16 +1522,16 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23850</v>
       </c>
@@ -1546,13 +1549,13 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="62" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H25" s="58" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1573,13 +1576,13 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="61" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1600,13 +1603,13 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="61" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1627,13 +1630,13 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H28" s="54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -1654,13 +1657,13 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1681,13 +1684,13 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H30" s="52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1708,13 +1711,13 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1735,13 +1738,13 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1765,10 +1768,10 @@
         <v>38</v>
       </c>
       <c r="H33" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J33" s="7">
         <v>8</v>
@@ -1795,10 +1798,10 @@
         <v>38</v>
       </c>
       <c r="H34" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J34" s="7">
         <v>8</v>
@@ -1825,218 +1828,214 @@
         <v>38</v>
       </c>
       <c r="H35" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J35" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+    <row r="36" spans="1:10" s="71" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="64">
+        <v>24848</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="66">
+        <v>42635</v>
+      </c>
+      <c r="D36" s="66">
+        <v>42635</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="68"/>
+      <c r="G36" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="84">
+        <v>23842</v>
+      </c>
+      <c r="B37" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="86">
+        <v>42633</v>
+      </c>
+      <c r="D37" s="86">
+        <v>42633</v>
+      </c>
+      <c r="E37" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="88"/>
+      <c r="G37" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
         <v>23846</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B38" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D36" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E36" s="37" t="s">
+      <c r="C38" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D38" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E38" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
+      <c r="F38" s="22"/>
+      <c r="G38" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
         <v>23844</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B39" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D37" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:10" s="84" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="76">
+      <c r="C39" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D39" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:10" s="83" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="75">
         <v>23841</v>
       </c>
-      <c r="B38" s="77" t="s">
+      <c r="B40" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="78">
-        <v>42633</v>
-      </c>
-      <c r="D38" s="78">
-        <v>42633</v>
-      </c>
-      <c r="E38" s="79" t="s">
+      <c r="C40" s="77">
+        <v>42633</v>
+      </c>
+      <c r="D40" s="77">
+        <v>42633</v>
+      </c>
+      <c r="E40" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="I38" s="83" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G42" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+      <c r="F40" s="79"/>
+      <c r="G40" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="38">
         <v>24946</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B45" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C45" s="40">
         <v>42647</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D45" s="40">
         <v>42647</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E45" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F45" s="42">
         <v>2</v>
       </c>
-      <c r="G43" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="33">
+      <c r="G45" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="33">
         <v>24938</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B46" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C46" s="35">
         <v>42646</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D46" s="35">
         <v>42646</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E46" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F46" s="36">
         <v>2</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>24933</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D45" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="4">
-        <v>2</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D46" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="4">
-        <v>2</v>
-      </c>
       <c r="G46" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H46" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>24932</v>
+        <v>24933</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="13">
         <v>42646</v>
@@ -2051,21 +2050,21 @@
         <v>2</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>24929</v>
+        <v>24939</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C48" s="13">
         <v>42646</v>
@@ -2074,27 +2073,27 @@
         <v>42646</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F48" s="4">
         <v>2</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>24930</v>
+        <v>24932</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" s="13">
         <v>42646</v>
@@ -2108,22 +2107,22 @@
       <c r="F49" s="4">
         <v>2</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>69</v>
+      <c r="G49" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>24931</v>
+        <v>24929</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" s="13">
         <v>42646</v>
@@ -2138,50 +2137,50 @@
         <v>2</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="44">
-        <v>24934</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="46">
+        <v>65</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>24930</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="13">
         <v>42646</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="13">
         <v>42646</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="48">
+      <c r="F51" s="4">
         <v>2</v>
       </c>
-      <c r="G51" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="H51" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="I51" s="49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>24935</v>
+        <v>24931</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C52" s="13">
         <v>42646</v>
@@ -2196,50 +2195,50 @@
         <v>2</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <v>24936</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="9">
+        <v>66</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="44">
+        <v>24934</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="46">
         <v>42646</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="46">
         <v>42646</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="48">
         <v>2</v>
       </c>
-      <c r="G53" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="I53" s="32" t="s">
-        <v>69</v>
+      <c r="G53" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="49" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>24937</v>
+        <v>24935</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54" s="13">
         <v>42646</v>
@@ -2248,43 +2247,101 @@
         <v>42646</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F54" s="4">
         <v>2</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="64">
+        <v>24936</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="66">
+        <v>42646</v>
+      </c>
+      <c r="D55" s="66">
+        <v>42646</v>
+      </c>
+      <c r="E55" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="68">
+        <v>2</v>
+      </c>
+      <c r="G55" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>24937</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D56" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B48" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B49" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B50" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B47" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B45" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B51" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B52" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B53" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B54" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B44" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B46" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B43" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B20" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B21" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B38" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B22" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B37" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B36" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B19" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B23" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B50" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B51" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B52" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B49" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B47" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B53" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B54" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B55" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B56" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B46" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B48" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B45" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B22" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B23" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B40" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B37" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B39" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B38" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B21" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B20" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
     <hyperlink ref="B24" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
     <hyperlink ref="B25" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
     <hyperlink ref="B26" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
@@ -2294,7 +2351,7 @@
     <hyperlink ref="B30" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
     <hyperlink ref="B31" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
     <hyperlink ref="B32" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B18" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B36" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
     <hyperlink ref="B33" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
     <hyperlink ref="B34" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
     <hyperlink ref="B35" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -338,10 +338,6 @@
 PED</t>
   </si>
   <si>
-    <t>Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me pone el ID de la unidad y no el nombre (Hace falta ACEPTAR. Si no, no se modifican las unidades)
--En Pedidos tambien pasa. Las RM zafan, creo q porq tienen un truco feo</t>
-  </si>
-  <si>
     <t>ES LENTO. -Es el menu? -creo q sí, creo q jode más q el arbol… -la verdad q no se. Y cuando uso el arbol con el localstorage, tarda banda porque el armado de la grilla es ernorme (o sea, no por ir a buscar los datos)</t>
   </si>
   <si>
@@ -415,6 +411,22 @@
   </si>
   <si>
     <t xml:space="preserve"> Dentro de las comparativas en la grella de la derecha no me debe preguntar por la edicion de los presupuestos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me pone el ID de la unidad y no el nombre (Hace falta ACEPTAR. Si no, no se modifican las unidades)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-En Pedidos tambien pasa. Las RM zafan, creo q porq tienen un truco feo</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1142,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
@@ -1190,17 +1202,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="27"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1212,7 +1224,7 @@
       <c r="D3" s="2"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H3" s="52" t="s">
         <v>67</v>
@@ -1220,53 +1232,53 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="27"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>67</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="27"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="27"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="27"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H7" s="52" t="s">
         <v>67</v>
@@ -1274,53 +1286,53 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="27"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>67</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="27"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="27"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1368,7 +1380,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1385,18 +1397,18 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="G17" s="59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G18" s="59"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G19" s="59"/>
     </row>
-    <row r="20" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>23848</v>
       </c>
@@ -1423,421 +1435,421 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="64">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>24849</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="13">
+        <v>42635</v>
+      </c>
+      <c r="D21" s="13">
+        <v>42635</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>24850</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="13">
+        <v>42635</v>
+      </c>
+      <c r="D22" s="13">
+        <v>42635</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>24851</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="13">
+        <v>42635</v>
+      </c>
+      <c r="D23" s="13">
+        <v>42635</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="64">
         <v>23847</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B24" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="66">
-        <v>42633</v>
-      </c>
-      <c r="D21" s="66">
-        <v>42633</v>
-      </c>
-      <c r="E21" s="69" t="s">
+      <c r="C24" s="66">
+        <v>42633</v>
+      </c>
+      <c r="D24" s="66">
+        <v>42633</v>
+      </c>
+      <c r="E24" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="73" t="s">
+      <c r="F24" s="68"/>
+      <c r="G24" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="74" t="s">
+      <c r="I24" s="74" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64">
+    <row r="25" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64">
         <v>23839</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B25" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="66">
-        <v>42633</v>
-      </c>
-      <c r="D22" s="66">
-        <v>42633</v>
-      </c>
-      <c r="E22" s="92" t="s">
+      <c r="C25" s="66">
+        <v>42633</v>
+      </c>
+      <c r="D25" s="66">
+        <v>42633</v>
+      </c>
+      <c r="E25" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="72" t="s">
+      <c r="F25" s="68"/>
+      <c r="G25" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="73" t="s">
+      <c r="H25" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="74" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="64">
+      <c r="I25" s="74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="64">
         <v>23840</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B26" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="66">
-        <v>42633</v>
-      </c>
-      <c r="D23" s="66">
-        <v>42633</v>
-      </c>
-      <c r="E23" s="92" t="s">
+      <c r="C26" s="66">
+        <v>42633</v>
+      </c>
+      <c r="D26" s="66">
+        <v>42633</v>
+      </c>
+      <c r="E26" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="72" t="s">
+      <c r="F26" s="68"/>
+      <c r="G26" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="74" t="s">
+      <c r="H26" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="74" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>23849</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B27" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D24" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="C27" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D27" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D25" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>23851</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D26" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>23852</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D27" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="61" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="H27" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>23850</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D28" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="I28" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>23851</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D29" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>23852</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D30" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>23853</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B31" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D28" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="C31" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D31" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="61" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H31" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="I31" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>23855</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B32" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D29" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="C32" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D32" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D30" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>23857</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D31" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>23858</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D32" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>24849</v>
+        <v>23856</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33" s="13">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="D33" s="13">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="5" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H33" s="52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>24850</v>
+        <v>23857</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34" s="13">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="D34" s="13">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="5" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H34" s="52" t="s">
         <v>67</v>
       </c>
       <c r="I34" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>23858</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D35" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>24851</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="13">
-        <v>42635</v>
-      </c>
-      <c r="D35" s="13">
-        <v>42635</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>67</v>
-      </c>
       <c r="I35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J35" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="71" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="71" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="64">
         <v>24848</v>
       </c>
@@ -1864,7 +1876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="84">
         <v>23842</v>
       </c>
@@ -1882,7 +1894,7 @@
       </c>
       <c r="F37" s="88"/>
       <c r="G37" s="89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H37" s="90" t="s">
         <v>67</v>
@@ -1891,7 +1903,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>23846</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>23844</v>
       </c>
@@ -1937,7 +1949,7 @@
       <c r="H39" s="55"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:10" s="83" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="83" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="75">
         <v>23841</v>
       </c>
@@ -1955,7 +1967,7 @@
       </c>
       <c r="F40" s="79"/>
       <c r="G40" s="80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H40" s="81" t="s">
         <v>67</v>
@@ -1964,15 +1976,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G41" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G44" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>24946</v>
       </c>
@@ -2001,7 +2013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>24938</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>24933</v>
       </c>
@@ -2059,7 +2071,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>24939</v>
       </c>
@@ -2224,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H53" s="56" t="s">
         <v>65</v>
@@ -2334,27 +2346,27 @@
     <hyperlink ref="B46" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
     <hyperlink ref="B48" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
     <hyperlink ref="B45" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B22" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B23" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B25" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B26" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
     <hyperlink ref="B40" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
     <hyperlink ref="B37" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
     <hyperlink ref="B39" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
     <hyperlink ref="B38" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B21" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B24" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
     <hyperlink ref="B20" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B24" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B25" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B26" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B27" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B28" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B29" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B30" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B31" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B32" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B27" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B28" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B29" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B30" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B31" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B32" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B33" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B34" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B35" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
     <hyperlink ref="B36" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B33" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B34" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B35" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B21" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B22" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B23" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>2- No tengo donde poner el Equipo destino del detalle</t>
-  </si>
-  <si>
-    <t>Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y el paginado pone paginas en Blanco</t>
   </si>
   <si>
     <t>No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar</t>
@@ -427,6 +424,13 @@
       </rPr>
       <t>-En Pedidos tambien pasa. Las RM zafan, creo q porq tienen un truco feo</t>
     </r>
+  </si>
+  <si>
+    <t>Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y el paginado pone paginas en Blanco
+-Tiene razon… En Requerimientos funciona? -no  -pedidos?</t>
+  </si>
+  <si>
+    <t>poner dos renglones en el autofilter de fechas???</t>
   </si>
 </sst>
 </file>
@@ -1152,11 +1156,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1190,10 +1194,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -1209,25 +1213,22 @@
       <c r="D2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="27"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1239,112 +1240,115 @@
       <c r="D4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="27"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>66</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="27"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="27"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="27"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="27"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>66</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="27"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="27"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1356,7 +1360,7 @@
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1380,7 +1384,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1392,85 +1396,67 @@
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="G17" s="59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="59"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G18" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G19" s="59"/>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>23848</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D20" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="C21" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="32" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="57" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="I21" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>24849</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B22" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" s="13">
-        <v>42635</v>
-      </c>
-      <c r="D21" s="13">
-        <v>42635</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>24850</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>36</v>
       </c>
       <c r="C22" s="13">
         <v>42635</v>
@@ -1479,28 +1465,28 @@
         <v>42635</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>24851</v>
+        <v>24850</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="13">
         <v>42635</v>
@@ -1509,82 +1495,85 @@
         <v>42635</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="25"/>
+        <v>49</v>
+      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="64">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24851</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="13">
+        <v>42635</v>
+      </c>
+      <c r="D24" s="13">
+        <v>42635</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="64">
         <v>23847</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B25" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="66">
-        <v>42633</v>
-      </c>
-      <c r="D24" s="66">
-        <v>42633</v>
-      </c>
-      <c r="E24" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64">
-        <v>23839</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>17</v>
-      </c>
       <c r="C25" s="66">
         <v>42633</v>
       </c>
       <c r="D25" s="66">
         <v>42633</v>
       </c>
-      <c r="E25" s="92" t="s">
-        <v>46</v>
+      <c r="E25" s="69" t="s">
+        <v>88</v>
       </c>
       <c r="F25" s="68"/>
       <c r="G25" s="72" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="H25" s="73" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I25" s="74" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
-        <v>23840</v>
+        <v>23839</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="66">
         <v>42633</v>
@@ -1597,48 +1586,48 @@
       </c>
       <c r="F26" s="68"/>
       <c r="G26" s="72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="73" t="s">
         <v>65</v>
       </c>
       <c r="I26" s="74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
+        <v>23840</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="66">
+        <v>42633</v>
+      </c>
+      <c r="D27" s="66">
+        <v>42633</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="68"/>
+      <c r="G27" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>23849</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B28" s="29" t="s">
         <v>25</v>
-      </c>
-      <c r="C27" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D27" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>26</v>
       </c>
       <c r="C28" s="13">
         <v>42633</v>
@@ -1650,22 +1639,22 @@
         <v>47</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="58" t="s">
+      <c r="G28" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I28" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>23851</v>
+        <v>23850</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="13">
         <v>42633</v>
@@ -1677,22 +1666,22 @@
         <v>47</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H29" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>23852</v>
+        <v>23851</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="13">
         <v>42633</v>
@@ -1701,11 +1690,11 @@
         <v>42633</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H30" s="54" t="s">
         <v>66</v>
@@ -1714,12 +1703,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>23853</v>
+        <v>23852</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="13">
         <v>42633</v>
@@ -1732,21 +1721,21 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="61" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="H31" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>23855</v>
+        <v>23853</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="13">
         <v>42633</v>
@@ -1758,22 +1747,22 @@
         <v>48</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G32" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>23856</v>
+        <v>23855</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="13">
         <v>42633</v>
@@ -1782,25 +1771,25 @@
         <v>42633</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H33" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>23857</v>
+        <v>23856</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="13">
         <v>42633</v>
@@ -1813,21 +1802,21 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H34" s="52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>23858</v>
+        <v>23857</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="13">
         <v>42633</v>
@@ -1840,243 +1829,241 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H35" s="52" t="s">
         <v>66</v>
       </c>
       <c r="I35" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>23858</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D36" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="52" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="71" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="64">
+      <c r="I36" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="71" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="64">
         <v>24848</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B37" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C37" s="66">
         <v>42635</v>
       </c>
-      <c r="D36" s="66">
+      <c r="D37" s="66">
         <v>42635</v>
       </c>
-      <c r="E36" s="67" t="s">
+      <c r="E37" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="68"/>
-      <c r="G36" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="84">
+      <c r="F37" s="68"/>
+      <c r="G37" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="84">
         <v>23842</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B38" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="86">
-        <v>42633</v>
-      </c>
-      <c r="D37" s="86">
-        <v>42633</v>
-      </c>
-      <c r="E37" s="87" t="s">
+      <c r="C38" s="86">
+        <v>42633</v>
+      </c>
+      <c r="D38" s="86">
+        <v>42633</v>
+      </c>
+      <c r="E38" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="89" t="s">
+      <c r="F38" s="88"/>
+      <c r="G38" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>23846</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D39" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
+        <v>23844</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D40" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" s="83" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="75">
+        <v>23841</v>
+      </c>
+      <c r="B41" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="77">
+        <v>42633</v>
+      </c>
+      <c r="D41" s="77">
+        <v>42633</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="79"/>
+      <c r="G41" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G42" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A46" s="38">
+        <v>24946</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="40">
+        <v>42647</v>
+      </c>
+      <c r="D46" s="40">
+        <v>42647</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="42">
+        <v>2</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="53" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
-        <v>23846</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D38" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
-        <v>23844</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D39" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" s="83" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="75">
-        <v>23841</v>
-      </c>
-      <c r="B40" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="77">
-        <v>42633</v>
-      </c>
-      <c r="D40" s="77">
-        <v>42633</v>
-      </c>
-      <c r="E40" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="79"/>
-      <c r="G40" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G41" s="6"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G44" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="38">
-        <v>24946</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="40">
-        <v>42647</v>
-      </c>
-      <c r="D45" s="40">
-        <v>42647</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="42">
-        <v>2</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="I45" s="51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="33">
+      <c r="I46" s="51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
         <v>24938</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B47" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C47" s="35">
         <v>42646</v>
       </c>
-      <c r="D46" s="35">
-        <v>42646</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="36">
-        <v>2</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>24933</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D47" s="13">
+      <c r="D47" s="35">
         <v>42646</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="36">
         <v>2</v>
       </c>
-      <c r="G47" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>24939</v>
+        <v>24933</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C48" s="13">
         <v>42646</v>
@@ -2085,27 +2072,27 @@
         <v>42646</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F48" s="4">
         <v>2</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="I48" s="5" t="s">
+      <c r="G48" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="54" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I48" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>24932</v>
+        <v>24939</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C49" s="13">
         <v>42646</v>
@@ -2114,27 +2101,27 @@
         <v>42646</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F49" s="4">
         <v>2</v>
       </c>
-      <c r="G49" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I49" s="16" t="s">
+      <c r="G49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>24929</v>
+        <v>24932</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" s="13">
         <v>42646</v>
@@ -2148,22 +2135,22 @@
       <c r="F50" s="4">
         <v>2</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>24930</v>
+        <v>24929</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" s="13">
         <v>42646</v>
@@ -2178,21 +2165,21 @@
         <v>2</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>24931</v>
+        <v>24930</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" s="13">
         <v>42646</v>
@@ -2207,166 +2194,195 @@
         <v>2</v>
       </c>
       <c r="G52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>24931</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D53" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H52" s="52" t="s">
+      <c r="H53" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="44">
+        <v>24934</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="46">
+        <v>42646</v>
+      </c>
+      <c r="D54" s="46">
+        <v>42646</v>
+      </c>
+      <c r="E54" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="48">
+        <v>2</v>
+      </c>
+      <c r="G54" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>24935</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D55" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="64">
+        <v>24936</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="66">
+        <v>42646</v>
+      </c>
+      <c r="D56" s="66">
+        <v>42646</v>
+      </c>
+      <c r="E56" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="68">
+        <v>2</v>
+      </c>
+      <c r="G56" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>24937</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D57" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I52" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="44">
-        <v>24934</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="46">
-        <v>42646</v>
-      </c>
-      <c r="D53" s="46">
-        <v>42646</v>
-      </c>
-      <c r="E53" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="48">
-        <v>2</v>
-      </c>
-      <c r="G53" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H53" s="56" t="s">
+      <c r="I57" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="I53" s="49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>24935</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D54" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="4">
-        <v>2</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="64">
-        <v>24936</v>
-      </c>
-      <c r="B55" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="66">
-        <v>42646</v>
-      </c>
-      <c r="D55" s="66">
-        <v>42646</v>
-      </c>
-      <c r="E55" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" s="68">
-        <v>2</v>
-      </c>
-      <c r="G55" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="I55" s="74" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>24937</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D56" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="4">
-        <v>2</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B51" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B52" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B49" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B47" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B53" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B54" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B55" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B56" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B46" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B48" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B45" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B25" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B26" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B40" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B37" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B39" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B38" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B24" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B20" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B27" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B28" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B29" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B30" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B31" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B32" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B33" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B34" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B35" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B36" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B21" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B22" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B23" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B51" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B52" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B53" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B50" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B48" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B54" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B55" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B56" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B57" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B47" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B49" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B46" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B26" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B27" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B41" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B38" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B40" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B39" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B25" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B21" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B28" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B29" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B30" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B31" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B32" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B33" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B34" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B35" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B36" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B37" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B22" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B23" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B24" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -353,9 +353,6 @@
     <t>por qué tarda cambiar de pestañas en las grillas auxiliares, si ya está todo cargado?</t>
   </si>
   <si>
-    <t>marcarle a fer la fecha de entrega.   Bugs del circuito de compra: fin de junio.  Circuito de venta para fin de julio</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">06 Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado  
 </t>
@@ -426,11 +423,31 @@
     </r>
   </si>
   <si>
-    <t>Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y el paginado pone paginas en Blanco
--Tiene razon… En Requerimientos funciona? -no  -pedidos?</t>
-  </si>
-  <si>
     <t>poner dos renglones en el autofilter de fechas???</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y el paginado pone paginas en Blanco
+-Tiene razon… En Requerimientos funciona? -no  -pedidos?
+-bueno, ahí enganchó. Pero no muestra el desde y hasta en el filtro avanzado. está como simplificado
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Corregido en RM y PED. falta el resto</t>
+    </r>
+  </si>
+  <si>
+    <t>por qué necesita fer los contextuales de RM PED y ART? Los usa al hacer el circuito?</t>
+  </si>
+  <si>
+    <t>creo q fer no revisó la parte de FF, CPRVDR y OP</t>
   </si>
 </sst>
 </file>
@@ -598,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -664,7 +681,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -681,9 +697,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -752,16 +765,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,6 +857,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1156,23 +1166,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="0.140625" style="26" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="26" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="0.140625" style="25" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0.42578125" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="91.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="52" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="50" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="5" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="7"/>
   </cols>
@@ -1181,7 +1191,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1193,7 +1203,7 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="50" t="s">
         <v>67</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1208,453 +1218,424 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="50" t="s">
         <v>68</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="27"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="27"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="50" t="s">
         <v>66</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="27"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="27"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="27"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="27"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="27"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="G18" s="59" t="s">
-        <v>94</v>
-      </c>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G19" s="59"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G20" s="59"/>
-    </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
         <v>23848</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B22" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D21" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="C22" s="33">
+        <v>42633</v>
+      </c>
+      <c r="D22" s="33">
+        <v>42633</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="60" t="s">
+      <c r="F22" s="34"/>
+      <c r="G22" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="H21" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>24849</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="13">
-        <v>42635</v>
-      </c>
-      <c r="D22" s="13">
-        <v>42635</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="H22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="7">
+    </row>
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>24849</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="9">
+        <v>42635</v>
+      </c>
+      <c r="D23" s="9">
+        <v>42635</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>24850</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B24" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C24" s="9">
         <v>42635</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="9">
         <v>42635</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H24" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I24" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J24" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="25" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>24851</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B25" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C25" s="9">
         <v>42635</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="9">
         <v>42635</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="5" t="s">
+      <c r="G25" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H25" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I25" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J25" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="64">
+    <row r="26" spans="1:11" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="59">
         <v>23847</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B26" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="66">
-        <v>42633</v>
-      </c>
-      <c r="D25" s="66">
-        <v>42633</v>
-      </c>
-      <c r="E25" s="69" t="s">
+      <c r="C26" s="61">
+        <v>42633</v>
+      </c>
+      <c r="D26" s="61">
+        <v>42633</v>
+      </c>
+      <c r="E26" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="73" t="s">
+      <c r="F26" s="63"/>
+      <c r="G26" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="74" t="s">
+      <c r="I26" s="69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64">
+    <row r="27" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="59">
         <v>23839</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B27" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="66">
-        <v>42633</v>
-      </c>
-      <c r="D26" s="66">
-        <v>42633</v>
-      </c>
-      <c r="E26" s="92" t="s">
+      <c r="C27" s="61">
+        <v>42633</v>
+      </c>
+      <c r="D27" s="61">
+        <v>42633</v>
+      </c>
+      <c r="E27" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="72" t="s">
+      <c r="F27" s="63"/>
+      <c r="G27" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H27" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="64">
+      <c r="I27" s="69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="59">
         <v>23840</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B28" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="66">
-        <v>42633</v>
-      </c>
-      <c r="D27" s="66">
-        <v>42633</v>
-      </c>
-      <c r="E27" s="92" t="s">
+      <c r="C28" s="61">
+        <v>42633</v>
+      </c>
+      <c r="D28" s="61">
+        <v>42633</v>
+      </c>
+      <c r="E28" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="72" t="s">
+      <c r="F28" s="63"/>
+      <c r="G28" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="74" t="s">
+      <c r="H28" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="69" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>23849</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D28" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>26</v>
+        <v>23849</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="C29" s="13">
         <v>42633</v>
@@ -1666,22 +1647,22 @@
         <v>47</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="18" t="s">
+      <c r="G29" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>23851</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>27</v>
+        <v>23850</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="C30" s="13">
         <v>42633</v>
@@ -1693,49 +1674,49 @@
         <v>47</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="54" t="s">
+      <c r="H30" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>23851</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D31" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I31" s="17" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>23852</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D31" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>23853</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>29</v>
+        <v>23852</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="C32" s="13">
         <v>42633</v>
@@ -1747,22 +1728,22 @@
         <v>48</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="54" t="s">
-        <v>66</v>
+      <c r="G32" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>65</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>23855</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>30</v>
+        <v>23853</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="13">
         <v>42633</v>
@@ -1774,22 +1755,22 @@
         <v>48</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="5" t="s">
-        <v>59</v>
+      <c r="G33" s="56" t="s">
+        <v>58</v>
       </c>
       <c r="H33" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I33" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>31</v>
+        <v>23855</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="C34" s="13">
         <v>42633</v>
@@ -1798,14 +1779,14 @@
         <v>42633</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>64</v>
@@ -1813,10 +1794,10 @@
     </row>
     <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>23857</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>32</v>
+        <v>23856</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="C35" s="13">
         <v>42633</v>
@@ -1829,10 +1810,10 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>64</v>
@@ -1840,10 +1821,10 @@
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>23858</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>33</v>
+        <v>23857</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="C36" s="13">
         <v>42633</v>
@@ -1856,243 +1837,241 @@
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>23858</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D37" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="52" t="s">
+      <c r="H37" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="71" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="64">
+      <c r="I37" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="66" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="59">
         <v>24848</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B38" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="66">
+      <c r="C38" s="61">
         <v>42635</v>
       </c>
-      <c r="D37" s="66">
+      <c r="D38" s="61">
         <v>42635</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E38" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69" t="s">
+      <c r="F38" s="63"/>
+      <c r="G38" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="70" t="s">
+      <c r="H38" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="69" t="s">
+      <c r="I38" s="64" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="84">
+    <row r="39" spans="1:9" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="79">
         <v>23842</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B39" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="86">
-        <v>42633</v>
-      </c>
-      <c r="D38" s="86">
-        <v>42633</v>
-      </c>
-      <c r="E38" s="87" t="s">
+      <c r="C39" s="81">
+        <v>42633</v>
+      </c>
+      <c r="D39" s="81">
+        <v>42633</v>
+      </c>
+      <c r="E39" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="90" t="s">
+      <c r="F39" s="83"/>
+      <c r="G39" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="I38" s="89" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="I39" s="84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
         <v>23846</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D39" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E39" s="37" t="s">
+      <c r="C40" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D40" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23" t="s">
+      <c r="F40" s="22"/>
+      <c r="G40" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="55" t="s">
+      <c r="H40" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="I40" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+    <row r="41" spans="1:9" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
         <v>23844</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D40" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" s="83" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="75">
+      <c r="C41" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D41" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" s="78" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="70">
         <v>23841</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B42" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="77">
-        <v>42633</v>
-      </c>
-      <c r="D41" s="77">
-        <v>42633</v>
-      </c>
-      <c r="E41" s="78" t="s">
+      <c r="C42" s="72">
+        <v>42633</v>
+      </c>
+      <c r="D42" s="72">
+        <v>42633</v>
+      </c>
+      <c r="E42" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="79"/>
-      <c r="G41" s="80" t="s">
+      <c r="F42" s="74"/>
+      <c r="G42" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="H41" s="81" t="s">
+      <c r="H42" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="I41" s="82" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G42" s="6"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G45" s="5" t="s">
+      <c r="I42" s="77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="38">
+    <row r="47" spans="1:9" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="36">
         <v>24946</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B47" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C47" s="38">
         <v>42647</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D47" s="38">
         <v>42647</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E47" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F47" s="40">
         <v>2</v>
       </c>
-      <c r="G46" s="51" t="s">
+      <c r="G47" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="53" t="s">
+      <c r="H47" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I46" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="33">
+      <c r="I47" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="31">
         <v>24938</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B48" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C48" s="33">
         <v>42646</v>
       </c>
-      <c r="D47" s="35">
-        <v>42646</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="36">
-        <v>2</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>24933</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D48" s="13">
+      <c r="D48" s="33">
         <v>42646</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="34">
         <v>2</v>
       </c>
-      <c r="G48" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" s="54" t="s">
+      <c r="G48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I48" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>15</v>
+        <v>24933</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="C49" s="13">
         <v>42646</v>
@@ -2101,27 +2080,27 @@
         <v>42646</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F49" s="4">
         <v>2</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>44</v>
+      <c r="G49" s="56" t="s">
+        <v>54</v>
       </c>
       <c r="H49" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I49" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>24932</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>8</v>
+        <v>24939</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C50" s="13">
         <v>42646</v>
@@ -2130,27 +2109,27 @@
         <v>42646</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F50" s="4">
         <v>2</v>
       </c>
-      <c r="G50" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" s="54" t="s">
+      <c r="G50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="16" t="s">
-        <v>64</v>
+      <c r="I50" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>24929</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>5</v>
+        <v>24932</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="13">
         <v>42646</v>
@@ -2164,22 +2143,22 @@
       <c r="F51" s="4">
         <v>2</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>41</v>
+      <c r="G51" s="56" t="s">
+        <v>53</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>24930</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>6</v>
+        <v>24929</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>5</v>
       </c>
       <c r="C52" s="13">
         <v>42646</v>
@@ -2194,21 +2173,21 @@
         <v>2</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="50" t="s">
         <v>64</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>24931</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>7</v>
+        <v>24930</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>6</v>
       </c>
       <c r="C53" s="13">
         <v>42646</v>
@@ -2223,166 +2202,195 @@
         <v>2</v>
       </c>
       <c r="G53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>24931</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D54" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H53" s="52" t="s">
+      <c r="H54" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I54" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="44">
+    <row r="55" spans="1:9" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="42">
         <v>24934</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B55" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C55" s="44">
         <v>42646</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D55" s="44">
         <v>42646</v>
       </c>
-      <c r="E54" s="47" t="s">
+      <c r="E55" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F54" s="48">
+      <c r="F55" s="46">
         <v>2</v>
       </c>
-      <c r="G54" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H54" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="I54" s="49" t="s">
+      <c r="G55" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>24935</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B56" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C56" s="13">
         <v>42646</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <v>42646</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E56" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="4">
         <v>2</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H55" s="52" t="s">
+      <c r="H56" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="64">
+      <c r="I56" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="59">
         <v>24936</v>
       </c>
-      <c r="B56" s="65" t="s">
+      <c r="B57" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="66">
+      <c r="C57" s="61">
         <v>42646</v>
       </c>
-      <c r="D56" s="66">
+      <c r="D57" s="61">
         <v>42646</v>
       </c>
-      <c r="E56" s="92" t="s">
+      <c r="E57" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="F56" s="68">
+      <c r="F57" s="63">
         <v>2</v>
       </c>
-      <c r="G56" s="72" t="s">
+      <c r="G57" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="H56" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="I56" s="74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="H57" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" s="69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>24937</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B58" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C58" s="13">
         <v>42646</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="13">
         <v>42646</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E58" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="4">
         <v>2</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H57" s="52" t="s">
+      <c r="H58" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I58" s="5" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B51" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B52" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B53" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B50" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B48" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B54" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B55" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B56" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B57" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B47" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B49" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B46" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B26" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B27" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B41" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B38" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B40" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B39" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B25" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B21" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B28" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B29" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B30" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B31" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B32" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B33" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B34" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B35" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B36" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B37" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B22" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B23" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B24" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B52" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B53" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B54" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B51" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B49" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B55" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B56" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B57" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B58" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B48" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B50" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B47" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B27" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B28" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B42" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B39" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B41" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B40" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B26" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B22" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B29" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B30" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B31" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B32" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B33" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B34" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B35" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B36" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B37" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B38" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B23" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B24" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B25" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -338,9 +338,6 @@
     <t>ES LENTO. -Es el menu? -creo q sí, creo q jode más q el arbol… -la verdad q no se. Y cuando uso el arbol con el localstorage, tarda banda porque el armado de la grilla es ernorme (o sea, no por ir a buscar los datos)</t>
   </si>
   <si>
-    <t>el doble recuadro de los autofilter. -por incompatiblidad entre twtbootstrap y jqgrid</t>
-  </si>
-  <si>
     <t>orden asc/desc en las jqgrid</t>
   </si>
   <si>
@@ -448,6 +445,21 @@
   </si>
   <si>
     <t>creo q fer no revisó la parte de FF, CPRVDR y OP</t>
+  </si>
+  <si>
+    <r>
+      <t>el doble recuadro de los autofilter. -por incompatiblidad entre twtbootstrap y jqgrid</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+-En las grillas aux de PED no lo tienen!</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1170,7 +1182,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1233,12 +1245,12 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1248,7 +1260,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1260,7 +1272,7 @@
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="50" t="s">
         <v>66</v>
@@ -1268,68 +1280,65 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="26"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="26"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="26"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="26"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="26"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H12" s="50" t="s">
         <v>66</v>
@@ -1337,50 +1346,53 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="26"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="26"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="26"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="26"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -1392,7 +1404,7 @@
       <c r="D17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1404,7 +1416,7 @@
       <c r="D18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -1416,7 +1428,7 @@
       <c r="D19" s="2"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1451,7 +1463,7 @@
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H22" s="52" t="s">
         <v>66</v>
@@ -1567,7 +1579,7 @@
       </c>
       <c r="F26" s="63"/>
       <c r="G26" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" s="68" t="s">
         <v>68</v>
@@ -1675,7 +1687,7 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" s="55" t="s">
         <v>65</v>
@@ -1702,7 +1714,7 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" s="52" t="s">
         <v>66</v>
@@ -1729,7 +1741,7 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H32" s="52" t="s">
         <v>65</v>
@@ -1918,7 +1930,7 @@
       </c>
       <c r="F39" s="83"/>
       <c r="G39" s="84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H39" s="85" t="s">
         <v>66</v>
@@ -1991,7 +2003,7 @@
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="76" t="s">
         <v>66</v>
@@ -2260,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="G55" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H55" s="54" t="s">
         <v>64</v>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -203,13 +203,7 @@
 y esta poniendo -1 en IdDetallePresupuesto</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los presupuesto de mayor a menor</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de el porque no me deja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los RM de mayor a menor</t>
   </si>
   <si>
     <t>dific</t>
@@ -325,9 +319,6 @@
     <t>el movimiento del superbuscador al refrescar la pagina</t>
   </si>
   <si>
-    <t>tener test de circuito</t>
-  </si>
-  <si>
     <t>mapas de los circuitos</t>
   </si>
   <si>
@@ -399,9 +390,6 @@
   <si>
     <t>12- Por la web me permite aprobar presupuestos por usuarios que no son del sector compras 
 -En el dropdown parece tirar la lista correcta, pero al elegir el usuario y dispararse el popup, el listado es diferente, y a veces no está el usuario elegido antes del popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dentro de las comparativas en la grella de la derecha no me debe preguntar por la edicion de los presupuestos</t>
   </si>
   <si>
     <r>
@@ -460,6 +448,42 @@
       <t xml:space="preserve"> 
 -En las grillas aux de PED no lo tienen!</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los RM de mayor a menor  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Creo q esto ya estaba</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dentro de las comparativas en la grella de la derecha no me debe preguntar por la edicion de los presupuestos   -Por? O poner "Ver"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los presupuesto de mayor a menor 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-puse "sortorder: desc" y no me dio bola</t>
+    </r>
+  </si>
+  <si>
+    <t>tener (test de) circuito. Cómo prueba fer el circuito?</t>
   </si>
 </sst>
 </file>
@@ -543,7 +567,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +622,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -627,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -876,6 +906,30 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1178,11 +1232,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1216,10 +1270,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -1228,29 +1282,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G3" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1260,7 +1316,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1272,10 +1328,10 @@
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1287,7 +1343,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1299,10 +1355,10 @@
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1314,7 +1370,7 @@
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1326,7 +1382,7 @@
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1338,10 +1394,10 @@
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1353,10 +1409,10 @@
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1368,7 +1424,7 @@
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1380,7 +1436,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1392,7 +1448,7 @@
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -1404,7 +1460,7 @@
       <c r="D17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1416,7 +1472,7 @@
       <c r="D18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -1428,7 +1484,7 @@
       <c r="D19" s="2"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1440,104 +1496,71 @@
       <c r="D20" s="2"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+    <row r="21" spans="1:11" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="95"/>
+    </row>
+    <row r="22" spans="1:11" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="95"/>
+    </row>
+    <row r="23" spans="1:11" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="94"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="95"/>
+    </row>
+    <row r="24" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
         <v>23848</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="33">
-        <v>42633</v>
-      </c>
-      <c r="D22" s="33">
-        <v>42633</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="C24" s="33">
+        <v>42633</v>
+      </c>
+      <c r="D24" s="33">
+        <v>42633</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>24849</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="9">
-        <v>42635</v>
-      </c>
-      <c r="D23" s="9">
-        <v>42635</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>24850</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="9">
-        <v>42635</v>
-      </c>
-      <c r="D24" s="9">
-        <v>42635</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="11">
-        <v>8</v>
+      <c r="F24" s="34"/>
+      <c r="G24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>24851</v>
+        <v>24849</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="9">
         <v>42635</v>
@@ -1546,162 +1569,168 @@
         <v>42635</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F25" s="10"/>
       <c r="G25" s="88" t="s">
         <v>38</v>
       </c>
       <c r="H25" s="89" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I25" s="88" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J25" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="59">
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>24850</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9">
+        <v>42635</v>
+      </c>
+      <c r="D26" s="9">
+        <v>42635</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>24851</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="9">
+        <v>42635</v>
+      </c>
+      <c r="D27" s="9">
+        <v>42635</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="59">
         <v>23847</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B28" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="61">
-        <v>42633</v>
-      </c>
-      <c r="D26" s="61">
-        <v>42633</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59">
-        <v>23839</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="61">
-        <v>42633</v>
-      </c>
-      <c r="D27" s="61">
-        <v>42633</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="69" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="59">
-        <v>23840</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>18</v>
-      </c>
       <c r="C28" s="61">
         <v>42633</v>
       </c>
       <c r="D28" s="61">
         <v>42633</v>
       </c>
-      <c r="E28" s="87" t="s">
-        <v>46</v>
+      <c r="E28" s="64" t="s">
+        <v>85</v>
       </c>
       <c r="F28" s="63"/>
       <c r="G28" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="59">
+        <v>23839</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="61">
+        <v>42633</v>
+      </c>
+      <c r="D29" s="61">
+        <v>42633</v>
+      </c>
+      <c r="E29" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="59">
+        <v>23840</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="61">
+        <v>42633</v>
+      </c>
+      <c r="D30" s="61">
+        <v>42633</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="63"/>
+      <c r="G30" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>23849</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D29" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D30" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>64</v>
+      <c r="H30" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="69" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>23851</v>
+        <v>23849</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="13">
         <v>42633</v>
@@ -1714,21 +1743,21 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="56" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>23852</v>
+        <v>23850</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="13">
         <v>42633</v>
@@ -1737,25 +1766,25 @@
         <v>42633</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G32" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>23853</v>
+        <v>23851</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C33" s="13">
         <v>42633</v>
@@ -1764,25 +1793,25 @@
         <v>42633</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="56" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="H33" s="52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>23855</v>
+        <v>23852</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="13">
         <v>42633</v>
@@ -1794,49 +1823,49 @@
         <v>48</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="5" t="s">
+      <c r="G34" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>23853</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D35" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="52" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D35" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I35" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>23857</v>
+        <v>23855</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="13">
         <v>42633</v>
@@ -1845,25 +1874,25 @@
         <v>42633</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>23858</v>
+        <v>23857</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="13">
         <v>42633</v>
@@ -1876,272 +1905,268 @@
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I37" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>23856</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D38" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>23858</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="13">
+        <v>42633</v>
+      </c>
+      <c r="D39" s="13">
+        <v>42633</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="66" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="59">
+        <v>24848</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="61">
+        <v>42635</v>
+      </c>
+      <c r="D40" s="61">
+        <v>42635</v>
+      </c>
+      <c r="E40" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="66" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="59">
-        <v>24848</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="61">
-        <v>42635</v>
-      </c>
-      <c r="D38" s="61">
-        <v>42635</v>
-      </c>
-      <c r="E38" s="62" t="s">
+      <c r="I40" s="64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="79">
+        <v>23842</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="81">
+        <v>42633</v>
+      </c>
+      <c r="D41" s="81">
+        <v>42633</v>
+      </c>
+      <c r="E41" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64" t="s">
+      <c r="F41" s="83"/>
+      <c r="G41" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>23846</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D42" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>23844</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="20">
+        <v>42633</v>
+      </c>
+      <c r="D43" s="20">
+        <v>42633</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" s="78" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="70">
+        <v>23841</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="72">
+        <v>42633</v>
+      </c>
+      <c r="D44" s="72">
+        <v>42633</v>
+      </c>
+      <c r="E44" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="74"/>
+      <c r="G44" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H38" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="I38" s="64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="79">
-        <v>23842</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="81">
-        <v>42633</v>
-      </c>
-      <c r="D39" s="81">
-        <v>42633</v>
-      </c>
-      <c r="E39" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="83"/>
-      <c r="G39" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="84" t="s">
+    </row>
+    <row r="49" spans="1:9" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A49" s="36">
+        <v>24946</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="38">
+        <v>42647</v>
+      </c>
+      <c r="D49" s="38">
+        <v>42647</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="40">
+        <v>2</v>
+      </c>
+      <c r="G49" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="31">
+        <v>24938</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="33">
+        <v>42646</v>
+      </c>
+      <c r="D50" s="33">
+        <v>42646</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="34">
+        <v>2</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="50" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
-        <v>23846</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D40" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
-        <v>23844</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D41" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:9" s="78" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
-        <v>23841</v>
-      </c>
-      <c r="B42" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="72">
-        <v>42633</v>
-      </c>
-      <c r="D42" s="72">
-        <v>42633</v>
-      </c>
-      <c r="E42" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="74"/>
-      <c r="G42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G43" s="6"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G46" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="36">
-        <v>24946</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="38">
-        <v>42647</v>
-      </c>
-      <c r="D47" s="38">
-        <v>42647</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="40">
-        <v>2</v>
-      </c>
-      <c r="G47" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="I47" s="49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="31">
-        <v>24938</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="33">
-        <v>42646</v>
-      </c>
-      <c r="D48" s="33">
-        <v>42646</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="34">
-        <v>2</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>24933</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D49" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="4">
-        <v>2</v>
-      </c>
-      <c r="G49" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D50" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="4">
-        <v>2</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>66</v>
-      </c>
       <c r="I50" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>24932</v>
+        <v>24933</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" s="13">
         <v>42646</v>
@@ -2156,21 +2181,21 @@
         <v>2</v>
       </c>
       <c r="G51" s="56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="I51" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I51" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>24929</v>
+        <v>24939</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C52" s="13">
         <v>42646</v>
@@ -2179,27 +2204,27 @@
         <v>42646</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F52" s="4">
         <v>2</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H52" s="50" t="s">
         <v>64</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>24930</v>
+        <v>24932</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" s="13">
         <v>42646</v>
@@ -2213,22 +2238,22 @@
       <c r="F53" s="4">
         <v>2</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="50" t="s">
+      <c r="G53" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>64</v>
+      <c r="I53" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>24931</v>
+        <v>24929</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" s="13">
         <v>42646</v>
@@ -2243,50 +2268,50 @@
         <v>2</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H54" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="42">
-        <v>24934</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="44">
+        <v>62</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>24930</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="13">
         <v>42646</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="13">
         <v>42646</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="46">
+      <c r="F55" s="4">
         <v>2</v>
       </c>
-      <c r="G55" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="H55" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="I55" s="47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>24935</v>
+        <v>24931</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C56" s="13">
         <v>42646</v>
@@ -2301,50 +2326,50 @@
         <v>2</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H56" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="59">
-        <v>24936</v>
-      </c>
-      <c r="B57" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="61">
+        <v>63</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="42">
+        <v>24934</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="44">
         <v>42646</v>
       </c>
-      <c r="D57" s="61">
+      <c r="D57" s="44">
         <v>42646</v>
       </c>
-      <c r="E57" s="87" t="s">
+      <c r="E57" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="63">
+      <c r="F57" s="46">
         <v>2</v>
       </c>
-      <c r="G57" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="I57" s="69" t="s">
-        <v>64</v>
+      <c r="G57" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="47" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>24937</v>
+        <v>24935</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C58" s="13">
         <v>42646</v>
@@ -2353,56 +2378,114 @@
         <v>42646</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H58" s="50" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="59">
+        <v>24936</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="61">
+        <v>42646</v>
+      </c>
+      <c r="D59" s="61">
+        <v>42646</v>
+      </c>
+      <c r="E59" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="63">
+        <v>2</v>
+      </c>
+      <c r="G59" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>24937</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="13">
+        <v>42646</v>
+      </c>
+      <c r="D60" s="13">
+        <v>42646</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B53" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B54" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B51" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B49" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B55" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B56" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B57" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B58" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B48" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B50" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B47" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B27" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B28" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B42" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B39" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B41" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B40" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B26" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B22" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B29" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B30" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B31" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B32" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B33" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B34" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B35" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B36" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B37" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B38" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B23" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B24" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B25" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B54" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B55" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B56" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B53" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B51" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B57" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B58" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B59" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B60" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B50" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B52" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B49" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B29" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B30" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B44" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B41" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B43" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B42" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B28" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B24" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B31" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B32" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B33" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B34" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B35" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B36" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B38" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B37" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B39" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B40" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B25" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B26" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B27" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -1236,7 +1236,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Fer" sheetId="2" r:id="rId1"/>
+    <sheet name="Yo" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -483,7 +484,14 @@
     </r>
   </si>
   <si>
-    <t>tener (test de) circuito. Cómo prueba fer el circuito?</t>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>la exportacion a excel de las grillas. El de RM exporta solo la pagina q se ve. Tenés q usar lo que hiciste para williams en la grilla de Situaciones</t>
+  </si>
+  <si>
+    <t>tener (test de) circuito. Cómo prueba fer el circuito? 
+-Lo que me confunde es lo de "RM pendientes". Ahí fer usa "Liberar para compras"?</t>
   </si>
 </sst>
 </file>
@@ -657,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -686,9 +694,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -739,6 +744,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -807,7 +815,13 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,23 +1246,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="0.140625" style="25" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="25" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="0.140625" style="24" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="24" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0.42578125" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="91.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="50" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="5" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="7"/>
   </cols>
@@ -1257,7 +1271,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1282,36 +1296,1062 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>23847</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D2" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>24849</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D3" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>24850</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D4" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>24851</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D5" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61">
+        <v>23839</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="63">
+        <v>42633</v>
+      </c>
+      <c r="D6" s="63">
+        <v>42633</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="61">
+        <v>23840</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="63">
+        <v>42633</v>
+      </c>
+      <c r="D7" s="63">
+        <v>42633</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>23849</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D8" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>23850</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D9" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>23848</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="33">
+        <v>42633</v>
+      </c>
+      <c r="D10" s="33">
+        <v>42633</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>23851</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D11" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>23852</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D12" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>23853</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D13" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>23855</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D14" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>23857</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D15" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>23856</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D16" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>23858</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D17" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="61">
+        <v>24848</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="63">
+        <v>42635</v>
+      </c>
+      <c r="D18" s="63">
+        <v>42635</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="81">
+        <v>23842</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="83">
+        <v>42633</v>
+      </c>
+      <c r="D19" s="83">
+        <v>42633</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>23846</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D20" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>23844</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" s="80" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="72">
+        <v>23841</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="74">
+        <v>42633</v>
+      </c>
+      <c r="D22" s="74">
+        <v>42633</v>
+      </c>
+      <c r="E22" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
+        <v>24946</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="38">
+        <v>42647</v>
+      </c>
+      <c r="D27" s="38">
+        <v>42647</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="40">
+        <v>2</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>24938</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="33">
+        <v>42646</v>
+      </c>
+      <c r="D28" s="33">
+        <v>42646</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="34">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>24933</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D29" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>24939</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D30" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>24932</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D31" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>24929</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D32" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>24930</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D33" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>24931</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D34" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="42">
+        <v>24934</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="44">
+        <v>42646</v>
+      </c>
+      <c r="D35" s="44">
+        <v>42646</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="46">
+        <v>2</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>24935</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D36" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="61">
+        <v>24936</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="63">
+        <v>42646</v>
+      </c>
+      <c r="D37" s="63">
+        <v>42646</v>
+      </c>
+      <c r="E37" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="65">
+        <v>2</v>
+      </c>
+      <c r="G37" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>24937</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D38" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B32" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B33" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B34" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B31" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B29" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B35" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B36" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B37" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B38" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B28" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B30" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B27" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B6" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B7" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B22" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B19" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B21" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B20" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B2" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B10" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B8" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B9" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B11" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B12" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B13" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B14" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B16" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B15" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B17" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B18" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B3" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B4" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B5" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K63"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="0.140625" style="24" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="24" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="91.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="50" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="90"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="90"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="I3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G4" s="5" t="s">
+    <row r="5" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
@@ -1323,7 +2363,7 @@
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="26"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
@@ -1338,7 +2378,7 @@
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
@@ -1350,7 +2390,7 @@
     </row>
     <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
@@ -1365,7 +2405,7 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="26"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
@@ -1375,9 +2415,9 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
@@ -1389,7 +2429,7 @@
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
@@ -1402,9 +2442,9 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="26"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
@@ -1419,7 +2459,7 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
@@ -1429,9 +2469,9 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
@@ -1443,7 +2483,7 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="26"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
@@ -1453,9 +2493,9 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="4"/>
@@ -1465,9 +2505,9 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="4"/>
@@ -1477,9 +2517,9 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="26"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="4"/>
@@ -1489,9 +2529,9 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="4"/>
@@ -1501,993 +2541,361 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="95"/>
-    </row>
-    <row r="22" spans="1:11" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="95"/>
-    </row>
-    <row r="23" spans="1:11" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="95"/>
-    </row>
-    <row r="24" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>23848</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="33">
-        <v>42633</v>
-      </c>
-      <c r="D24" s="33">
-        <v>42633</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>24849</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="9">
-        <v>42635</v>
-      </c>
-      <c r="D25" s="9">
-        <v>42635</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>24850</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="9">
-        <v>42635</v>
-      </c>
-      <c r="D26" s="9">
-        <v>42635</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>24851</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="9">
-        <v>42635</v>
-      </c>
-      <c r="D27" s="9">
-        <v>42635</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="66" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="59">
-        <v>23847</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="61">
-        <v>42633</v>
-      </c>
-      <c r="D28" s="61">
-        <v>42633</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59">
-        <v>23839</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="61">
-        <v>42633</v>
-      </c>
-      <c r="D29" s="61">
-        <v>42633</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="59">
-        <v>23840</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="61">
-        <v>42633</v>
-      </c>
-      <c r="D30" s="61">
-        <v>42633</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>23849</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D31" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>47</v>
-      </c>
+    <row r="21" spans="1:11" s="93" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="97"/>
+    </row>
+    <row r="22" spans="1:11" s="93" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="97"/>
+    </row>
+    <row r="23" spans="1:11" s="93" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="97"/>
+    </row>
+    <row r="24" spans="1:11" s="11" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="34"/>
+    </row>
+    <row r="27" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" s="68" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" s="68" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
+    </row>
+    <row r="30" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D32" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>23851</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D33" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="G31" s="59"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="34"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>23852</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D34" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="G33" s="58"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>23853</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D35" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="G34" s="58"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>23855</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D36" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="G35" s="58"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>23857</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D37" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="37" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D38" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="38" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>23858</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="13">
-        <v>42633</v>
-      </c>
-      <c r="D39" s="13">
-        <v>42633</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="39" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="66" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="59">
-        <v>24848</v>
-      </c>
-      <c r="B40" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="61">
-        <v>42635</v>
-      </c>
-      <c r="D40" s="61">
-        <v>42635</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="I40" s="64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="79">
-        <v>23842</v>
-      </c>
-      <c r="B41" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="81">
-        <v>42633</v>
-      </c>
-      <c r="D41" s="81">
-        <v>42633</v>
-      </c>
-      <c r="E41" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="84" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
-        <v>23846</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D42" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
-        <v>23844</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="20">
-        <v>42633</v>
-      </c>
-      <c r="D43" s="20">
-        <v>42633</v>
-      </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
+    </row>
+    <row r="40" spans="1:9" s="68" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="66"/>
+    </row>
+    <row r="41" spans="1:9" s="88" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="86"/>
+    </row>
+    <row r="42" spans="1:9" s="23" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" s="23" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="53"/>
-      <c r="I43" s="23"/>
-    </row>
-    <row r="44" spans="1:9" s="78" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
-        <v>23841</v>
-      </c>
-      <c r="B44" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="72">
-        <v>42633</v>
-      </c>
-      <c r="D44" s="72">
-        <v>42633</v>
-      </c>
-      <c r="E44" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="74"/>
-      <c r="G44" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="H44" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="I44" s="77" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:9" s="80" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="72"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="79"/>
+    </row>
+    <row r="45" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="G45" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G48" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A49" s="36">
-        <v>24946</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="38">
-        <v>42647</v>
-      </c>
-      <c r="D49" s="38">
-        <v>42647</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="40">
-        <v>2</v>
-      </c>
-      <c r="G49" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="I49" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="31">
-        <v>24938</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="33">
-        <v>42646</v>
-      </c>
-      <c r="D50" s="33">
-        <v>42646</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="34">
-        <v>2</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>24933</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D51" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="4">
-        <v>2</v>
-      </c>
-      <c r="G51" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D52" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="4">
-        <v>2</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>24932</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D53" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="4">
-        <v>2</v>
-      </c>
-      <c r="G53" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="H53" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>24929</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D54" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="4">
-        <v>2</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>24930</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D55" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" s="4">
-        <v>2</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H55" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>24931</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D56" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" s="4">
-        <v>2</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="42">
-        <v>24934</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="44">
-        <v>42646</v>
-      </c>
-      <c r="D57" s="44">
-        <v>42646</v>
-      </c>
-      <c r="E57" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="46">
-        <v>2</v>
-      </c>
-      <c r="G57" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="H57" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I57" s="47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>24935</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D58" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="4">
-        <v>2</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="59">
-        <v>24936</v>
-      </c>
-      <c r="B59" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="61">
-        <v>42646</v>
-      </c>
-      <c r="D59" s="61">
-        <v>42646</v>
-      </c>
-      <c r="E59" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="63">
-        <v>2</v>
-      </c>
-      <c r="G59" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I59" s="69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>24937</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="13">
-        <v>42646</v>
-      </c>
-      <c r="D60" s="13">
-        <v>42646</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="4">
-        <v>2</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    <row r="48" spans="1:9" ht="26.25" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:9" s="41" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="49"/>
+    </row>
+    <row r="50" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="34"/>
+    </row>
+    <row r="51" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="4"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="47"/>
+    </row>
+    <row r="58" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" s="68" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="61"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="71"/>
+    </row>
+    <row r="60" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" ht="26.25" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:9" ht="26.25" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:9" ht="26.25" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B54" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B55" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B56" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B53" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B51" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B57" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B58" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B59" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B60" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B50" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B52" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B49" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B29" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B30" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B44" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B41" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B43" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B42" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B28" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B24" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B31" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B32" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B33" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B34" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B35" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B36" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B38" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B37" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B39" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B40" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B25" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B26" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B27" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -393,22 +393,6 @@
 -En el dropdown parece tirar la lista correcta, pero al elegir el usuario y dispararse el popup, el listado es diferente, y a veces no está el usuario elegido antes del popup</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me pone el ID de la unidad y no el nombre (Hace falta ACEPTAR. Si no, no se modifican las unidades)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-En Pedidos tambien pasa. Las RM zafan, creo q porq tienen un truco feo</t>
-    </r>
-  </si>
-  <si>
     <t>poner dos renglones en el autofilter de fechas???</t>
   </si>
   <si>
@@ -487,11 +471,28 @@
     <t>*****</t>
   </si>
   <si>
-    <t>la exportacion a excel de las grillas. El de RM exporta solo la pagina q se ve. Tenés q usar lo que hiciste para williams en la grilla de Situaciones</t>
-  </si>
-  <si>
     <t>tener (test de) circuito. Cómo prueba fer el circuito? 
 -Lo que me confunde es lo de "RM pendientes". Ahí fer usa "Liberar para compras"?</t>
+  </si>
+  <si>
+    <t>la exportacion a excel de las grillas. El de RM exporta solo la pagina q se ve. Tenés q usar lo que hiciste para williams en la grilla de Situaciones.
+-Vincularlo con lo de la salida a excel de buques que pidieron en williams</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Despues de editar el formulario cuando vuelve a la grilla en la columna de Unidades me pone el ID de la unidad y no el nombre (Hace falta ACEPTAR. Si no, no se modifican las unidades)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-En Pedidos tambien pasa. Las RM zafan, creo q porq tienen un truco feo</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1250,7 +1251,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1315,7 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="57" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>66</v>
@@ -1323,236 +1324,236 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
-        <v>24849</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="33">
-        <v>42635</v>
-      </c>
-      <c r="D3" s="33">
-        <v>42635</v>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>23849</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D3" s="12">
+        <v>42633</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>24850</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="33">
-        <v>42635</v>
-      </c>
-      <c r="D4" s="33">
-        <v>42635</v>
+      <c r="I3" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>23855</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D4" s="12">
+        <v>42633</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H4" s="50" t="s">
         <v>64</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>24851</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="33">
-        <v>42635</v>
-      </c>
-      <c r="D5" s="33">
-        <v>42635</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>23857</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D5" s="12">
+        <v>42633</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H5" s="50" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>24849</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D6" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J6" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>24850</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D7" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>24851</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D8" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61">
         <v>23839</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="63">
-        <v>42633</v>
-      </c>
-      <c r="D6" s="63">
-        <v>42633</v>
-      </c>
-      <c r="E6" s="89" t="s">
+      <c r="C9" s="63">
+        <v>42633</v>
+      </c>
+      <c r="D9" s="63">
+        <v>42633</v>
+      </c>
+      <c r="E9" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="69" t="s">
+      <c r="F9" s="65"/>
+      <c r="G9" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H9" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I9" s="71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="61">
+    <row r="10" spans="1:11" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="61">
         <v>23840</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B10" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="63">
-        <v>42633</v>
-      </c>
-      <c r="D7" s="63">
-        <v>42633</v>
-      </c>
-      <c r="E7" s="89" t="s">
+      <c r="C10" s="63">
+        <v>42633</v>
+      </c>
+      <c r="D10" s="63">
+        <v>42633</v>
+      </c>
+      <c r="E10" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="69" t="s">
+      <c r="F10" s="65"/>
+      <c r="G10" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H10" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>23849</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D8" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D9" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>23848</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="33">
-        <v>42633</v>
-      </c>
-      <c r="D10" s="33">
-        <v>42633</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="71" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>23851</v>
+        <v>23850</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12">
         <v>42633</v>
@@ -1564,49 +1565,49 @@
         <v>47</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="52" t="s">
+      <c r="G11" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>23848</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="33">
+        <v>42633</v>
+      </c>
+      <c r="D12" s="33">
+        <v>42633</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I12" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>23852</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D12" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>23853</v>
+        <v>23851</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="12">
         <v>42633</v>
@@ -1615,25 +1616,25 @@
         <v>42633</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="58" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="H13" s="52" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>23855</v>
+        <v>23852</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="12">
         <v>42633</v>
@@ -1645,40 +1646,40 @@
         <v>48</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="50" t="s">
+      <c r="G14" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>23853</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D15" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>23857</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D15" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1700,7 +1701,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="50" t="s">
         <v>62</v>
@@ -1727,7 +1728,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="50" t="s">
         <v>63</v>
@@ -2233,27 +2234,27 @@
     <hyperlink ref="B28" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
     <hyperlink ref="B30" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
     <hyperlink ref="B27" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B6" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B7" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B9" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B10" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
     <hyperlink ref="B22" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
     <hyperlink ref="B19" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
     <hyperlink ref="B21" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
     <hyperlink ref="B20" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
     <hyperlink ref="B2" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B10" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B8" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B9" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B11" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B12" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B13" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B14" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B12" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B3" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B11" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B13" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B14" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B15" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B4" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
     <hyperlink ref="B16" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B15" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B5" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
     <hyperlink ref="B17" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
     <hyperlink ref="B18" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B3" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B4" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B5" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B6" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B7" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B8" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>
@@ -2262,13 +2263,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="29" customWidth="1"/>
@@ -2319,7 +2320,7 @@
       <c r="E2" s="92"/>
       <c r="F2" s="10"/>
       <c r="G2" s="90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>66</v>
@@ -2328,35 +2329,35 @@
       <c r="J2" s="101"/>
       <c r="K2" s="101"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="G3" s="5" t="s">
         <v>104</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="25"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -2383,7 +2384,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2415,7 +2416,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="25"/>
       <c r="C11" s="2"/>
@@ -2442,7 +2443,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="25"/>
       <c r="C13" s="2"/>
@@ -2469,7 +2470,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="25"/>
       <c r="C15" s="2"/>
@@ -2493,7 +2494,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="25"/>
       <c r="C17" s="2"/>
@@ -2505,7 +2506,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="25"/>
       <c r="C18" s="2"/>
@@ -2517,7 +2518,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="25"/>
       <c r="C19" s="2"/>
@@ -2529,7 +2530,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="25"/>
       <c r="C20" s="2"/>
@@ -2541,7 +2542,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" s="93" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="95"/>
@@ -2550,7 +2551,7 @@
       <c r="H21" s="98"/>
       <c r="I21" s="97"/>
     </row>
-    <row r="22" spans="1:11" s="93" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="94"/>
       <c r="C22" s="95"/>
       <c r="D22" s="95"/>
@@ -2559,7 +2560,7 @@
       <c r="H22" s="98"/>
       <c r="I22" s="97"/>
     </row>
-    <row r="23" spans="1:11" s="93" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="94"/>
       <c r="C23" s="95"/>
       <c r="D23" s="95"/>
@@ -2568,7 +2569,7 @@
       <c r="H23" s="98"/>
       <c r="I23" s="97"/>
     </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="26"/>
       <c r="C24" s="9"/>
@@ -2579,7 +2580,7 @@
       <c r="H24" s="55"/>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="33"/>
@@ -2587,7 +2588,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
@@ -2595,14 +2596,14 @@
       <c r="E26" s="13"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:11" s="68" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
       <c r="B28" s="62"/>
       <c r="C28" s="63"/>
@@ -2613,7 +2614,7 @@
       <c r="H28" s="70"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:11" s="68" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="62"/>
       <c r="C29" s="63"/>
@@ -2624,7 +2625,7 @@
       <c r="H29" s="70"/>
       <c r="I29" s="71"/>
     </row>
-    <row r="30" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="27"/>
       <c r="C30" s="12"/>
@@ -2635,7 +2636,7 @@
       <c r="H30" s="52"/>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="27"/>
       <c r="C31" s="12"/>
@@ -2646,7 +2647,7 @@
       <c r="H31" s="56"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="33"/>
@@ -2656,7 +2657,7 @@
       <c r="H32" s="52"/>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="27"/>
       <c r="C33" s="12"/>
@@ -2667,7 +2668,7 @@
       <c r="H33" s="52"/>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="27"/>
       <c r="C34" s="12"/>
@@ -2678,7 +2679,7 @@
       <c r="H34" s="52"/>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="27"/>
       <c r="C35" s="12"/>
@@ -2689,7 +2690,7 @@
       <c r="H35" s="52"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="27"/>
       <c r="C36" s="12"/>
@@ -2697,7 +2698,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="27"/>
       <c r="C37" s="12"/>
@@ -2705,7 +2706,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="27"/>
       <c r="C38" s="12"/>
@@ -2713,7 +2714,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="27"/>
       <c r="C39" s="12"/>
@@ -2721,7 +2722,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:9" s="68" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="62"/>
       <c r="C40" s="63"/>
@@ -2732,7 +2733,7 @@
       <c r="H40" s="67"/>
       <c r="I40" s="66"/>
     </row>
-    <row r="41" spans="1:9" s="88" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="81"/>
       <c r="B41" s="82"/>
       <c r="C41" s="83"/>
@@ -2743,7 +2744,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="86"/>
     </row>
-    <row r="42" spans="1:9" s="23" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="28"/>
       <c r="C42" s="19"/>
@@ -2754,7 +2755,7 @@
       <c r="H42" s="53"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="23" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="28"/>
       <c r="C43" s="19"/>
@@ -2765,7 +2766,7 @@
       <c r="H43" s="53"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" s="80" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="72"/>
       <c r="B44" s="73"/>
       <c r="C44" s="74"/>
@@ -2776,11 +2777,10 @@
       <c r="H44" s="78"/>
       <c r="I44" s="79"/>
     </row>
-    <row r="45" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G45" s="6"/>
     </row>
-    <row r="48" spans="1:9" ht="26.25" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:9" s="41" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
@@ -2791,7 +2791,7 @@
       <c r="H49" s="51"/>
       <c r="I49" s="49"/>
     </row>
-    <row r="50" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="32"/>
       <c r="C50" s="33"/>
@@ -2799,7 +2799,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="34"/>
     </row>
-    <row r="51" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="27"/>
       <c r="C51" s="12"/>
@@ -2810,7 +2810,7 @@
       <c r="H51" s="52"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="27"/>
       <c r="C52" s="12"/>
@@ -2818,7 +2818,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="27"/>
       <c r="C53" s="12"/>
@@ -2829,7 +2829,7 @@
       <c r="H53" s="52"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="27"/>
       <c r="C54" s="12"/>
@@ -2837,7 +2837,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="27"/>
       <c r="C55" s="12"/>
@@ -2845,7 +2845,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="27"/>
       <c r="C56" s="12"/>
@@ -2854,7 +2854,7 @@
       <c r="F56" s="4"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
@@ -2865,7 +2865,7 @@
       <c r="H57" s="54"/>
       <c r="I57" s="47"/>
     </row>
-    <row r="58" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="27"/>
       <c r="C58" s="12"/>
@@ -2873,7 +2873,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:9" s="68" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="61"/>
       <c r="B59" s="62"/>
       <c r="C59" s="63"/>
@@ -2884,7 +2884,7 @@
       <c r="H59" s="70"/>
       <c r="I59" s="71"/>
     </row>
-    <row r="60" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="27"/>
       <c r="C60" s="12"/>
@@ -2892,9 +2892,6 @@
       <c r="E60" s="13"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:9" ht="26.25" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:9" ht="26.25" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:9" ht="26.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -491,7 +491,31 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>-En Pedidos tambien pasa. Las RM zafan, creo q porq tienen un truco feo</t>
+      <t xml:space="preserve">-En Pedidos tambien pasa. Las RM zafan, creo q porq tienen un truco feo
+-Ojo q las unidades usan un combito, no es autocomplete.  Pasa lo mismo con la calidad (en el PED), q tambien es un combo. Solo pasa si uso el popup; con el celledit anda bien
+-En la RM lo soluciono en el beforeSubmit en EditarItem. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Por qué hace falta ese truco?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -499,7 +523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -570,6 +594,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1251,7 +1283,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>23847</v>
       </c>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -493,7 +493,7 @@
       </rPr>
       <t xml:space="preserve">-En Pedidos tambien pasa. Las RM zafan, creo q porq tienen un truco feo
 -Ojo q las unidades usan un combito, no es autocomplete.  Pasa lo mismo con la calidad (en el PED), q tambien es un combo. Solo pasa si uso el popup; con el celledit anda bien
--En la RM lo soluciono en el beforeSubmit en EditarItem. </t>
+-En la RM lo soluciono en el editGridRow.beforeSubmit en EditarItem. </t>
     </r>
     <r>
       <rPr>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -500,21 +500,21 @@
         <b/>
         <i/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Por qué hace falta ese truco?</t>
+      <t xml:space="preserve">Por qué hace falta ese truco? De donde saqué ese codigo???
+</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">-En el PED, al cambiar la calidad me cambia la unidad (sin salir del formedit)
 </t>
     </r>
   </si>
@@ -603,7 +603,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -698,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -977,6 +977,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1283,7 +1286,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1332,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>23847</v>
       </c>
@@ -1356,30 +1359,30 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>23849</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D3" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D3" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E3" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="58" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="30" t="s">
         <v>62</v>
       </c>
     </row>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
@@ -10,7 +10,7 @@
     <sheet name="Fer" sheetId="2" r:id="rId1"/>
     <sheet name="Yo" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1282,11 +1282,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1386,52 +1386,52 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>23846</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D4" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>23855</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D4" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="C5" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D5" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>23857</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D5" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="50" t="s">
         <v>64</v>
@@ -1440,209 +1440,201 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>24849</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="33">
-        <v>42635</v>
-      </c>
-      <c r="D6" s="33">
-        <v>42635</v>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>23857</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D6" s="12">
+        <v>42633</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="34"/>
+        <v>49</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H6" s="50" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
-        <v>24850</v>
+        <v>23848</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C7" s="33">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="D7" s="33">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>24851</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="33">
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>23851</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D8" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>23853</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D9" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="61">
+        <v>24848</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="63">
         <v>42635</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D10" s="63">
         <v>42635</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="50" t="s">
+      <c r="E10" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I10" s="66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="81">
+        <v>23842</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="83">
+        <v>42633</v>
+      </c>
+      <c r="D11" s="83">
+        <v>42633</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>23858</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D12" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
-        <v>23839</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="63">
-        <v>42633</v>
-      </c>
-      <c r="D9" s="63">
-        <v>42633</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="71" t="s">
+      <c r="I12" s="5" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
-        <v>23840</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="63">
-        <v>42633</v>
-      </c>
-      <c r="D10" s="63">
-        <v>42633</v>
-      </c>
-      <c r="E10" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D11" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>23848</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="33">
-        <v>42633</v>
-      </c>
-      <c r="D12" s="33">
-        <v>42633</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>23851</v>
+        <v>23850</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12">
         <v>42633</v>
@@ -1654,49 +1646,49 @@
         <v>47</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="16" t="s">
+      <c r="G13" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="56" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>23852</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D14" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="52" t="s">
+      <c r="I13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="16" t="s">
+    </row>
+    <row r="14" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61">
+        <v>23839</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="63">
+        <v>42633</v>
+      </c>
+      <c r="D14" s="63">
+        <v>42633</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>23853</v>
+        <v>23852</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="12">
         <v>42633</v>
@@ -1709,10 +1701,10 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="58" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>62</v>
@@ -1745,232 +1737,305 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>23858</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D17" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="50" t="s">
+    <row r="17" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="61">
+        <v>23840</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="63">
+        <v>42633</v>
+      </c>
+      <c r="D17" s="63">
+        <v>42633</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="5" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>24938</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="33">
+        <v>42646</v>
+      </c>
+      <c r="D20" s="33">
+        <v>42646</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="34">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="61">
-        <v>24848</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="63">
-        <v>42635</v>
-      </c>
-      <c r="D18" s="63">
-        <v>42635</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="67" t="s">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>24933</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D21" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="66" t="s">
+      <c r="I21" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>24939</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D22" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="81">
-        <v>23842</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="83">
-        <v>42633</v>
-      </c>
-      <c r="D19" s="83">
-        <v>42633</v>
-      </c>
-      <c r="E19" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="87" t="s">
+      <c r="I22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>24932</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D23" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="86" t="s">
+      <c r="I23" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>23846</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D20" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>23844</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D21" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" s="80" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="72">
-        <v>23841</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="74">
-        <v>42633</v>
-      </c>
-      <c r="D22" s="74">
-        <v>42633</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="78" t="s">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24937</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D24" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="79" t="s">
+      <c r="I24" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="36">
+        <v>24946</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="38">
+        <v>42647</v>
+      </c>
+      <c r="D25" s="38">
+        <v>42647</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="40">
+        <v>2</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24931</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D26" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
       <c r="G26" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
-        <v>24946</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="38">
-        <v>42647</v>
-      </c>
-      <c r="D27" s="38">
-        <v>42647</v>
-      </c>
-      <c r="E27" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24935</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D27" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="51" t="s">
+      <c r="G27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
-        <v>24938</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="33">
+    <row r="28" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="61">
+        <v>24936</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="63">
         <v>42646</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="63">
         <v>42646</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="65">
         <v>2</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="5" t="s">
+      <c r="G28" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>24933</v>
+        <v>24929</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C29" s="12">
         <v>42646</v>
@@ -1984,312 +2049,244 @@
       <c r="F29" s="4">
         <v>2</v>
       </c>
-      <c r="G29" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="52" t="s">
+      <c r="G29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>23844</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D33" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <v>24849</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D34" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <v>24850</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D35" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>24851</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D36" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="80" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="72">
+        <v>23841</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="74">
+        <v>42633</v>
+      </c>
+      <c r="D38" s="74">
+        <v>42633</v>
+      </c>
+      <c r="E38" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="76"/>
+      <c r="G38" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="79" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="12">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>24930</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="12">
         <v>42646</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D39" s="12">
         <v>42646</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="E39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>24932</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="12">
+      <c r="G39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="42">
+        <v>24934</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="44">
         <v>42646</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D40" s="44">
         <v>42646</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E40" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F40" s="46">
         <v>2</v>
       </c>
-      <c r="G31" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="15" t="s">
+      <c r="G40" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="54" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>24929</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D32" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>24930</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D33" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>24931</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D34" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="42">
-        <v>24934</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="44">
-        <v>42646</v>
-      </c>
-      <c r="D35" s="44">
-        <v>42646</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="46">
-        <v>2</v>
-      </c>
-      <c r="G35" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>24935</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D36" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="61">
-        <v>24936</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="63">
-        <v>42646</v>
-      </c>
-      <c r="D37" s="63">
-        <v>42646</v>
-      </c>
-      <c r="E37" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="65">
-        <v>2</v>
-      </c>
-      <c r="G37" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>24937</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D38" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="4">
-        <v>2</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="5" t="s">
+      <c r="I40" s="47" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B33" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B34" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B31" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B29" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B35" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B36" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B37" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B38" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B28" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B30" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B27" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B9" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B10" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B22" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B19" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B21" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B20" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B29" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B39" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B26" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B23" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B21" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B40" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B27" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B28" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B24" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B20" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B22" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B25" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B17" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B38" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B11" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B33" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B4" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
     <hyperlink ref="B2" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B12" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B7" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
     <hyperlink ref="B3" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B11" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B13" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B14" r:id="rId24" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B15" r:id="rId25" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B4" r:id="rId26" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B16" r:id="rId27" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B5" r:id="rId28" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B17" r:id="rId29" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B18" r:id="rId30" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B6" r:id="rId31" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B7" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B8" r:id="rId33" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B13" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B8" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B9" r:id="rId24" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B5" r:id="rId25" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B16" r:id="rId26" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B6" r:id="rId27" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B12" r:id="rId28" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B10" r:id="rId29" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B34" r:id="rId30" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B35" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B36" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B15" r:id="rId33" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -518,12 +518,15 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>POSTERGADOS (se puede hacer el circuito sin ellos)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -604,6 +607,12 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -698,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -979,6 +988,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1285,8 +1308,8 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1764,10 +1787,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="5" t="s">
+    <row r="19" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="G19" s="107" t="s">
         <v>82</v>
       </c>
+      <c r="H19" s="108"/>
+      <c r="I19" s="107"/>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
@@ -1827,12 +1856,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>24939</v>
+        <v>24932</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C22" s="12">
         <v>42646</v>
@@ -1841,27 +1870,27 @@
         <v>42646</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="50" t="s">
+      <c r="G22" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I22" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>24932</v>
+        <v>24937</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C23" s="12">
         <v>42646</v>
@@ -1870,85 +1899,85 @@
         <v>42646</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="G23" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="15" t="s">
+      <c r="G23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="36">
+        <v>24946</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="38">
+        <v>42647</v>
+      </c>
+      <c r="D24" s="38">
+        <v>42647</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="40">
+        <v>2</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>24937</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="12">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24931</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="12">
         <v>42646</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>42646</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="E25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="5" t="s">
+      <c r="G25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="50" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
-        <v>24946</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="38">
-        <v>42647</v>
-      </c>
-      <c r="D25" s="38">
-        <v>42647</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="40">
-        <v>2</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="51" t="s">
+      <c r="I25" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24931</v>
+        <v>24935</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26" s="12">
         <v>42646</v>
@@ -1963,100 +1992,111 @@
         <v>2</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H26" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="61">
+        <v>24936</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="63">
+        <v>42646</v>
+      </c>
+      <c r="D27" s="63">
+        <v>42646</v>
+      </c>
+      <c r="E27" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="65">
+        <v>2</v>
+      </c>
+      <c r="G27" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>24929</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D28" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="106"/>
+      <c r="G31" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="108"/>
+      <c r="I31" s="107"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>24939</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D32" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>24935</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D27" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="61">
-        <v>24936</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="63">
-        <v>42646</v>
-      </c>
-      <c r="D28" s="63">
-        <v>42646</v>
-      </c>
-      <c r="E28" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="65">
-        <v>2</v>
-      </c>
-      <c r="G28" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>24929</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D29" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="4">
-        <v>2</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2254,39 +2294,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B28" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
     <hyperlink ref="B39" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B26" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B23" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B25" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B22" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
     <hyperlink ref="B21" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
     <hyperlink ref="B40" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B27" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B28" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B24" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B26" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B27" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B23" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
     <hyperlink ref="B20" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B22" r:id="rId11" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
-    <hyperlink ref="B25" r:id="rId12" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B14" r:id="rId13" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B17" r:id="rId14" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B38" r:id="rId15" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B11" r:id="rId16" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B33" r:id="rId17" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B4" r:id="rId18" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B2" r:id="rId19" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B7" r:id="rId20" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B3" r:id="rId21" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B13" r:id="rId22" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B8" r:id="rId23" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B9" r:id="rId24" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B5" r:id="rId25" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B16" r:id="rId26" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B6" r:id="rId27" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B12" r:id="rId28" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B10" r:id="rId29" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B34" r:id="rId30" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B35" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B36" r:id="rId32" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
-    <hyperlink ref="B15" r:id="rId33" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B24" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B14" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B17" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B38" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B11" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B33" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B4" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B2" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B7" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B3" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B13" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B8" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B9" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B5" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B16" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B6" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B12" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B10" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B34" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B35" r:id="rId30" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B36" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B15" r:id="rId32" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B32" r:id="rId33" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>POSTERGADOS (se puede hacer el circuito sin ellos)</t>
+  </si>
+  <si>
+    <t>COMPRAS</t>
   </si>
 </sst>
 </file>
@@ -1305,11 +1308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1355,676 +1358,622 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>23847</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D2" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E2" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>23849</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D3" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E3" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="55" t="s">
+    <row r="2" spans="1:11" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+      <c r="G2" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="108"/>
+      <c r="I2" s="107"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>24938</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="33">
+        <v>42646</v>
+      </c>
+      <c r="D3" s="33">
+        <v>42646</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="34">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>23846</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D4" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>24933</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D4" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>23855</v>
+        <v>24932</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C5" s="12">
-        <v>42633</v>
+        <v>42646</v>
       </c>
       <c r="D5" s="12">
-        <v>42633</v>
+        <v>42646</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>24937</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D6" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="36">
+        <v>24946</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="38">
+        <v>42647</v>
+      </c>
+      <c r="D7" s="38">
+        <v>42647</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="40">
+        <v>2</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>24931</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D8" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>24935</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D9" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="61">
+        <v>24936</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="63">
+        <v>42646</v>
+      </c>
+      <c r="D10" s="63">
+        <v>42646</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="65">
+        <v>2</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>23847</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D15" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>23849</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D16" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>23846</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D17" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>23857</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B18" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D6" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="C18" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D18" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H18" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <v>23848</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="33">
-        <v>42633</v>
-      </c>
-      <c r="D7" s="33">
-        <v>42633</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="C19" s="33">
+        <v>42633</v>
+      </c>
+      <c r="D19" s="33">
+        <v>42633</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="5" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H19" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I19" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>23851</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D8" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="C20" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D20" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="58" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H20" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I20" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>23853</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D9" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E9" s="13" t="s">
+    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>23855</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="52" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
-        <v>24848</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="63">
-        <v>42635</v>
-      </c>
-      <c r="D10" s="63">
-        <v>42635</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
-        <v>23842</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="83">
-        <v>42633</v>
-      </c>
-      <c r="D11" s="83">
-        <v>42633</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="86" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>23858</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D12" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D13" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
-        <v>23839</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="63">
-        <v>42633</v>
-      </c>
-      <c r="D14" s="63">
-        <v>42633</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>23852</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D15" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D16" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="61">
-        <v>23840</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="63">
-        <v>42633</v>
-      </c>
-      <c r="D17" s="63">
-        <v>42633</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
-      <c r="G19" s="107" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="108"/>
-      <c r="I19" s="107"/>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>24938</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="33">
-        <v>42646</v>
-      </c>
-      <c r="D20" s="33">
-        <v>42646</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="34">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>24933</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D21" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>24932</v>
+        <v>23853</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C22" s="12">
-        <v>42646</v>
+        <v>42633</v>
       </c>
       <c r="D22" s="12">
-        <v>42646</v>
+        <v>42633</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="58" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H22" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>24937</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D23" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
-        <v>24946</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="38">
-        <v>42647</v>
-      </c>
-      <c r="D24" s="38">
-        <v>42647</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="40">
-        <v>2</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="49" t="s">
+    <row r="23" spans="1:9" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="61">
+        <v>24848</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="63">
+        <v>42635</v>
+      </c>
+      <c r="D23" s="63">
+        <v>42635</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="81">
+        <v>23842</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="83">
+        <v>42633</v>
+      </c>
+      <c r="D24" s="83">
+        <v>42633</v>
+      </c>
+      <c r="E24" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="86" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24931</v>
+        <v>23858</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C25" s="12">
-        <v>42646</v>
+        <v>42633</v>
       </c>
       <c r="D25" s="12">
-        <v>42646</v>
+        <v>42633</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="5" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="H25" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="14" t="s">
-        <v>63</v>
+      <c r="I25" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24935</v>
+        <v>23850</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C26" s="12">
-        <v>42646</v>
+        <v>42633</v>
       </c>
       <c r="D26" s="12">
-        <v>42646</v>
+        <v>42633</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61">
-        <v>24936</v>
+        <v>23839</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C27" s="63">
-        <v>42646</v>
+        <v>42633</v>
       </c>
       <c r="D27" s="63">
-        <v>42646</v>
+        <v>42633</v>
       </c>
       <c r="E27" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="65">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F27" s="65"/>
       <c r="G27" s="69" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H27" s="70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I27" s="71" t="s">
         <v>62</v>
@@ -2032,141 +1981,117 @@
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>24929</v>
+        <v>23852</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C28" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D28" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>23856</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D29" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="61">
+        <v>23840</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="63">
+        <v>42633</v>
+      </c>
+      <c r="D30" s="63">
+        <v>42633</v>
+      </c>
+      <c r="E30" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="65"/>
+      <c r="G30" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="106"/>
+      <c r="G34" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="108"/>
+      <c r="I34" s="107"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>24939</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="12">
         <v>42646</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D35" s="12">
         <v>42646</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="E35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="4">
         <v>2</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="104"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="106"/>
-      <c r="G31" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="108"/>
-      <c r="I31" s="107"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D32" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
-        <v>23844</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D33" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
-        <v>24849</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="33">
-        <v>42635</v>
-      </c>
-      <c r="D34" s="33">
-        <v>42635</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
-        <v>24850</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="33">
-        <v>42635</v>
-      </c>
-      <c r="D35" s="33">
-        <v>42635</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>64</v>
@@ -2174,159 +2099,264 @@
       <c r="I35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="7">
+    </row>
+    <row r="36" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>23844</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D36" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <v>24849</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D37" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
+        <v>24850</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D38" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="31">
         <v>24851</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B39" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C39" s="33">
         <v>42635</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D39" s="33">
         <v>42635</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E39" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H39" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J39" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="80" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="72">
+    <row r="41" spans="1:10" s="80" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="72">
         <v>23841</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B41" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="74">
-        <v>42633</v>
-      </c>
-      <c r="D38" s="74">
-        <v>42633</v>
-      </c>
-      <c r="E38" s="75" t="s">
+      <c r="C41" s="74">
+        <v>42633</v>
+      </c>
+      <c r="D41" s="74">
+        <v>42633</v>
+      </c>
+      <c r="E41" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="76"/>
-      <c r="G38" s="77" t="s">
+      <c r="F41" s="76"/>
+      <c r="G41" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="78" t="s">
+      <c r="H41" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="I38" s="79" t="s">
+      <c r="I41" s="79" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>24930</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B42" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C42" s="12">
         <v>42646</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D42" s="12">
         <v>42646</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F42" s="4">
         <v>2</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H42" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="42">
+    <row r="43" spans="1:10" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="42">
         <v>24934</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B43" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C43" s="44">
         <v>42646</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D43" s="44">
         <v>42646</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E43" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F43" s="46">
         <v>2</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G43" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="H43" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="47" t="s">
+      <c r="I43" s="47" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>24929</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D44" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B39" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B25" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B22" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B21" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B40" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B26" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B27" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B23" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B20" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B24" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B14" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B17" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B38" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B11" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B33" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B4" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B2" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B7" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B3" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B13" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B8" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B9" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B5" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B16" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B6" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B12" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B10" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B34" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B35" r:id="rId30" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B36" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
-    <hyperlink ref="B15" r:id="rId32" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B32" r:id="rId33" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B44" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B42" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B8" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B43" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B9" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B10" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B3" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B27" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B30" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B41" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B24" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B36" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B17" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B15" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B19" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B16" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B26" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B20" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B22" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B21" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B29" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B18" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B25" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B23" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B37" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B38" r:id="rId30" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B39" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B28" r:id="rId32" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B35" r:id="rId33" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -174,12 +174,6 @@
   </si>
   <si>
     <t>03 Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente</t>
-  </si>
-  <si>
-    <t>04 Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo</t>
-  </si>
-  <si>
-    <t>05 No tengo donde poner el codigo del cliente como para poder buscarlo</t>
   </si>
   <si>
     <t>01- NO tengo donde poner el Equipo destino en la cabecera del RM</t>
@@ -231,10 +225,6 @@
     <t>el panel de grillas auxiliares cuando está vacio muestra el filtrador y algo raro</t>
   </si>
   <si>
-    <t xml:space="preserve"> Si en las observaciones pongo un texto que tiene una   tabulacion   , no me permite grabar la factura y arroja errores
-Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra</t>
-  </si>
-  <si>
     <t>los feos desencuadres.  Las pestañas de las grillas auxiliares. El alto del encabezado de las grillas aux</t>
   </si>
   <si>
@@ -258,18 +248,10 @@
     </r>
   </si>
   <si>
-    <t>Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido -Hecho, pero falta q se de cuenta q los renglones vacios no los debe rebotar como errores</t>
-  </si>
-  <si>
     <t>usar el arbol con localstorage… -Hecho! Pero sigue lento? Es por la conexión? -va lento tambien cuando uso la consola de chrome para revissar el localstorage  -Tambien va lenta si en saco el modo tree y la pongo como una grilla normal</t>
   </si>
   <si>
     <t>relampagueo de las grillas auxiliares de la derecha al cambiarles el ancho al 100% -¿son las grillas, o el tab que las contiene (lo q cambia de ancho)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*q no aparezca cerrada la grilla aux de facturas a imputar    
-*en la pantalla de detalle de conceptos no me deberias preguntar por cajas y bancos
-* por otro lado no me permite modificar las alicuotas de IVA </t>
   </si>
   <si>
     <r>
@@ -523,6 +505,108 @@
   </si>
   <si>
     <t>COMPRAS</t>
+  </si>
+  <si>
+    <t>en el combo de los puntos de venta, repite algunos pv</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">05 No tengo donde poner el codigo del cliente como para poder buscarlo   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Hay algun form en q lo hayas puesto? Lo hiciste con los pedidos? -nop, no hay buscador del proveedor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Hecho, pero falta q se de cuenta q los renglones vacios no los debe rebotar como errores</t>
+    </r>
+  </si>
+  <si>
+    <t>la exportacion a excel de las grillas. El de RM exporta solo la pagina q se ve. Tenés q usar lo que hiciste para williams en la grilla de Situaciones.
+-Vincularlo con lo de la salida a excel de buques que pidieron en williams. Qué pasa con ese excel de las facturas?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Si en las observaciones pongo un texto que tiene una   tabulacion   , no me permite grabar la factura y arroja errores
+Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-No lo puedo reproducir</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*q no aparezca cerrada la grilla aux de facturas a imputar    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-hecho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+*en la pantalla de detalle de conceptos no me deberias preguntar por cajas y bancos
+* por otro lado no me permite modificar las alicuotas de IVA  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-postergar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">04 Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-postergarlo para el final?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -620,7 +704,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,6 +765,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -710,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1004,6 +1094,46 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1308,11 +1438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1346,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -1358,264 +1488,267 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
-      <c r="G2" s="107" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="107"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="G4" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="108"/>
+      <c r="I4" s="107"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>24946</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="38">
+        <v>42647</v>
+      </c>
+      <c r="D6" s="38">
+        <v>42647</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="40">
+        <v>2</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>24931</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D7" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="116" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="109">
         <v>24938</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B8" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C8" s="111">
         <v>42646</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D8" s="111">
         <v>42646</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E8" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F8" s="113">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="50" t="s">
+      <c r="G8" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="114" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="116" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="109">
+        <v>24935</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="111">
+        <v>42646</v>
+      </c>
+      <c r="D9" s="111">
+        <v>42646</v>
+      </c>
+      <c r="E9" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="113">
+        <v>2</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I9" s="114" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
+        <v>24933</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="44">
+        <v>42646</v>
+      </c>
+      <c r="D10" s="44">
+        <v>42646</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="46">
+        <v>2</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
+        <v>24932</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="44">
+        <v>42646</v>
+      </c>
+      <c r="D11" s="44">
+        <v>42646</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="46">
+        <v>2</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="54" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>24933</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="I11" s="120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="42">
+        <v>24937</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="44">
         <v>42646</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D12" s="44">
         <v>42646</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E12" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="46">
+        <v>2</v>
+      </c>
+      <c r="G12" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="121" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="116" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="109">
+        <v>24936</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="111">
+        <v>42646</v>
+      </c>
+      <c r="D13" s="111">
+        <v>42646</v>
+      </c>
+      <c r="E13" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F13" s="113">
         <v>2</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>24932</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D5" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>24937</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D6" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
-        <v>24946</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="38">
-        <v>42647</v>
-      </c>
-      <c r="D7" s="38">
-        <v>42647</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="40">
-        <v>2</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>24931</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D8" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>24935</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D9" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
-        <v>24936</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="63">
-        <v>42646</v>
-      </c>
-      <c r="D10" s="63">
-        <v>42646</v>
-      </c>
-      <c r="E10" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="65">
-        <v>2</v>
-      </c>
-      <c r="G10" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="4"/>
+      <c r="G13" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="118" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="119" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1624,567 +1757,523 @@
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="107" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>23847</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D15" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="C17" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D17" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>23849</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D16" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E16" s="102" t="s">
+      <c r="C18" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D18" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E18" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="55" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>23846</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D19" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>23846</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D17" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>23857</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D18" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="50" t="s">
+      <c r="I19" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>23848</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="33">
-        <v>42633</v>
-      </c>
-      <c r="D19" s="33">
-        <v>42633</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>23857</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D20" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>23848</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="33">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="33">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>23851</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D20" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C22" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D22" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>23855</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D21" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>23853</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D22" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="58" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I22" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23855</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D23" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="50" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="61">
+      <c r="I23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23853</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D24" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="61">
         <v>24848</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B25" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C25" s="63">
         <v>42635</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D25" s="63">
         <v>42635</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E25" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="81">
+      <c r="F25" s="65"/>
+      <c r="G25" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="81">
         <v>23842</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B26" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="83">
-        <v>42633</v>
-      </c>
-      <c r="D24" s="83">
-        <v>42633</v>
-      </c>
-      <c r="E24" s="84" t="s">
+      <c r="C26" s="83">
+        <v>42633</v>
+      </c>
+      <c r="D26" s="83">
+        <v>42633</v>
+      </c>
+      <c r="E26" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="86" t="s">
+      <c r="F26" s="85"/>
+      <c r="G26" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="87" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="I26" s="86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>23858</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B27" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D25" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="C27" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D27" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>23850</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D28" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="61">
+        <v>23839</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="63">
+        <v>42633</v>
+      </c>
+      <c r="D29" s="63">
+        <v>42633</v>
+      </c>
+      <c r="E29" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="65"/>
+      <c r="G29" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>23852</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D30" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>23856</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D31" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="61">
+        <v>23840</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="63">
+        <v>42633</v>
+      </c>
+      <c r="D32" s="63">
+        <v>42633</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
+      <c r="G36" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="108"/>
+      <c r="I36" s="107"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>24939</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D37" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="50" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>23850</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D26" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61">
-        <v>23839</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="63">
-        <v>42633</v>
-      </c>
-      <c r="D27" s="63">
-        <v>42633</v>
-      </c>
-      <c r="E27" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>23852</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D28" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D29" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="61">
-        <v>23840</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="63">
-        <v>42633</v>
-      </c>
-      <c r="D30" s="63">
-        <v>42633</v>
-      </c>
-      <c r="E30" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="106"/>
-      <c r="G34" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="108"/>
-      <c r="I34" s="107"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D35" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+      <c r="I37" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
         <v>23844</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B38" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D36" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="31">
-        <v>24849</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="33">
-        <v>42635</v>
-      </c>
-      <c r="D37" s="33">
-        <v>42635</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="31">
-        <v>24850</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="33">
-        <v>42635</v>
-      </c>
-      <c r="D38" s="33">
-        <v>42635</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38" s="7">
-        <v>8</v>
-      </c>
+      <c r="C38" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D38" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
-        <v>24851</v>
+        <v>24849</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="33">
         <v>42635</v>
@@ -2193,112 +2282,114 @@
         <v>42635</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F39" s="34"/>
       <c r="G39" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J39" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="80" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="72">
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
+        <v>24850</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D40" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
+        <v>24851</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D41" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="80" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="72">
         <v>23841</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B43" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="74">
-        <v>42633</v>
-      </c>
-      <c r="D41" s="74">
-        <v>42633</v>
-      </c>
-      <c r="E41" s="75" t="s">
+      <c r="C43" s="74">
+        <v>42633</v>
+      </c>
+      <c r="D43" s="74">
+        <v>42633</v>
+      </c>
+      <c r="E43" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="76"/>
-      <c r="G41" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="79" t="s">
+      <c r="F43" s="76"/>
+      <c r="G43" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="78" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="I43" s="79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>24930</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B44" s="27" t="s">
         <v>6</v>
-      </c>
-      <c r="C42" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D42" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="42">
-        <v>24934</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="44">
-        <v>42646</v>
-      </c>
-      <c r="D43" s="44">
-        <v>42646</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="46">
-        <v>2</v>
-      </c>
-      <c r="G43" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>24929</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>5</v>
       </c>
       <c r="C44" s="12">
         <v>42646</v>
@@ -2313,50 +2404,108 @@
         <v>2</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="42">
+        <v>24934</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="44">
+        <v>42646</v>
+      </c>
+      <c r="D45" s="44">
+        <v>42646</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="46">
+        <v>2</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>24929</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D46" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>62</v>
+      <c r="H46" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B44" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B42" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B8" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B5" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B4" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B43" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B46" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B44" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B11" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B10" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B45" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
     <hyperlink ref="B9" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B10" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B6" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B3" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B7" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B27" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B30" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B41" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B24" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B36" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B17" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B15" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B19" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B16" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B26" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B20" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B22" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B21" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B29" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B18" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B25" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B23" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B37" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B38" r:id="rId30" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B39" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
-    <hyperlink ref="B28" r:id="rId32" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B35" r:id="rId33" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B13" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B12" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B8" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B6" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B29" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B32" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B43" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B26" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B38" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B19" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B17" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B21" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B18" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B28" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B22" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B24" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B23" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B31" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B20" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B27" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B25" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B39" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B40" r:id="rId30" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B41" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B30" r:id="rId32" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B37" r:id="rId33" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>
@@ -2368,7 +2517,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -2402,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -2422,10 +2571,10 @@
       <c r="E2" s="92"/>
       <c r="F2" s="10"/>
       <c r="G2" s="90" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H2" s="91" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="101"/>
@@ -2433,23 +2582,23 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="G3" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2459,7 +2608,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -2471,10 +2620,10 @@
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -2486,7 +2635,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2498,10 +2647,10 @@
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -2513,7 +2662,7 @@
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -2525,7 +2674,7 @@
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2537,10 +2686,10 @@
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -2552,10 +2701,10 @@
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -2567,7 +2716,7 @@
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -2579,7 +2728,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2591,7 +2740,7 @@
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2603,7 +2752,7 @@
       <c r="D17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2615,7 +2764,7 @@
       <c r="D18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2627,7 +2776,7 @@
       <c r="D19" s="2"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2639,7 +2788,7 @@
       <c r="D20" s="2"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -176,28 +176,9 @@
     <t>03 Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente</t>
   </si>
   <si>
-    <t>01- NO tengo donde poner el Equipo destino en la cabecera del RM</t>
-  </si>
-  <si>
-    <t>2- No tengo donde poner el Equipo destino del detalle</t>
-  </si>
-  <si>
     <t>No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar</t>
   </si>
   <si>
-    <t>En las comparativas cuando las apruebo no me pide password</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuando de graba una comparativa en los detalle no esta poniendo
-Numero Presupuesto
-Fecha Presupuesto
-IdUnidad
-IdMoneda
-Origen descripcion
-Cotizacion MOneda
-y esta poniendo -1 en IdDetallePresupuesto</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de el porque no me deja</t>
   </si>
   <si>
@@ -229,23 +210,6 @@
   </si>
   <si>
     <t>tambien me revienta el cambio de ancho o de posicion del logo y del superbuscador mientras se termina de cargar el resto de la pagina</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago. Por este tema me encontre en la situacion de querer hacer una factura con una fecha a futuro y el sistema no me toma la cotizacion del dolar
-(Hoy 28-10-2016 quiero hacer una factura con fecha 01-11-2016 y el sistema me arroja el error que falta la cotizacion del dolar. En la tabla de cotizaciones existe tanto la cotizacion del dia de hoy como la del dia 01-11-2016
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-Por lo menos deberia ser editable, no? -y si la edito, le crea un registro en la tabla Cotizaciones? PREGUNTAR</t>
-    </r>
   </si>
   <si>
     <t>usar el arbol con localstorage… -Hecho! Pero sigue lento? Es por la conexión? -va lento tambien cuando uso la consola de chrome para revissar el localstorage  -Tambien va lenta si en saco el modo tree y la pongo como una grilla normal</t>
@@ -371,10 +335,6 @@
     </r>
   </si>
   <si>
-    <t>12- Por la web me permite aprobar presupuestos por usuarios que no son del sector compras 
--En el dropdown parece tirar la lista correcta, pero al elegir el usuario y dispararse el popup, el listado es diferente, y a veces no está el usuario elegido antes del popup</t>
-  </si>
-  <si>
     <t>poner dos renglones en el autofilter de fechas???</t>
   </si>
   <si>
@@ -430,9 +390,6 @@
       </rPr>
       <t>-Creo q esto ya estaba</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dentro de las comparativas en la grella de la derecha no me debe preguntar por la edicion de los presupuestos   -Por? O poner "Ver"</t>
   </si>
   <si>
     <r>
@@ -606,6 +563,120 @@
         <family val="2"/>
       </rPr>
       <t>-postergarlo para el final?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2- No tengo donde poner el Equipo destino del detalle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-postergar, se puede? -por supuesto, así se usa en Autotrol</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01- NO tengo donde poner el Equipo destino en la cabecera del RM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-postergar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12- Por la web me permite aprobar presupuestos por usuarios que no son del sector compras 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-En el dropdown parece tirar la lista correcta, pero al elegir el usuario y dispararse el popup, el listado es diferente, y a veces no está el usuario elegido antes del popup</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Dentro de las comparativas en la grella de la derecha no me debe preguntar por la edicion de los presupuestos 
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Por? O poner "Ver" -bah, lo puse hidden. probarlo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago. Por este tema me encontre en la situacion de querer hacer una factura con una fecha a futuro y el sistema no me toma la cotizacion del dolar
+(Hoy 28-10-2016 quiero hacer una factura con fecha 01-11-2016 y el sistema me arroja el error que falta la cotizacion del dolar. En la tabla de cotizaciones existe tanto la cotizacion del dia de hoy como la del dia 01-11-2016
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Por lo menos deberia ser editable, no? -y si la edito, le crea un registro en la tabla Cotizaciones? PREGUNTAR   -Esto debe pasar por el truco de db.Cotizaciones.OrderByDescending(  !!!!!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En las comparativas cuando las apruebo no me pide password </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Listo, probar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Cuando de graba una comparativa en los detalle no esta poniendo
+Numero Presupuesto
+Fecha Presupuesto
+IdUnidad
+IdMoneda
+Origen descripcion
+Cotizacion MOneda
+y esta poniendo -1 en IdDetallePresupuesto  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-creo q zafa</t>
     </r>
   </si>
 </sst>
@@ -704,7 +775,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,6 +842,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -800,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1127,6 +1204,31 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1438,11 +1540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1476,10 +1578,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -1490,13 +1592,13 @@
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="G2" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="103" customFormat="1" x14ac:dyDescent="0.25">
@@ -1505,7 +1607,7 @@
       <c r="D4" s="105"/>
       <c r="E4" s="106"/>
       <c r="G4" s="107" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H4" s="108"/>
       <c r="I4" s="107"/>
@@ -1515,7 +1617,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -1538,13 +1640,13 @@
         <v>2</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1570,10 +1672,10 @@
         <v>52</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="116" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1596,13 +1698,13 @@
         <v>2</v>
       </c>
       <c r="G8" s="114" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H8" s="115" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I8" s="114" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="116" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1625,13 +1727,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="114" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H9" s="115" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I9" s="114" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1654,13 +1756,13 @@
         <v>2</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1683,13 +1785,13 @@
         <v>2</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="120" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="I11" s="129" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1711,14 +1813,14 @@
       <c r="F12" s="46">
         <v>2</v>
       </c>
-      <c r="G12" s="121" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="121" t="s">
-        <v>61</v>
+      <c r="G12" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="131" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="130" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="116" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1741,13 +1843,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="117" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H13" s="118" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I13" s="119" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1774,7 +1876,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="4"/>
       <c r="G16" s="107" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -1791,17 +1893,17 @@
         <v>42633</v>
       </c>
       <c r="E17" s="90" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="57" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1822,13 +1924,13 @@
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -1849,75 +1951,75 @@
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>23857</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D20" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D20" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E20" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>23848</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="33">
-        <v>42633</v>
-      </c>
-      <c r="D21" s="33">
+      <c r="I20" s="90" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>23855</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="12">
         <v>42633</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>23851</v>
+        <v>23853</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" s="12">
         <v>42633</v>
@@ -1926,52 +2028,52 @@
         <v>42633</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="58" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>23855</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D23" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>23848</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="33">
+        <v>42633</v>
+      </c>
+      <c r="D23" s="33">
         <v>42633</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="F23" s="34"/>
       <c r="G23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23853</v>
+        <v>23851</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="12">
         <v>42633</v>
@@ -1980,44 +2082,17 @@
         <v>42633</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="58" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="61">
-        <v>24848</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="63">
-        <v>42635</v>
-      </c>
-      <c r="D25" s="63">
-        <v>42635</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="66" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2038,13 +2113,13 @@
       </c>
       <c r="F26" s="85"/>
       <c r="G26" s="86" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H26" s="87" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I26" s="86" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2065,13 +2140,13 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2092,130 +2167,132 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="59" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="H28" s="56" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>23852</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D29" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>23856</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D30" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="120">
         <v>23839</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B31" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="63">
-        <v>42633</v>
-      </c>
-      <c r="D29" s="63">
-        <v>42633</v>
-      </c>
-      <c r="E29" s="89" t="s">
+      <c r="C31" s="122">
+        <v>42633</v>
+      </c>
+      <c r="D31" s="122">
+        <v>42633</v>
+      </c>
+      <c r="E31" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>23852</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D30" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D31" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="61">
+      <c r="F31" s="124"/>
+      <c r="G31" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="127" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="128" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="120">
         <v>23840</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="63">
-        <v>42633</v>
-      </c>
-      <c r="D32" s="63">
-        <v>42633</v>
-      </c>
-      <c r="E32" s="89" t="s">
+      <c r="C32" s="122">
+        <v>42633</v>
+      </c>
+      <c r="D32" s="122">
+        <v>42633</v>
+      </c>
+      <c r="E32" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="65"/>
-      <c r="G32" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="71" t="s">
-        <v>61</v>
-      </c>
-    </row>
+      <c r="F32" s="124"/>
+      <c r="G32" s="125" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="168.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:10" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="104"/>
       <c r="C36" s="105"/>
       <c r="D36" s="105"/>
       <c r="E36" s="106"/>
       <c r="G36" s="107" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H36" s="108"/>
       <c r="I36" s="107"/>
@@ -2243,10 +2320,10 @@
         <v>44</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2289,10 +2366,10 @@
         <v>38</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J39" s="7">
         <v>8</v>
@@ -2319,10 +2396,10 @@
         <v>38</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J40" s="7">
         <v>8</v>
@@ -2348,10 +2425,10 @@
         <v>38</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J41" s="7">
         <v>8</v>
@@ -2375,13 +2452,13 @@
       </c>
       <c r="F43" s="76"/>
       <c r="G43" s="77" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H43" s="78" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I43" s="79" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2407,10 +2484,10 @@
         <v>51</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2433,13 +2510,13 @@
         <v>2</v>
       </c>
       <c r="G45" s="60" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H45" s="54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I45" s="47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2465,10 +2542,37 @@
         <v>41</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="61">
+        <v>24848</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="63">
+        <v>42635</v>
+      </c>
+      <c r="D47" s="63">
+        <v>42635</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="66" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2484,27 +2588,27 @@
     <hyperlink ref="B12" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
     <hyperlink ref="B8" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
     <hyperlink ref="B6" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B29" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B31" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
     <hyperlink ref="B32" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
     <hyperlink ref="B43" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
     <hyperlink ref="B26" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
     <hyperlink ref="B38" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
     <hyperlink ref="B19" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
     <hyperlink ref="B17" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B21" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B23" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
     <hyperlink ref="B18" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
     <hyperlink ref="B28" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B22" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B24" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B23" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B31" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B24" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B22" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B21" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B30" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
     <hyperlink ref="B20" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
     <hyperlink ref="B27" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B25" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B47" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
     <hyperlink ref="B39" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
     <hyperlink ref="B40" r:id="rId30" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
     <hyperlink ref="B41" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
-    <hyperlink ref="B30" r:id="rId32" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B29" r:id="rId32" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
     <hyperlink ref="B37" r:id="rId33" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2551,10 +2655,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -2571,10 +2675,10 @@
       <c r="E2" s="92"/>
       <c r="F2" s="10"/>
       <c r="G2" s="90" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H2" s="91" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="101"/>
@@ -2582,23 +2686,23 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="G3" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2608,7 +2712,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -2620,10 +2724,10 @@
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -2635,7 +2739,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2647,10 +2751,10 @@
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -2662,7 +2766,7 @@
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -2674,7 +2778,7 @@
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2686,10 +2790,10 @@
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -2701,10 +2805,10 @@
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -2716,7 +2820,7 @@
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -2728,7 +2832,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2740,7 +2844,7 @@
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2752,7 +2856,7 @@
       <c r="D17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2764,7 +2868,7 @@
       <c r="D18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2776,7 +2880,7 @@
       <c r="D19" s="2"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2788,7 +2892,7 @@
       <c r="D20" s="2"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -176,9 +176,6 @@
     <t>03 Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente</t>
   </si>
   <si>
-    <t>No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de el porque no me deja</t>
   </si>
   <si>
@@ -677,6 +674,22 @@
         <family val="2"/>
       </rPr>
       <t>-creo q zafa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-En efecto, esto parece q nunca se hizo.</t>
     </r>
   </si>
 </sst>
@@ -775,7 +788,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,6 +861,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -877,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1238,6 +1257,31 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1543,8 +1587,8 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1578,10 +1622,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -1592,13 +1636,13 @@
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="G2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="103" customFormat="1" x14ac:dyDescent="0.25">
@@ -1607,7 +1651,7 @@
       <c r="D4" s="105"/>
       <c r="E4" s="106"/>
       <c r="G4" s="107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="108"/>
       <c r="I4" s="107"/>
@@ -1617,7 +1661,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -1640,13 +1684,13 @@
         <v>2</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1672,10 +1716,10 @@
         <v>52</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="116" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1698,13 +1742,13 @@
         <v>2</v>
       </c>
       <c r="G8" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="115" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="116" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1727,13 +1771,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="114" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="115" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1756,13 +1800,13 @@
         <v>2</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1785,13 +1829,13 @@
         <v>2</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1814,13 +1858,13 @@
         <v>2</v>
       </c>
       <c r="G12" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="131" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="130" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="116" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1843,13 +1887,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1876,7 +1920,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="4"/>
       <c r="G16" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -1893,133 +1937,133 @@
         <v>42633</v>
       </c>
       <c r="E17" s="90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
+        <v>23857</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D18" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="140" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="132">
         <v>23849</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B19" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D18" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E18" s="102" t="s">
+      <c r="C19" s="134">
+        <v>42633</v>
+      </c>
+      <c r="D19" s="134">
+        <v>42633</v>
+      </c>
+      <c r="E19" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="30" t="s">
+      <c r="F19" s="136"/>
+      <c r="G19" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="138" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="139" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>23846</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D20" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>23848</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="33">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="33">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>23846</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D19" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>23857</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D20" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="90" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>23855</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B22" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="C21" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D21" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>23853</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>29</v>
       </c>
       <c r="C22" s="12">
         <v>42633</v>
@@ -2031,41 +2075,41 @@
         <v>48</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>23848</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="33">
-        <v>42633</v>
-      </c>
-      <c r="D23" s="33">
+      <c r="H22" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23853</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D23" s="12">
         <v>42633</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="5" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="58" t="s">
+        <v>107</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2086,13 +2130,13 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2113,13 +2157,13 @@
       </c>
       <c r="F26" s="85"/>
       <c r="G26" s="86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2140,13 +2184,13 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2167,13 +2211,13 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H28" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2194,13 +2238,13 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2221,13 +2265,13 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="128" customFormat="1" x14ac:dyDescent="0.25">
@@ -2248,13 +2292,13 @@
       </c>
       <c r="F31" s="124"/>
       <c r="G31" s="125" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H31" s="126" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I31" s="127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="128" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2275,13 +2319,13 @@
       </c>
       <c r="F32" s="124"/>
       <c r="G32" s="125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H32" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="127" t="s">
         <v>56</v>
-      </c>
-      <c r="I32" s="127" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="168.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2292,7 +2336,7 @@
       <c r="D36" s="105"/>
       <c r="E36" s="106"/>
       <c r="G36" s="107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H36" s="108"/>
       <c r="I36" s="107"/>
@@ -2320,10 +2364,10 @@
         <v>44</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2366,10 +2410,10 @@
         <v>38</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" s="7">
         <v>8</v>
@@ -2396,10 +2440,10 @@
         <v>38</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J40" s="7">
         <v>8</v>
@@ -2425,10 +2469,10 @@
         <v>38</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J41" s="7">
         <v>8</v>
@@ -2452,13 +2496,13 @@
       </c>
       <c r="F43" s="76"/>
       <c r="G43" s="77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H43" s="78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I43" s="79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2484,10 +2528,10 @@
         <v>51</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2510,13 +2554,13 @@
         <v>2</v>
       </c>
       <c r="G45" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="47" t="s">
         <v>56</v>
-      </c>
-      <c r="I45" s="47" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2542,10 +2586,10 @@
         <v>41</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2566,13 +2610,13 @@
       </c>
       <c r="F47" s="65"/>
       <c r="G47" s="66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H47" s="67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I47" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2593,16 +2637,16 @@
     <hyperlink ref="B43" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
     <hyperlink ref="B26" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
     <hyperlink ref="B38" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B19" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B20" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
     <hyperlink ref="B17" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B23" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B18" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B21" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B19" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
     <hyperlink ref="B28" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
     <hyperlink ref="B24" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B22" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B21" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B23" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B22" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
     <hyperlink ref="B30" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B20" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B18" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
     <hyperlink ref="B27" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
     <hyperlink ref="B47" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
     <hyperlink ref="B39" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
@@ -2655,10 +2699,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -2675,10 +2719,10 @@
       <c r="E2" s="92"/>
       <c r="F2" s="10"/>
       <c r="G2" s="90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="101"/>
@@ -2686,23 +2730,23 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="G3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2712,7 +2756,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -2724,10 +2768,10 @@
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -2739,7 +2783,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2751,10 +2795,10 @@
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -2766,7 +2810,7 @@
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -2778,7 +2822,7 @@
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2790,10 +2834,10 @@
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -2805,10 +2849,10 @@
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -2820,7 +2864,7 @@
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -2832,7 +2876,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2844,7 +2888,7 @@
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2856,7 +2900,7 @@
       <c r="D17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2868,7 +2912,7 @@
       <c r="D18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2880,7 +2924,7 @@
       <c r="D19" s="2"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2892,7 +2936,7 @@
       <c r="D20" s="2"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -171,12 +171,6 @@
   </si>
   <si>
     <t>"aceptar y nueva fac" (agregado q pide fer)</t>
-  </si>
-  <si>
-    <t>03 Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de el porque no me deja</t>
   </si>
   <si>
     <t>dific</t>
@@ -255,9 +249,6 @@
   </si>
   <si>
     <t>atacar primer mes el circuito de compras. El otro mes para ventas.</t>
-  </si>
-  <si>
-    <t>VENTAS</t>
   </si>
   <si>
     <t>el movimiento del superbuscador al refrescar la pagina</t>
@@ -415,8 +406,243 @@
 -Vincularlo con lo de la salida a excel de buques que pidieron en williams</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Despues de editar el formulario cuando vuelve a la grilla en la columna de Unidades me pone el ID de la unidad y no el nombre (Hace falta ACEPTAR. Si no, no se modifican las unidades)
+    <t>POSTERGADOS (se puede hacer el circuito sin ellos)</t>
+  </si>
+  <si>
+    <t>COMPRAS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">05 No tengo donde poner el codigo del cliente como para poder buscarlo   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Hay algun form en q lo hayas puesto? Lo hiciste con los pedidos? -nop, no hay buscador del proveedor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Hecho, pero falta q se de cuenta q los renglones vacios no los debe rebotar como errores</t>
+    </r>
+  </si>
+  <si>
+    <t>la exportacion a excel de las grillas. El de RM exporta solo la pagina q se ve. Tenés q usar lo que hiciste para williams en la grilla de Situaciones.
+-Vincularlo con lo de la salida a excel de buques que pidieron en williams. Qué pasa con ese excel de las facturas?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Si en las observaciones pongo un texto que tiene una   tabulacion   , no me permite grabar la factura y arroja errores
+Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-No lo puedo reproducir</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*q no aparezca cerrada la grilla aux de facturas a imputar    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-hecho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+*en la pantalla de detalle de conceptos no me deberias preguntar por cajas y bancos
+* por otro lado no me permite modificar las alicuotas de IVA  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-postergar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">04 Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-postergarlo para el final?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2- No tengo donde poner el Equipo destino del detalle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-postergar, se puede? -por supuesto, así se usa en Autotrol</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01- NO tengo donde poner el Equipo destino en la cabecera del RM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-postergar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12- Por la web me permite aprobar presupuestos por usuarios que no son del sector compras 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-En el dropdown parece tirar la lista correcta, pero al elegir el usuario y dispararse el popup, el listado es diferente, y a veces no está el usuario elegido antes del popup</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Dentro de las comparativas en la grella de la derecha no me debe preguntar por la edicion de los presupuestos 
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Por? O poner "Ver" -bah, lo puse hidden. probarlo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago. Por este tema me encontre en la situacion de querer hacer una factura con una fecha a futuro y el sistema no me toma la cotizacion del dolar
+(Hoy 28-10-2016 quiero hacer una factura con fecha 01-11-2016 y el sistema me arroja el error que falta la cotizacion del dolar. En la tabla de cotizaciones existe tanto la cotizacion del dia de hoy como la del dia 01-11-2016
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Por lo menos deberia ser editable, no? -y si la edito, le crea un registro en la tabla Cotizaciones? PREGUNTAR   -Esto debe pasar por el truco de db.Cotizaciones.OrderByDescending(  !!!!!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En las comparativas cuando las apruebo no me pide password </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Listo, probar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Cuando de graba una comparativa en los detalle no esta poniendo
+Numero Presupuesto
+Fecha Presupuesto
+IdUnidad
+IdMoneda
+Origen descripcion
+Cotizacion MOneda
+y esta poniendo -1 en IdDetallePresupuesto  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-creo q zafa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-En efecto, esto parece q nunca se hizo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Despues de editar el formulario cuando vuelve a la grilla en la columna de Unidades me pone el ID de la unidad y no el nombre (Hace falta ACEPTAR. Si no, no se modifican las unidades). Y eso me impide cerrar el formularito.
 </t>
     </r>
     <r>
@@ -450,184 +676,9 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">-En el PED, al cambiar la calidad me cambia la unidad (sin salir del formedit)
-</t>
-    </r>
-  </si>
-  <si>
-    <t>POSTERGADOS (se puede hacer el circuito sin ellos)</t>
-  </si>
-  <si>
-    <t>COMPRAS</t>
-  </si>
-  <si>
-    <t>en el combo de los puntos de venta, repite algunos pv</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">05 No tengo donde poner el codigo del cliente como para poder buscarlo   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-Hay algun form en q lo hayas puesto? Lo hiciste con los pedidos? -nop, no hay buscador del proveedor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-Hecho, pero falta q se de cuenta q los renglones vacios no los debe rebotar como errores</t>
-    </r>
-  </si>
-  <si>
-    <t>la exportacion a excel de las grillas. El de RM exporta solo la pagina q se ve. Tenés q usar lo que hiciste para williams en la grilla de Situaciones.
--Vincularlo con lo de la salida a excel de buques que pidieron en williams. Qué pasa con ese excel de las facturas?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Si en las observaciones pongo un texto que tiene una   tabulacion   , no me permite grabar la factura y arroja errores
-Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-No lo puedo reproducir</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*q no aparezca cerrada la grilla aux de facturas a imputar    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-hecho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-*en la pantalla de detalle de conceptos no me deberias preguntar por cajas y bancos
-* por otro lado no me permite modificar las alicuotas de IVA  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-postergar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">04 Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-postergarlo para el final?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2- No tengo donde poner el Equipo destino del detalle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-postergar, se puede? -por supuesto, así se usa en Autotrol</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">01- NO tengo donde poner el Equipo destino en la cabecera del RM </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-postergar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12- Por la web me permite aprobar presupuestos por usuarios que no son del sector compras 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-En el dropdown parece tirar la lista correcta, pero al elegir el usuario y dispararse el popup, el listado es diferente, y a veces no está el usuario elegido antes del popup</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Dentro de las comparativas en la grella de la derecha no me debe preguntar por la edicion de los presupuestos 
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-Por? O poner "Ver" -bah, lo puse hidden. probarlo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago. Por este tema me encontre en la situacion de querer hacer una factura con una fecha a futuro y el sistema no me toma la cotizacion del dolar
-(Hoy 28-10-2016 quiero hacer una factura con fecha 01-11-2016 y el sistema me arroja el error que falta la cotizacion del dolar. En la tabla de cotizaciones existe tanto la cotizacion del dia de hoy como la del dia 01-11-2016
-</t>
+      <t>-En el PED, al cambiar la calidad me cambia la unidad (sin salir del formedit)
+-¿Qué se ejecuta en el change de calidades, que hace q se modifique las unidades?  
+-</t>
     </r>
     <r>
       <rPr>
@@ -637,34 +688,13 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>-Por lo menos deberia ser editable, no? -y si la edito, le crea un registro en la tabla Cotizaciones? PREGUNTAR   -Esto debe pasar por el truco de db.Cotizaciones.OrderByDescending(  !!!!!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">En las comparativas cuando las apruebo no me pide password </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-Listo, probar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Cuando de graba una comparativa en los detalle no esta poniendo
-Numero Presupuesto
-Fecha Presupuesto
-IdUnidad
-IdMoneda
-Origen descripcion
-Cotizacion MOneda
-y esta poniendo -1 en IdDetallePresupuesto  </t>
+      <t>RefrescarRenglon(this);  Lo comenté y dejó de hacerlo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de el porque no me deja
+  </t>
     </r>
     <r>
       <rPr>
@@ -673,23 +703,22 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>-creo q zafa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar 
+      <t>-parece q anda porque la rm esta imputada ahora</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">03 Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>-En efecto, esto parece q nunca se hizo.</t>
+      <t>-se refiere a la grillita, no al formcito (porque éste en las FAC no esta puesto)</t>
     </r>
   </si>
 </sst>
@@ -788,7 +817,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,6 +892,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -896,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1175,9 +1210,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1272,16 +1304,47 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1584,11 +1647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1662,7 @@
     <col min="4" max="4" width="17.42578125" style="24" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="91.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="100.28515625" style="5" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="50" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="5" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="7"/>
@@ -1622,10 +1685,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -1636,185 +1699,200 @@
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="G2" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="104"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="106"/>
-      <c r="G4" s="107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="106"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>23847</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D5" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E5" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="107"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="131">
+        <v>24931</v>
+      </c>
+      <c r="B6" s="132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="133">
+        <v>42646</v>
+      </c>
+      <c r="D6" s="133">
+        <v>42646</v>
+      </c>
+      <c r="E6" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="F6" s="135">
+        <v>2</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="150" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>23848</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D7" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="148" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="149" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>24946</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C8" s="19">
         <v>42647</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D8" s="19">
         <v>42647</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F8" s="21">
         <v>2</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="51" t="s">
+      <c r="G8" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="115" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="108">
+        <v>24938</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="110">
+        <v>42646</v>
+      </c>
+      <c r="D9" s="110">
+        <v>42646</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="112">
+        <v>2</v>
+      </c>
+      <c r="G9" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="113" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="115" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="108">
+        <v>24935</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="110">
+        <v>42646</v>
+      </c>
+      <c r="D10" s="110">
+        <v>42646</v>
+      </c>
+      <c r="E10" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="112">
+        <v>2</v>
+      </c>
+      <c r="G10" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>24931</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D7" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="116" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="109">
-        <v>24938</v>
-      </c>
-      <c r="B8" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="111">
-        <v>42646</v>
-      </c>
-      <c r="D8" s="111">
-        <v>42646</v>
-      </c>
-      <c r="E8" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="113">
-        <v>2</v>
-      </c>
-      <c r="G8" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="114" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="116" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="109">
-        <v>24935</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="111">
-        <v>42646</v>
-      </c>
-      <c r="D9" s="111">
-        <v>42646</v>
-      </c>
-      <c r="E9" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="113">
-        <v>2</v>
-      </c>
-      <c r="G9" s="114" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="114" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="I10" s="113" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
         <v>24933</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B11" s="43" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" s="44">
-        <v>42646</v>
-      </c>
-      <c r="D10" s="44">
-        <v>42646</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="46">
-        <v>2</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
-        <v>24932</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>8</v>
       </c>
       <c r="C11" s="44">
         <v>42646</v>
@@ -1829,21 +1907,21 @@
         <v>2</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="129" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
-        <v>24937</v>
+        <v>24932</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" s="44">
         <v>42646</v>
@@ -1852,57 +1930,78 @@
         <v>42646</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="46">
         <v>2</v>
       </c>
-      <c r="G12" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="130" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="116" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="109">
+      <c r="G12" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="128" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="42">
+        <v>24937</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="44">
+        <v>42646</v>
+      </c>
+      <c r="D13" s="44">
+        <v>42646</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="46">
+        <v>2</v>
+      </c>
+      <c r="G13" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="129" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="108">
         <v>24936</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B14" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C14" s="110">
         <v>42646</v>
       </c>
-      <c r="D13" s="111">
+      <c r="D14" s="110">
         <v>42646</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E14" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F14" s="112">
         <v>2</v>
       </c>
-      <c r="G13" s="117" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="4"/>
+      <c r="G14" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="118" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1919,89 +2018,70 @@
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="107" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>23847</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="9">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>23857</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="19">
         <v>42633</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="19">
         <v>42633</v>
       </c>
-      <c r="E17" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>23857</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="E18" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="147" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="139">
+        <v>23849</v>
+      </c>
+      <c r="B19" s="140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="141">
         <v>42633</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="141">
         <v>42633</v>
       </c>
-      <c r="E18" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="90" t="s">
+      <c r="E19" s="142" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="143"/>
+      <c r="G19" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="145" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="146" t="s">
         <v>53</v>
-      </c>
-      <c r="H18" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="90" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="140" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="132">
-        <v>23849</v>
-      </c>
-      <c r="B19" s="133" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="134">
-        <v>42633</v>
-      </c>
-      <c r="D19" s="134">
-        <v>42633</v>
-      </c>
-      <c r="E19" s="135" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="136"/>
-      <c r="G19" s="137" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="138" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="139" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -2022,48 +2102,48 @@
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>23848</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="33">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>23855</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12">
         <v>42633</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="12">
         <v>42633</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>23855</v>
+        <v>23853</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="12">
         <v>42633</v>
@@ -2075,22 +2155,22 @@
         <v>48</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="G22" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I22" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>23853</v>
+        <v>23851</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="12">
         <v>42633</v>
@@ -2099,79 +2179,79 @@
         <v>42633</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="58" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I23" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="81">
+        <v>23842</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="83">
+        <v>42633</v>
+      </c>
+      <c r="D25" s="83">
+        <v>42633</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="87" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23851</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="I25" s="86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>23858</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="12">
         <v>42633</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D26" s="12">
         <v>42633</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="81">
-        <v>23842</v>
-      </c>
-      <c r="B26" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="83">
-        <v>42633</v>
-      </c>
-      <c r="D26" s="83">
-        <v>42633</v>
-      </c>
-      <c r="E26" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="86" t="s">
-        <v>55</v>
+      <c r="E26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>23858</v>
+        <v>23850</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C27" s="12">
         <v>42633</v>
@@ -2180,25 +2260,25 @@
         <v>42633</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>55</v>
+      <c r="G27" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>23850</v>
+        <v>23852</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" s="12">
         <v>42633</v>
@@ -2207,25 +2287,25 @@
         <v>42633</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>55</v>
+      <c r="G28" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>23852</v>
+        <v>23856</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29" s="12">
         <v>42633</v>
@@ -2234,167 +2314,170 @@
         <v>42633</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="52" t="s">
+      <c r="G29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="119">
+        <v>23839</v>
+      </c>
+      <c r="B30" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="121">
+        <v>42633</v>
+      </c>
+      <c r="D30" s="121">
+        <v>42633</v>
+      </c>
+      <c r="E30" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="123"/>
+      <c r="G30" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="126" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="119">
+        <v>23840</v>
+      </c>
+      <c r="B31" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="121">
+        <v>42633</v>
+      </c>
+      <c r="D31" s="121">
+        <v>42633</v>
+      </c>
+      <c r="E31" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="126" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="168.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
+      <c r="G35" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="107"/>
+      <c r="I35" s="106"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>24939</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D36" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I36" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>23844</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D37" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
+        <v>24849</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D38" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D30" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="120">
-        <v>23839</v>
-      </c>
-      <c r="B31" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="122">
-        <v>42633</v>
-      </c>
-      <c r="D31" s="122">
-        <v>42633</v>
-      </c>
-      <c r="E31" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="124"/>
-      <c r="G31" s="125" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="126" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="127" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="128" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="120">
-        <v>23840</v>
-      </c>
-      <c r="B32" s="121" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="122">
-        <v>42633</v>
-      </c>
-      <c r="D32" s="122">
-        <v>42633</v>
-      </c>
-      <c r="E32" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="124"/>
-      <c r="G32" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="127" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="168.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:10" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="104"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="106"/>
-      <c r="G36" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="108"/>
-      <c r="I36" s="107"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D37" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
-        <v>23844</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D38" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="22"/>
+      <c r="I38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
-        <v>24849</v>
+        <v>24850</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" s="33">
         <v>42635</v>
@@ -2403,17 +2486,17 @@
         <v>42635</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J39" s="7">
         <v>8</v>
@@ -2421,10 +2504,10 @@
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
-        <v>24850</v>
+        <v>24851</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" s="33">
         <v>42635</v>
@@ -2433,227 +2516,197 @@
         <v>42635</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="34"/>
+        <v>50</v>
+      </c>
       <c r="G40" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J40" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="31">
-        <v>24851</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="33">
+    <row r="42" spans="1:10" s="80" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="72">
+        <v>23841</v>
+      </c>
+      <c r="B42" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="74">
+        <v>42633</v>
+      </c>
+      <c r="D42" s="74">
+        <v>42633</v>
+      </c>
+      <c r="E42" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="76"/>
+      <c r="G42" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>24930</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D43" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="42">
+        <v>24934</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="44">
+        <v>42646</v>
+      </c>
+      <c r="D44" s="44">
+        <v>42646</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="46">
+        <v>2</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>24929</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D45" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="61">
+        <v>24848</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="63">
         <v>42635</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D46" s="63">
         <v>42635</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="80" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="72">
-        <v>23841</v>
-      </c>
-      <c r="B43" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="74">
-        <v>42633</v>
-      </c>
-      <c r="D43" s="74">
-        <v>42633</v>
-      </c>
-      <c r="E43" s="75" t="s">
+      <c r="E46" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="79" t="s">
+      <c r="F46" s="65"/>
+      <c r="G46" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="67" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>24930</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D44" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="4">
-        <v>2</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" s="50" t="s">
+      <c r="I46" s="66" t="s">
         <v>55</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="42">
-        <v>24934</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="44">
-        <v>42646</v>
-      </c>
-      <c r="D45" s="44">
-        <v>42646</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="46">
-        <v>2</v>
-      </c>
-      <c r="G45" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="I45" s="47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>24929</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D46" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="4">
-        <v>2</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="61">
-        <v>24848</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="63">
-        <v>42635</v>
-      </c>
-      <c r="D47" s="63">
-        <v>42635</v>
-      </c>
-      <c r="E47" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="65"/>
-      <c r="G47" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="66" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B46" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B44" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B7" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B11" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B10" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B45" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B9" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B13" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B12" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B8" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B6" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B31" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B32" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B43" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B26" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B38" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B45" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B43" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B6" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B12" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B11" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B44" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B10" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B14" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B13" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B9" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B8" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B30" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B31" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B42" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B25" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B37" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
     <hyperlink ref="B20" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B17" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B21" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B5" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B7" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
     <hyperlink ref="B19" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B28" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B24" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B23" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B22" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B30" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B27" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B23" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B22" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B21" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B29" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
     <hyperlink ref="B18" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B27" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B47" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B39" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B40" r:id="rId30" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B41" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
-    <hyperlink ref="B29" r:id="rId32" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B37" r:id="rId33" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B26" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B46" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B38" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B39" r:id="rId30" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B40" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B28" r:id="rId32" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B36" r:id="rId33" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>
@@ -2699,10 +2752,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -2719,10 +2772,10 @@
       <c r="E2" s="92"/>
       <c r="F2" s="10"/>
       <c r="G2" s="90" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H2" s="91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="101"/>
@@ -2730,23 +2783,23 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="G3" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2756,7 +2809,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -2768,10 +2821,10 @@
       <c r="D7" s="2"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -2783,7 +2836,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2795,10 +2848,10 @@
       <c r="D9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -2810,7 +2863,7 @@
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -2822,7 +2875,7 @@
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2834,10 +2887,10 @@
       <c r="D12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -2849,10 +2902,10 @@
       <c r="D13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -2864,7 +2917,7 @@
       <c r="D14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -2876,7 +2929,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2888,7 +2941,7 @@
       <c r="D16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2900,7 +2953,7 @@
       <c r="D17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2912,7 +2965,7 @@
       <c r="D18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2924,7 +2977,7 @@
       <c r="D19" s="2"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2936,7 +2989,7 @@
       <c r="D20" s="2"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -293,21 +293,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-Corregido usando FormatterFecha. Hay que modificarlo en el resto de los formularios</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">13- No me permite tirar un Presupuesto dentro de otro para poder luego hacer la compartativa
 </t>
     </r>
@@ -719,6 +704,22 @@
         <family val="2"/>
       </rPr>
       <t>-se refiere a la grillita, no al formcito (porque éste en las FAC no esta puesto)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Corregido usando FormatterFecha. Hay que modificarlo en el resto de los formularios 
+-El FormatterFecha lo saqué porque me traia problemas en otro bug. Cómo quedó este entonces?</t>
     </r>
   </si>
 </sst>
@@ -931,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1344,6 +1345,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1651,7 +1664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1699,10 +1712,10 @@
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="G2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>57</v>
@@ -1735,7 +1748,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="55" t="s">
         <v>57</v>
@@ -1744,213 +1757,209 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="131">
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>23846</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D6" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E6" s="154" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>23842</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D7" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E7" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="131">
         <v>24931</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B8" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C8" s="133">
         <v>42646</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D8" s="133">
         <v>42646</v>
       </c>
-      <c r="E6" s="134" t="s">
+      <c r="E8" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="135">
+      <c r="F8" s="135">
         <v>2</v>
       </c>
-      <c r="G6" s="137" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="138" t="s">
+      <c r="G8" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="150" t="s">
+      <c r="I8" s="150" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+    <row r="9" spans="1:11" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>23848</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C9" s="19">
         <v>42633</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D9" s="19">
         <v>42633</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="148" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="149" t="s">
+      <c r="I9" s="149" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    <row r="10" spans="1:11" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>24946</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C10" s="19">
         <v>42647</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D10" s="19">
         <v>42647</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F10" s="21">
         <v>2</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="53" t="s">
+      <c r="G10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="115" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="108">
+    <row r="11" spans="1:11" s="127" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="119">
         <v>24938</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B11" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C11" s="121">
         <v>42646</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D11" s="121">
         <v>42646</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E11" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F11" s="123">
         <v>2</v>
       </c>
-      <c r="G9" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="114" t="s">
+      <c r="G11" s="152" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I11" s="152" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="115" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+    <row r="12" spans="1:11" s="115" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="108">
         <v>24935</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B12" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="110">
+      <c r="C12" s="110">
         <v>42646</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D12" s="110">
         <v>42646</v>
       </c>
-      <c r="E10" s="111" t="s">
+      <c r="E12" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="112">
+      <c r="F12" s="112">
         <v>2</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G12" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="114" t="s">
+      <c r="H12" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="113" t="s">
+      <c r="I12" s="113" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+    <row r="13" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="42">
         <v>24933</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B13" s="43" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="44">
-        <v>42646</v>
-      </c>
-      <c r="D11" s="44">
-        <v>42646</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="46">
-        <v>2</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
-        <v>24932</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="44">
-        <v>42646</v>
-      </c>
-      <c r="D12" s="44">
-        <v>42646</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="46">
-        <v>2</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="128" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
-        <v>24937</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>13</v>
       </c>
       <c r="C13" s="44">
         <v>42646</v>
@@ -1959,65 +1968,107 @@
         <v>42646</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="46">
         <v>2</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="42">
+        <v>24932</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="44">
+        <v>42646</v>
+      </c>
+      <c r="D14" s="44">
+        <v>42646</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="46">
+        <v>2</v>
+      </c>
+      <c r="G14" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="130" t="s">
+      <c r="H14" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="128" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="42">
+        <v>24937</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="44">
+        <v>42646</v>
+      </c>
+      <c r="D15" s="44">
+        <v>42646</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="46">
+        <v>2</v>
+      </c>
+      <c r="G15" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="129" t="s">
+      <c r="I15" s="129" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+    <row r="16" spans="1:11" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="108">
         <v>24936</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B16" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C16" s="110">
         <v>42646</v>
       </c>
-      <c r="D14" s="110">
+      <c r="D16" s="110">
         <v>42646</v>
       </c>
-      <c r="E14" s="111" t="s">
+      <c r="E16" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F16" s="112">
         <v>2</v>
       </c>
-      <c r="G14" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="117" t="s">
+      <c r="G16" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="118" t="s">
+      <c r="I16" s="118" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -2026,70 +2077,32 @@
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="106" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="106" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>23857</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B20" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D18" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="147" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="139">
-        <v>23849</v>
-      </c>
-      <c r="B19" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="141">
-        <v>42633</v>
-      </c>
-      <c r="D19" s="141">
-        <v>42633</v>
-      </c>
-      <c r="E19" s="142" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="144" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="145" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="146" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>23846</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>22</v>
       </c>
       <c r="C20" s="19">
         <v>42633</v>
@@ -2098,125 +2111,125 @@
         <v>42633</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="147" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="139">
+        <v>23849</v>
+      </c>
+      <c r="B21" s="140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="141">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="141">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="142" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="143"/>
+      <c r="G21" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="145" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="146" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
         <v>23855</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B22" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C22" s="19">
         <v>42633</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="19">
         <v>42633</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E22" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="50" t="s">
+      <c r="F22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I22" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="23" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
         <v>23853</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B23" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C23" s="19">
         <v>42633</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="19">
         <v>42633</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="52" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="151" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I23" s="149" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23851</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C24" s="12">
         <v>42633</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <v>42633</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="52" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I24" s="16" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="81">
-        <v>23842</v>
-      </c>
-      <c r="B25" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="83">
-        <v>42633</v>
-      </c>
-      <c r="D25" s="83">
-        <v>42633</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="86" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2237,7 +2250,7 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="50" t="s">
         <v>54</v>
@@ -2264,7 +2277,7 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" s="56" t="s">
         <v>54</v>
@@ -2291,7 +2304,7 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H28" s="52" t="s">
         <v>53</v>
@@ -2318,7 +2331,7 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="50" t="s">
         <v>53</v>
@@ -2345,7 +2358,7 @@
       </c>
       <c r="F30" s="123"/>
       <c r="G30" s="124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H30" s="125" t="s">
         <v>54</v>
@@ -2372,7 +2385,7 @@
       </c>
       <c r="F31" s="123"/>
       <c r="G31" s="124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" s="125" t="s">
         <v>53</v>
@@ -2389,7 +2402,7 @@
       <c r="D35" s="104"/>
       <c r="E35" s="105"/>
       <c r="G35" s="106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H35" s="107"/>
       <c r="I35" s="106"/>
@@ -2645,7 +2658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="68" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="61">
         <v>24848</v>
       </c>
@@ -2676,30 +2689,30 @@
   <hyperlinks>
     <hyperlink ref="B45" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
     <hyperlink ref="B43" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B6" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B12" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B11" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B8" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B14" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B13" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
     <hyperlink ref="B44" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B10" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B14" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B13" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B9" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B8" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B12" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B16" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B15" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B10" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
     <hyperlink ref="B30" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
     <hyperlink ref="B31" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
     <hyperlink ref="B42" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B25" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B7" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
     <hyperlink ref="B37" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B20" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B6" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
     <hyperlink ref="B5" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B7" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B19" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B9" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B21" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
     <hyperlink ref="B27" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B23" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B22" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B21" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B24" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B23" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B22" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
     <hyperlink ref="B29" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B18" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B20" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
     <hyperlink ref="B26" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
     <hyperlink ref="B46" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
     <hyperlink ref="B38" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
@@ -2772,7 +2785,7 @@
       <c r="E2" s="92"/>
       <c r="F2" s="10"/>
       <c r="G2" s="90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>57</v>
@@ -2783,10 +2796,10 @@
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="G3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>57</v>
@@ -2794,12 +2807,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2809,7 +2822,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -2836,7 +2849,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
   <si>
     <t>NºReclamo</t>
   </si>
@@ -721,6 +721,9 @@
       <t>-Corregido usando FormatterFecha. Hay que modificarlo en el resto de los formularios 
 -El FormatterFecha lo saqué porque me traia problemas en otro bug. Cómo quedó este entonces?</t>
     </r>
+  </si>
+  <si>
+    <t>estan funcionando las impresiones de plantillas?</t>
   </si>
 </sst>
 </file>
@@ -1660,11 +1663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1721,21 +1724,44 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="106"/>
-    </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>23847</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9">
+        <v>42633</v>
+      </c>
+      <c r="D4" s="9">
+        <v>42633</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>23847</v>
+        <v>23846</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9">
         <v>42633</v>
@@ -1743,26 +1769,26 @@
       <c r="D5" s="9">
         <v>42633</v>
       </c>
-      <c r="E5" s="90" t="s">
-        <v>71</v>
+      <c r="E5" s="154" t="s">
+        <v>47</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="55" t="s">
+      <c r="G5" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="I5" s="90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>23846</v>
+        <v>23842</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9">
         <v>42633</v>
@@ -1771,195 +1797,197 @@
         <v>42633</v>
       </c>
       <c r="E6" s="154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="90" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H6" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="131">
+        <v>24931</v>
+      </c>
+      <c r="B7" s="132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="133">
+        <v>42646</v>
+      </c>
+      <c r="D7" s="133">
+        <v>42646</v>
+      </c>
+      <c r="E7" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="135">
+        <v>2</v>
+      </c>
+      <c r="G7" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>23848</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D8" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="148" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="149" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>24946</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="19">
+        <v>42647</v>
+      </c>
+      <c r="D9" s="19">
+        <v>42647</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="127" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="119">
+        <v>24938</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="121">
+        <v>42646</v>
+      </c>
+      <c r="D10" s="121">
+        <v>42646</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="123">
+        <v>2</v>
+      </c>
+      <c r="G10" s="152" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="152" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="115" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="108">
+        <v>24935</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="110">
+        <v>42646</v>
+      </c>
+      <c r="D11" s="110">
+        <v>42646</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="112">
+        <v>2</v>
+      </c>
+      <c r="G11" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="90" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>23842</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="9">
-        <v>42633</v>
-      </c>
-      <c r="D7" s="9">
-        <v>42633</v>
-      </c>
-      <c r="E7" s="154" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="90" t="s">
+      <c r="I11" s="113" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="131">
-        <v>24931</v>
-      </c>
-      <c r="B8" s="132" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="133">
+    <row r="12" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="42">
+        <v>24933</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="44">
         <v>42646</v>
       </c>
-      <c r="D8" s="133">
+      <c r="D12" s="44">
         <v>42646</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E12" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="135">
+      <c r="F12" s="46">
         <v>2</v>
       </c>
-      <c r="G8" s="137" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="138" t="s">
+      <c r="G12" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="150" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>23848</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D9" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="148" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="149" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>24946</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="19">
-        <v>42647</v>
-      </c>
-      <c r="D10" s="19">
-        <v>42647</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="21">
-        <v>2</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="127" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="119">
-        <v>24938</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="121">
-        <v>42646</v>
-      </c>
-      <c r="D11" s="121">
-        <v>42646</v>
-      </c>
-      <c r="E11" s="122" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="123">
-        <v>2</v>
-      </c>
-      <c r="G11" s="152" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="153" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="152" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="115" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
-        <v>24935</v>
-      </c>
-      <c r="B12" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="110">
-        <v>42646</v>
-      </c>
-      <c r="D12" s="110">
-        <v>42646</v>
-      </c>
-      <c r="E12" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="112">
-        <v>2</v>
-      </c>
-      <c r="G12" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
-        <v>24933</v>
+        <v>24932</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="44">
         <v>42646</v>
@@ -1974,21 +2002,21 @@
         <v>2</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="128" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
-        <v>24932</v>
+        <v>24937</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C14" s="44">
         <v>42646</v>
@@ -1997,78 +2025,57 @@
         <v>42646</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="46">
         <v>2</v>
       </c>
-      <c r="G14" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="128" t="s">
+      <c r="G14" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="129" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="108">
+        <v>24936</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="110">
+        <v>42646</v>
+      </c>
+      <c r="D15" s="110">
+        <v>42646</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="112">
+        <v>2</v>
+      </c>
+      <c r="G15" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="117" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
-        <v>24937</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="44">
-        <v>42646</v>
-      </c>
-      <c r="D15" s="44">
-        <v>42646</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="46">
-        <v>2</v>
-      </c>
-      <c r="G15" s="129" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="129" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
-        <v>24936</v>
-      </c>
-      <c r="B16" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="110">
-        <v>42646</v>
-      </c>
-      <c r="D16" s="110">
-        <v>42646</v>
-      </c>
-      <c r="E16" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="112">
-        <v>2</v>
-      </c>
-      <c r="G16" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="117" t="s">
+      <c r="I15" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="118" t="s">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -2085,78 +2092,97 @@
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="106" t="s">
+      <c r="G18" s="106" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <v>23857</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C19" s="19">
         <v>42633</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D19" s="19">
         <v>42633</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E19" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H19" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I19" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="147" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="139">
+    <row r="20" spans="1:9" s="147" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="139">
         <v>23849</v>
       </c>
-      <c r="B21" s="140" t="s">
+      <c r="B20" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="141">
+      <c r="C20" s="141">
         <v>42633</v>
       </c>
-      <c r="D21" s="141">
+      <c r="D20" s="141">
         <v>42633</v>
       </c>
-      <c r="E21" s="142" t="s">
+      <c r="E20" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="143"/>
-      <c r="G21" s="144" t="s">
+      <c r="F20" s="143"/>
+      <c r="G20" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="145" t="s">
+      <c r="H20" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="146" t="s">
+      <c r="I20" s="146" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>23855</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D21" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
-        <v>23855</v>
+        <v>23853</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="19">
         <v>42633</v>
@@ -2168,76 +2194,76 @@
         <v>48</v>
       </c>
       <c r="F22" s="21"/>
-      <c r="G22" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="53" t="s">
+      <c r="G22" s="151" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="149" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
-        <v>23853</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="19">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23851</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="12">
         <v>42633</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="12">
         <v>42633</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="151" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="148" t="s">
+      <c r="E23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="149" t="s">
+      <c r="I23" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23858</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D25" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23851</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D24" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>23858</v>
+        <v>23850</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C26" s="12">
         <v>42633</v>
@@ -2246,25 +2272,25 @@
         <v>42633</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="50" t="s">
+      <c r="G26" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>23850</v>
+        <v>23852</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27" s="12">
         <v>42633</v>
@@ -2273,25 +2299,25 @@
         <v>42633</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="17" t="s">
+      <c r="G27" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>23852</v>
+        <v>23856</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C28" s="12">
         <v>42633</v>
@@ -2300,52 +2326,52 @@
         <v>42633</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="52" t="s">
+      <c r="G28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>23856</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="12">
+    <row r="29" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="119">
+        <v>23839</v>
+      </c>
+      <c r="B29" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="121">
         <v>42633</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="121">
         <v>42633</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="50" t="s">
+      <c r="E29" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="123"/>
+      <c r="G29" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="119">
-        <v>23839</v>
+        <v>23840</v>
       </c>
       <c r="B30" s="120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="121">
         <v>42633</v>
@@ -2358,109 +2384,112 @@
       </c>
       <c r="F30" s="123"/>
       <c r="G30" s="124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="126" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="119">
-        <v>23840</v>
-      </c>
-      <c r="B31" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="121">
+    </row>
+    <row r="32" spans="1:9" ht="168.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="103"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="105"/>
+      <c r="G34" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="107"/>
+      <c r="I34" s="106"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>24939</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D35" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>23844</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="19">
         <v>42633</v>
       </c>
-      <c r="D31" s="121">
+      <c r="D36" s="19">
         <v>42633</v>
       </c>
-      <c r="E31" s="122" t="s">
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <v>24849</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="33">
+        <v>42635</v>
+      </c>
+      <c r="D37" s="33">
+        <v>42635</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="123"/>
-      <c r="G31" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="126" t="s">
+      <c r="F37" s="34"/>
+      <c r="G37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="168.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="103"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
-      <c r="G35" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="107"/>
-      <c r="I35" s="106"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>24939</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D36" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
-        <v>23844</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D37" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="22"/>
+      <c r="J37" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
-        <v>24849</v>
+        <v>24850</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="33">
         <v>42635</v>
@@ -2469,7 +2498,7 @@
         <v>42635</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="5" t="s">
@@ -2487,10 +2516,10 @@
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
-        <v>24850</v>
+        <v>24851</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" s="33">
         <v>42635</v>
@@ -2499,9 +2528,8 @@
         <v>42635</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="34"/>
+        <v>50</v>
+      </c>
       <c r="G39" s="5" t="s">
         <v>38</v>
       </c>
@@ -2515,211 +2543,182 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="31">
-        <v>24851</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="33">
+    <row r="41" spans="1:10" s="80" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="72">
+        <v>23841</v>
+      </c>
+      <c r="B41" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="74">
+        <v>42633</v>
+      </c>
+      <c r="D41" s="74">
+        <v>42633</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="76"/>
+      <c r="G41" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>24930</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D42" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="42">
+        <v>24934</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="44">
+        <v>42646</v>
+      </c>
+      <c r="D43" s="44">
+        <v>42646</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="46">
+        <v>2</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>24929</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="12">
+        <v>42646</v>
+      </c>
+      <c r="D44" s="12">
+        <v>42646</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="61">
+        <v>24848</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="63">
         <v>42635</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D45" s="63">
         <v>42635</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="50" t="s">
+      <c r="E45" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J40" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="80" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="72">
-        <v>23841</v>
-      </c>
-      <c r="B42" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="74">
-        <v>42633</v>
-      </c>
-      <c r="D42" s="74">
-        <v>42633</v>
-      </c>
-      <c r="E42" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="76"/>
-      <c r="G42" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="I42" s="79" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>24930</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D43" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="4">
-        <v>2</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="42">
-        <v>24934</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="44">
-        <v>42646</v>
-      </c>
-      <c r="D44" s="44">
-        <v>42646</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="46">
-        <v>2</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>24929</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="12">
-        <v>42646</v>
-      </c>
-      <c r="D45" s="12">
-        <v>42646</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="4">
-        <v>2</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="68" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="61">
-        <v>24848</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="63">
-        <v>42635</v>
-      </c>
-      <c r="D46" s="63">
-        <v>42635</v>
-      </c>
-      <c r="E46" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" s="66" t="s">
+      <c r="I45" s="66" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B45" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
-    <hyperlink ref="B43" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B8" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B14" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B13" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
-    <hyperlink ref="B44" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B12" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B16" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B15" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B11" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B10" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
-    <hyperlink ref="B30" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
-    <hyperlink ref="B31" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
-    <hyperlink ref="B42" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B7" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
-    <hyperlink ref="B37" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B6" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
-    <hyperlink ref="B5" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B9" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B21" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
-    <hyperlink ref="B27" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B24" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B23" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B22" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
-    <hyperlink ref="B29" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B20" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
-    <hyperlink ref="B26" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
-    <hyperlink ref="B46" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
-    <hyperlink ref="B38" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
-    <hyperlink ref="B39" r:id="rId30" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
-    <hyperlink ref="B40" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
-    <hyperlink ref="B28" r:id="rId32" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
-    <hyperlink ref="B36" r:id="rId33" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
+    <hyperlink ref="B44" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
+    <hyperlink ref="B42" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B13" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B12" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B43" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
+    <hyperlink ref="B11" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B15" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B14" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B10" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B9" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B29" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
+    <hyperlink ref="B30" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
+    <hyperlink ref="B41" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
+    <hyperlink ref="B6" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B36" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
+    <hyperlink ref="B5" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B4" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
+    <hyperlink ref="B8" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B20" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B26" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
+    <hyperlink ref="B23" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B22" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B21" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B28" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
+    <hyperlink ref="B19" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B25" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
+    <hyperlink ref="B45" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
+    <hyperlink ref="B37" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>
+    <hyperlink ref="B38" r:id="rId30" tooltip="Agregar las funcionalidades en la pantalla principal de las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24850"/>
+    <hyperlink ref="B39" r:id="rId31" tooltip="Agregar las funcionalidades en la pantalla principal de los articulos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24851"/>
+    <hyperlink ref="B27" r:id="rId32" tooltip="14-_x0009_Dentro de las comparativas en la grella de la derecha no me debe preguntar por la _x0009_edision de los presupuestos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23852"/>
+    <hyperlink ref="B35" r:id="rId33" tooltip="11_x0009_En la grilla no me esta preguntando por la alicuota de iva, asume siempre 21" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24939"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -935,7 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1357,9 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1667,7 +1664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1756,238 +1753,236 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>23851</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12">
+        <v>42633</v>
+      </c>
+      <c r="D5" s="12">
+        <v>42633</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <v>23846</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="33">
         <v>42633</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="33">
         <v>42633</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="E6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="90" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="91" t="s">
+      <c r="H6" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="I6" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <v>23842</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="33">
         <v>42633</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="33">
         <v>42633</v>
       </c>
-      <c r="E6" s="154" t="s">
+      <c r="E7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="90" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H7" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="90" t="s">
+      <c r="I7" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="131">
+    <row r="8" spans="1:11" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="131">
         <v>24931</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B8" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="133">
+      <c r="C8" s="133">
         <v>42646</v>
       </c>
-      <c r="D7" s="133">
+      <c r="D8" s="133">
         <v>42646</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E8" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="135">
+      <c r="F8" s="135">
         <v>2</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G8" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="138" t="s">
+      <c r="H8" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="150" t="s">
+      <c r="I8" s="150" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    <row r="9" spans="1:11" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>23848</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C9" s="19">
         <v>42633</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D9" s="19">
         <v>42633</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="148" t="s">
+      <c r="H9" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="149" t="s">
+      <c r="I9" s="149" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+    <row r="10" spans="1:11" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>24946</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C10" s="19">
         <v>42647</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D10" s="19">
         <v>42647</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F10" s="21">
         <v>2</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="127" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="119">
+    <row r="11" spans="1:11" s="127" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="119">
         <v>24938</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B11" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="121">
+      <c r="C11" s="121">
         <v>42646</v>
       </c>
-      <c r="D10" s="121">
+      <c r="D11" s="121">
         <v>42646</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E11" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F11" s="123">
         <v>2</v>
       </c>
-      <c r="G10" s="152" t="s">
+      <c r="G11" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="153" t="s">
+      <c r="H11" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="152" t="s">
+      <c r="I11" s="152" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="115" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="108">
+    <row r="12" spans="1:11" s="115" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="108">
         <v>24935</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B12" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="110">
+      <c r="C12" s="110">
         <v>42646</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D12" s="110">
         <v>42646</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E12" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F12" s="112">
         <v>2</v>
       </c>
-      <c r="G11" s="113" t="s">
+      <c r="G12" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="H12" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="113" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
-        <v>24933</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="44">
-        <v>42646</v>
-      </c>
-      <c r="D12" s="44">
-        <v>42646</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="46">
-        <v>2</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="113" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
-        <v>24932</v>
+        <v>24933</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="44">
         <v>42646</v>
@@ -2002,21 +1997,21 @@
         <v>2</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
-        <v>24937</v>
+        <v>24932</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" s="44">
         <v>42646</v>
@@ -2025,57 +2020,78 @@
         <v>42646</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="46">
         <v>2</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="G14" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="128" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="42">
+        <v>24937</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="44">
+        <v>42646</v>
+      </c>
+      <c r="D15" s="44">
+        <v>42646</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="46">
+        <v>2</v>
+      </c>
+      <c r="G15" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="H15" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="129" t="s">
+      <c r="I15" s="129" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+    <row r="16" spans="1:11" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="108">
         <v>24936</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B16" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C16" s="110">
         <v>42646</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D16" s="110">
         <v>42646</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E16" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="112">
+      <c r="F16" s="112">
         <v>2</v>
       </c>
-      <c r="G15" s="116" t="s">
+      <c r="G16" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="117" t="s">
+      <c r="H16" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="118" t="s">
+      <c r="I16" s="118" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -2092,97 +2108,78 @@
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="106" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="106" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>23857</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C20" s="19">
         <v>42633</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D20" s="19">
         <v>42633</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E20" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H20" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I20" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="147" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="139">
+    <row r="21" spans="1:9" s="147" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="139">
         <v>23849</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B21" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="141">
+      <c r="C21" s="141">
         <v>42633</v>
       </c>
-      <c r="D20" s="141">
+      <c r="D21" s="141">
         <v>42633</v>
       </c>
-      <c r="E20" s="142" t="s">
+      <c r="E21" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="143"/>
-      <c r="G20" s="144" t="s">
+      <c r="F21" s="143"/>
+      <c r="G21" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="145" t="s">
+      <c r="H21" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="146" t="s">
+      <c r="I21" s="146" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
         <v>23855</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B22" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="C21" s="19">
-        <v>42633</v>
-      </c>
-      <c r="D21" s="19">
-        <v>42633</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
-        <v>23853</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="C22" s="19">
         <v>42633</v>
@@ -2194,41 +2191,41 @@
         <v>48</v>
       </c>
       <c r="F22" s="21"/>
-      <c r="G22" s="151" t="s">
+      <c r="G22" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>23853</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="19">
+        <v>42633</v>
+      </c>
+      <c r="D23" s="19">
+        <v>42633</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="148" t="s">
+      <c r="H23" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="149" t="s">
+      <c r="I23" s="149" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>23851</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="12">
-        <v>42633</v>
-      </c>
-      <c r="D23" s="12">
-        <v>42633</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2688,30 +2685,30 @@
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" tooltip="01_x0009_No me esta preguntando por el periodo de servicio (esto lo hace en pronto)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24929"/>
     <hyperlink ref="B42" r:id="rId2" tooltip="02_x0009_Cuando termina de Facturar me vuelve a la factura (eso estaria bien) se podra poner un boton para hacer una nueva y no obligarme a ir al principal?" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24930"/>
-    <hyperlink ref="B7" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
-    <hyperlink ref="B13" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
-    <hyperlink ref="B12" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
+    <hyperlink ref="B8" r:id="rId3" tooltip="03_x0009_Cuando agrego un item nuevo, no puedo recorrer todos los campos con TAB en algunos campos se queda parado y no pasa al siguiente" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24931"/>
+    <hyperlink ref="B14" r:id="rId4" tooltip="04_x0009_Si pongo el codigo del articulo no me lo trae, si pongo la descripcion del articulo si me llena el codigo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24932"/>
+    <hyperlink ref="B13" r:id="rId5" tooltip="05_x0009_No tengo donde poner el codigo del cliente como para poder buscarlo" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24933"/>
     <hyperlink ref="B43" r:id="rId6" tooltip="06_x0009_Tengo que hacer click 2 veces sobre el campo observaciones generales de la factura, al primero no queda seleccionado" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24934"/>
-    <hyperlink ref="B11" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
-    <hyperlink ref="B15" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
-    <hyperlink ref="B14" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
-    <hyperlink ref="B10" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
-    <hyperlink ref="B9" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
+    <hyperlink ref="B12" r:id="rId7" tooltip="07_x0009_Si todo dale bien me muestra el cartel verde indicando el exito, pero si falla no lo abre, lo tegno que ir a buscar manualmente (Debera ser al revez o mostrar siempre los mensajes)" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24935"/>
+    <hyperlink ref="B16" r:id="rId8" tooltip="08_x0009_Se podria inicializar los detalles con un registro en blanco? como se hace con las notas de pedido" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24936"/>
+    <hyperlink ref="B15" r:id="rId9" tooltip="09_x0009_No se pueden hacer notas de Credito" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24937"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="10_x0009_Si en las observaciones pongo un texto que tiene una tabulacion, no me permite grabar la factura y arroja errores_x000a_Esto paso porque Copie texto desde la WEB de una tabla de la pagina de las consultas nuestra" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24938"/>
+    <hyperlink ref="B10" r:id="rId11" tooltip="Preguntar antes de hacer la factura por la cotizacion del dolar (como se hace en las Ordenes de pago" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24946"/>
     <hyperlink ref="B29" r:id="rId12" tooltip="01-_x0009_NO tengo donde poner el Equipo destino en la cabecera del RM" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23839"/>
     <hyperlink ref="B30" r:id="rId13" tooltip="02-_x0009_No tengo donde poner el Equipo destino del detalle" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23840"/>
     <hyperlink ref="B41" r:id="rId14" tooltip="03-_x0009_Si entro en el detalle le tengo que poner Solo materiao o observaciones sino no me _x0009_deja aceptar y no me dice4 porque" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23841"/>
-    <hyperlink ref="B6" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
+    <hyperlink ref="B7" r:id="rId15" tooltip="04-_x0009_Si no le pongo fecha de entrega lo inicializa con fecha 01-01-0001" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23842"/>
     <hyperlink ref="B36" r:id="rId16" tooltip="06-_x0009_Dentro de Consultas --&gt; Akmacenes --&gt; Requerimientos Pendientes de Asignacion tira _x0009_&quot;Falta un valor en el parámetro **CadenaConexion**&quot;" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23844"/>
-    <hyperlink ref="B5" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
+    <hyperlink ref="B6" r:id="rId17" tooltip="08-_x0009_Por lo menos en la solicitud de cotizacion, (ver otros formularios) Cuendo hago doble _x0009_click para editar un registro, en el campo en el cual hago click cuando me trae el _x0009_formulario, pone codigo HTML que no deberia ir" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23846"/>
     <hyperlink ref="B4" r:id="rId18" tooltip="09-_x0009_Despues de editar el formulario cuando vuvle a la grilla en la columna de Unidades me _x0009_pone el ID de la unidad y no el nombre" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23847"/>
-    <hyperlink ref="B8" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
-    <hyperlink ref="B20" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
+    <hyperlink ref="B9" r:id="rId19" tooltip="10-_x0009_Por periodos de las solicitudes de cotizacion no funciona muestra siempre lo mismo y _x0009_el paginado pone paginas en Blanco" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23848"/>
+    <hyperlink ref="B21" r:id="rId20" tooltip="11-_x0009_No esta relacionando el presupuesto contra el RM despues de arrastrar y tirar" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23849"/>
     <hyperlink ref="B26" r:id="rId21" tooltip="12-_x0009_Por la web me permite aprobar presupuestos por usuarios que no son del sector compras" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23850"/>
-    <hyperlink ref="B23" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
-    <hyperlink ref="B22" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
-    <hyperlink ref="B21" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
+    <hyperlink ref="B5" r:id="rId22" tooltip="13-_x0009_No me permite tirar un Presupuesto dentro de otro para poder luego hacer la _x0009_compartativa" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23851"/>
+    <hyperlink ref="B23" r:id="rId23" tooltip="15-_x0009_En las comparativas cuando las apruebo no me pide password" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23853"/>
+    <hyperlink ref="B22" r:id="rId24" tooltip="16- Cuando de graba una comparativa en los detalle no esta poniendo_x000a__x0009_Numero Presupuesto_x000a__x0009_Fecha Presupuesto_x000a__x0009_IdUnidad_x000a__x0009_IdMoneda_x000a__x0009_Origen descripcion_x000a__x0009_Cotizacion MOneda_x000a__x0009_y esta poniendo -1 en IdDetallePresupuesto" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23855"/>
     <hyperlink ref="B28" r:id="rId25" tooltip="17-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009_presupuesto de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23856"/>
-    <hyperlink ref="B19" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
+    <hyperlink ref="B20" r:id="rId26" tooltip="18-_x0009_Cuando tiro un presupuesto dentro de la nota de pedido, como no esta atado al RM no me _x0009_lo pone, y por eso no me deja grabar el item de pedido, deberia mostrar un mensaje de _x0009_el porque no me deja" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23857"/>
     <hyperlink ref="B25" r:id="rId27" tooltip="19-_x0009_Cuando se hace una nota de pedido en la grilla de la derecha deberia ordenar los _x0009__x0009_RM de mayor a menor" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=23858"/>
     <hyperlink ref="B45" r:id="rId28" tooltip="La consulta de _x000a_Consultas--&gt; Almacenes--&gt; Requerimientos pendientes de Asignacion_x000a__x000a_actualmente esta saliendo por el reporting services y eso no nos sirve_x000a_ya que dentro de este reporte tiene interaccion con el usuario, _x000a__x000a_deberiamos tener una grilla en la c" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24848"/>
     <hyperlink ref="B37" r:id="rId29" tooltip="Agregar funcionalidades a la pantalla principal de los Requerimientos" display="http://consultas.bdlconsultores.com.ar/Admin/verConsultas1.php?recordid=24849"/>

--- a/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
+++ b/docsplanif/Pronto - Web de Consultas para Clientes.xlsx
@@ -1664,7 +1664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
